--- a/MC.PA.xlsx
+++ b/MC.PA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8111A22-5268-45FF-98F4-078D18810D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423EFD4D-15F7-40EA-8C0D-659F66E82A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{833B3248-1BC2-4BAF-AC24-6FD47873AD76}"/>
+    <workbookView xWindow="225" yWindow="4635" windowWidth="38175" windowHeight="15240" activeTab="4" xr2:uid="{833B3248-1BC2-4BAF-AC24-6FD47873AD76}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -889,7 +889,7 @@
     <numFmt numFmtId="170" formatCode="&quot;FY&quot;0&quot;A&quot;"/>
     <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,12 +987,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2191,7 +2185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8159692D-F6A3-4F44-AE01-03788CB191C2}">
   <dimension ref="A1:AP488"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2740,7 +2734,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="73">
-        <f t="shared" ref="G16:H22" si="0">+G3/C3-1</f>
+        <f t="shared" ref="G17:H22" si="0">+G3/C3-1</f>
         <v>2.4165794748320035E-2</v>
       </c>
       <c r="H17" s="73" t="e">
@@ -28383,7 +28377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F8662E-1F68-4C99-A2E3-6A8F101E112D}">
   <dimension ref="A1:AE76"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -28458,7 +28452,7 @@
       </c>
       <c r="E4" s="27">
         <f ca="1">+TODAY()</f>
-        <v>45762</v>
+        <v>45847</v>
       </c>
       <c r="G4" t="s">
         <v>158</v>
@@ -29846,43 +29840,43 @@
       </c>
       <c r="M53" s="19">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.71111111111111114</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="N53" s="19">
         <f ca="1">M53+1</f>
-        <v>1.7111111111111112</v>
+        <v>1.4777777777777779</v>
       </c>
       <c r="O53" s="19">
         <f ca="1">N53+1</f>
-        <v>2.7111111111111112</v>
+        <v>2.4777777777777779</v>
       </c>
       <c r="P53" s="19">
         <f t="shared" ref="P53:V53" ca="1" si="16">O53+1</f>
-        <v>3.7111111111111112</v>
+        <v>3.4777777777777779</v>
       </c>
       <c r="Q53" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>4.7111111111111112</v>
+        <v>4.4777777777777779</v>
       </c>
       <c r="R53" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>5.7111111111111112</v>
+        <v>5.4777777777777779</v>
       </c>
       <c r="S53" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>6.7111111111111112</v>
+        <v>6.4777777777777779</v>
       </c>
       <c r="T53" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>7.7111111111111112</v>
+        <v>7.4777777777777779</v>
       </c>
       <c r="U53" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>8.7111111111111121</v>
+        <v>8.4777777777777779</v>
       </c>
       <c r="V53" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>9.7111111111111121</v>
+        <v>9.4777777777777779</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">

--- a/MC.PA.xlsx
+++ b/MC.PA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60675F9A-3B31-4298-BD6B-09F0AC59D4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FE66F6-E577-40AB-9BD2-D5727B86D46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" activeTab="4" xr2:uid="{833B3248-1BC2-4BAF-AC24-6FD47873AD76}"/>
   </bookViews>
@@ -1294,7 +1294,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1403,6 +1403,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1421,8 +1422,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -22347,51 +22346,51 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="80" t="s">
+      <c r="B10" t="s">
         <v>260</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
-      <c r="F10" s="81">
+      <c r="F10" s="74">
         <f t="shared" ref="F10" si="16">+F19/F9</f>
         <v>6.8187727921357224</v>
       </c>
-      <c r="G10" s="81">
+      <c r="G10" s="74">
         <f>+G19/G9</f>
         <v>6.3120342476613285</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="81" t="e">
+      <c r="J10" s="74" t="e">
         <f t="shared" ref="J10:Q10" si="17">+J19/J9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="81" t="e">
+      <c r="K10" s="74" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="81" t="e">
+      <c r="L10" s="74" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="81" t="e">
+      <c r="M10" s="74" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="81">
+      <c r="N10" s="74">
         <f t="shared" si="17"/>
         <v>13.980225988700566</v>
       </c>
-      <c r="O10" s="81">
+      <c r="O10" s="74">
         <f t="shared" si="17"/>
         <v>14.130391996063638</v>
       </c>
-      <c r="P10" s="81">
+      <c r="P10" s="74">
         <f t="shared" si="17"/>
         <v>13.426827334707468</v>
       </c>
-      <c r="Q10" s="81">
+      <c r="Q10" s="74">
         <f t="shared" si="17"/>
         <v>12.804041541144759</v>
       </c>
@@ -29917,7 +29916,7 @@
   <dimension ref="A1:AE76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29994,14 +29993,14 @@
       </c>
       <c r="E4" s="27">
         <f ca="1">+TODAY()</f>
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="G4" t="s">
         <v>158</v>
       </c>
       <c r="J4" s="28">
         <f ca="1">V62</f>
-        <v>464.71241770418192</v>
+        <v>464.8377958752061</v>
       </c>
       <c r="L4" t="s">
         <v>159</v>
@@ -30023,7 +30022,7 @@
       </c>
       <c r="J5" s="31">
         <f ca="1">J4/J3-1</f>
-        <v>-1.1775826253733301E-2</v>
+        <v>-1.1509206007004558E-2</v>
       </c>
       <c r="L5" t="s">
         <v>161</v>
@@ -31621,43 +31620,43 @@
       <c r="L52" s="56"/>
       <c r="M52" s="56">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>5929.7951893539102</v>
+        <v>5819.9387403397932</v>
       </c>
       <c r="N52" s="56">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>13544.347098067712</v>
+        <v>13554.077430139534</v>
       </c>
       <c r="O52" s="56">
         <f t="shared" ref="O52:U52" ca="1" si="20">O51/(1+$E$18)^O53</f>
-        <v>13915.579037579993</v>
+        <v>13925.576064681185</v>
       </c>
       <c r="P52" s="56">
         <f t="shared" ca="1" si="20"/>
-        <v>14241.637240748116</v>
+        <v>14251.868509822631</v>
       </c>
       <c r="Q52" s="56">
         <f t="shared" ca="1" si="20"/>
-        <v>14592.095904226298</v>
+        <v>14602.578944696537</v>
       </c>
       <c r="R52" s="56">
         <f t="shared" ca="1" si="20"/>
-        <v>14896.527826079429</v>
+        <v>14907.229572085747</v>
       </c>
       <c r="S52" s="56">
         <f t="shared" ca="1" si="20"/>
-        <v>14027.403845866824</v>
+        <v>14037.481208513955</v>
       </c>
       <c r="T52" s="56">
         <f t="shared" ca="1" si="20"/>
-        <v>12847.869044755629</v>
+        <v>12857.099023234148</v>
       </c>
       <c r="U52" s="56">
         <f t="shared" ca="1" si="20"/>
-        <v>11758.871906816445</v>
+        <v>11767.319543872321</v>
       </c>
       <c r="V52" s="57">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>10753.753083402176</v>
+        <v>10761.478637669372</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
@@ -31666,43 +31665,43 @@
       </c>
       <c r="M53" s="19">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.43333333333333335</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="N53" s="19">
         <f ca="1">M53+1</f>
-        <v>1.4333333333333333</v>
+        <v>1.425</v>
       </c>
       <c r="O53" s="19">
         <f ca="1">N53+1</f>
-        <v>2.4333333333333336</v>
+        <v>2.4249999999999998</v>
       </c>
       <c r="P53" s="19">
         <f t="shared" ref="P53:V53" ca="1" si="21">O53+1</f>
-        <v>3.4333333333333336</v>
+        <v>3.4249999999999998</v>
       </c>
       <c r="Q53" s="19">
         <f t="shared" ca="1" si="21"/>
-        <v>4.4333333333333336</v>
+        <v>4.4249999999999998</v>
       </c>
       <c r="R53" s="19">
         <f t="shared" ca="1" si="21"/>
-        <v>5.4333333333333336</v>
+        <v>5.4249999999999998</v>
       </c>
       <c r="S53" s="19">
         <f t="shared" ca="1" si="21"/>
-        <v>6.4333333333333336</v>
+        <v>6.4249999999999998</v>
       </c>
       <c r="T53" s="19">
         <f t="shared" ca="1" si="21"/>
-        <v>7.4333333333333336</v>
+        <v>7.4249999999999998</v>
       </c>
       <c r="U53" s="19">
         <f t="shared" ca="1" si="21"/>
-        <v>8.4333333333333336</v>
+        <v>8.4250000000000007</v>
       </c>
       <c r="V53" s="19">
         <f t="shared" ca="1" si="21"/>
-        <v>9.4333333333333336</v>
+        <v>9.4250000000000007</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
@@ -31715,7 +31714,7 @@
       <c r="Q54" s="6"/>
       <c r="V54" s="21">
         <f ca="1">SUM(M52:V52)</f>
-        <v>126507.88017689653</v>
+        <v>126484.64767505521</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
@@ -31759,7 +31758,7 @@
       <c r="U56" s="59"/>
       <c r="V56" s="60">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>119328.0362046613</v>
+        <v>119413.76211004033</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
@@ -31787,7 +31786,7 @@
       <c r="U57" s="61"/>
       <c r="V57" s="62">
         <f ca="1">V54+V56</f>
-        <v>245835.91638155782</v>
+        <v>245898.40978509554</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
@@ -31841,7 +31840,7 @@
       <c r="Q60" s="6"/>
       <c r="V60" s="63">
         <f ca="1">V57+V58-V59</f>
-        <v>231630.91638155782</v>
+        <v>231693.40978509554</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
@@ -31878,7 +31877,7 @@
       </c>
       <c r="V62" s="63">
         <f ca="1">V60/V61</f>
-        <v>464.71241770418192</v>
+        <v>464.8377958752061</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -31911,35 +31910,35 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B68" s="64"/>
-      <c r="C68" s="74" t="s">
+      <c r="C68" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="D68" s="74"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="74"/>
-      <c r="J68" s="75"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="76"/>
       <c r="M68" s="64"/>
-      <c r="N68" s="76" t="s">
+      <c r="N68" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="O68" s="76"/>
-      <c r="P68" s="76"/>
-      <c r="Q68" s="76"/>
-      <c r="R68" s="76"/>
-      <c r="S68" s="76"/>
-      <c r="T68" s="76"/>
-      <c r="U68" s="77"/>
+      <c r="O68" s="77"/>
+      <c r="P68" s="77"/>
+      <c r="Q68" s="77"/>
+      <c r="R68" s="77"/>
+      <c r="S68" s="77"/>
+      <c r="T68" s="77"/>
+      <c r="U68" s="78"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B69" s="78" t="s">
+      <c r="B69" s="79" t="s">
         <v>172</v>
       </c>
       <c r="C69" s="65">
         <f ca="1">+J4</f>
-        <v>464.71241770418192</v>
+        <v>464.8377958752061</v>
       </c>
       <c r="D69" s="66">
         <v>0.01</v>
@@ -31962,12 +31961,12 @@
       <c r="J69" s="66">
         <v>0.04</v>
       </c>
-      <c r="M69" s="78" t="s">
+      <c r="M69" s="79" t="s">
         <v>172</v>
       </c>
       <c r="N69" s="65">
         <f ca="1">+J4</f>
-        <v>464.71241770418192</v>
+        <v>464.8377958752061</v>
       </c>
       <c r="O69" s="66">
         <v>0.08</v>
@@ -31992,369 +31991,369 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B70" s="78"/>
+      <c r="B70" s="79"/>
       <c r="C70" s="67">
         <v>0.06</v>
       </c>
       <c r="D70" s="68">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>744.19945289015243</v>
+        <v>744.3430671248891</v>
       </c>
       <c r="E70" s="68">
-        <v>773.36320118416165</v>
+        <v>773.52098002235232</v>
       </c>
       <c r="F70" s="68">
-        <v>809.52097056225432</v>
+        <v>809.69631094499891</v>
       </c>
       <c r="G70" s="69">
-        <v>855.67019863189489</v>
+        <v>855.86795333219311</v>
       </c>
       <c r="H70" s="68">
-        <v>916.80661473885777</v>
+        <v>917.03406291620922</v>
       </c>
       <c r="I70" s="68">
-        <v>1001.922531705536</v>
+        <v>1002.1913200151401</v>
       </c>
       <c r="J70" s="68">
-        <v>1129.0025751767157</v>
-      </c>
-      <c r="M70" s="78"/>
+        <v>1129.3330852651718</v>
+      </c>
+      <c r="M70" s="79"/>
       <c r="N70" s="67">
         <v>0.06</v>
       </c>
       <c r="O70" s="68">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>764.09282418120188</v>
+        <v>764.24610047010447</v>
       </c>
       <c r="P70" s="68">
-        <v>782.60058752163059</v>
+        <v>782.7628528858022</v>
       </c>
       <c r="Q70" s="68">
-        <v>797.40679819397383</v>
+        <v>797.57625481836044</v>
       </c>
       <c r="R70" s="69">
-        <v>809.52097056225432</v>
+        <v>809.69631094499891</v>
       </c>
       <c r="S70" s="68">
-        <v>819.61611420248835</v>
+        <v>819.79635771719768</v>
       </c>
       <c r="T70" s="68">
-        <v>828.15815882114782</v>
+        <v>828.34255113982749</v>
       </c>
       <c r="U70" s="68">
-        <v>835.4799113514274</v>
+        <v>835.66785978779592</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B71" s="78"/>
+      <c r="B71" s="79"/>
       <c r="C71" s="67">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D71" s="68">
-        <v>616.39109931184851</v>
+        <v>616.52404847510707</v>
       </c>
       <c r="E71" s="68">
-        <v>631.5760104709841</v>
+        <v>631.71752363635449</v>
       </c>
       <c r="F71" s="68">
-        <v>649.58050600153445</v>
+        <v>649.73217336116545</v>
       </c>
       <c r="G71" s="69">
-        <v>671.34444736063688</v>
+        <v>671.50838917072758</v>
       </c>
       <c r="H71" s="68">
-        <v>698.27762673399911</v>
+        <v>698.45675834682311</v>
       </c>
       <c r="I71" s="68">
-        <v>732.595431842018</v>
+        <v>732.7939180465371</v>
       </c>
       <c r="J71" s="68">
-        <v>777.99017555202192</v>
-      </c>
-      <c r="M71" s="78"/>
+        <v>778.21426353167942</v>
+      </c>
+      <c r="M71" s="79"/>
       <c r="N71" s="67">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O71" s="68">
-        <v>616.31863335837761</v>
+        <v>616.45154165221186</v>
       </c>
       <c r="P71" s="68">
-        <v>629.86976665744146</v>
+        <v>630.01031753363725</v>
       </c>
       <c r="Q71" s="68">
-        <v>640.71067329669268</v>
+        <v>640.85733823877786</v>
       </c>
       <c r="R71" s="69">
-        <v>649.58050600153445</v>
+        <v>649.73217336116545</v>
       </c>
       <c r="S71" s="68">
-        <v>656.97203325556927</v>
+        <v>657.12786929648848</v>
       </c>
       <c r="T71" s="68">
-        <v>663.22640247052175</v>
+        <v>663.38576585714645</v>
       </c>
       <c r="U71" s="68">
-        <v>668.58729036905254</v>
+        <v>668.74967719485323</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B72" s="78"/>
+      <c r="B72" s="79"/>
       <c r="C72" s="67">
         <v>0.08</v>
       </c>
       <c r="D72" s="69">
-        <v>524.76064020207571</v>
+        <v>524.88573652408024</v>
       </c>
       <c r="E72" s="69">
-        <v>532.84634457373625</v>
+        <v>532.97662826089015</v>
       </c>
       <c r="F72" s="69">
-        <v>542.11372157346068</v>
+        <v>542.24995072513639</v>
       </c>
       <c r="G72" s="69">
-        <v>552.88504555435748</v>
+        <v>553.02818502430159</v>
       </c>
       <c r="H72" s="69">
-        <v>565.61150061077842</v>
+        <v>565.76280470886149</v>
       </c>
       <c r="I72" s="69">
-        <v>580.94479710123176</v>
+        <v>581.10593824061436</v>
       </c>
       <c r="J72" s="69">
-        <v>599.86250056347922</v>
-      </c>
-      <c r="M72" s="78"/>
+        <v>600.03577831225766</v>
+      </c>
+      <c r="M72" s="79"/>
       <c r="N72" s="67">
         <v>0.08</v>
       </c>
       <c r="O72" s="69">
-        <v>516.72417218991802</v>
+        <v>516.84411273424701</v>
       </c>
       <c r="P72" s="69">
-        <v>527.06806267950947</v>
+        <v>527.19463932312783</v>
       </c>
       <c r="Q72" s="69">
-        <v>535.34317507118271</v>
+        <v>535.47506059423267</v>
       </c>
       <c r="R72" s="69">
-        <v>542.11372157346068</v>
+        <v>542.24995072513639</v>
       </c>
       <c r="S72" s="69">
-        <v>547.75584365869236</v>
+        <v>547.8956925008896</v>
       </c>
       <c r="T72" s="69">
-        <v>552.52994696158078</v>
+        <v>552.67285861883465</v>
       </c>
       <c r="U72" s="69">
-        <v>556.62203550691368</v>
+        <v>556.76757243421616</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B73" s="78"/>
+      <c r="B73" s="79"/>
       <c r="C73" s="67">
         <v>0.09</v>
       </c>
       <c r="D73" s="68">
-        <v>455.78042951215457</v>
+        <v>455.89939089464394</v>
       </c>
       <c r="E73" s="68">
-        <v>460.00954119626289</v>
+        <v>460.13154079541613</v>
       </c>
       <c r="F73" s="68">
-        <v>464.71241770418192</v>
+        <v>464.8377958752061</v>
       </c>
       <c r="G73" s="69">
-        <v>469.99838937986777</v>
+        <v>470.12756502147903</v>
       </c>
       <c r="H73" s="68">
-        <v>476.01323001526265</v>
+        <v>476.14672675085632</v>
       </c>
       <c r="I73" s="68">
-        <v>482.95572205392307</v>
+        <v>483.09420631327504</v>
       </c>
       <c r="J73" s="68">
-        <v>491.10416091682896</v>
-      </c>
-      <c r="M73" s="78"/>
+        <v>491.24849905864772</v>
+      </c>
+      <c r="M73" s="79"/>
       <c r="N73" s="67">
         <v>0.09</v>
       </c>
       <c r="O73" s="68">
-        <v>444.76213750885097</v>
+        <v>444.87318329088509</v>
       </c>
       <c r="P73" s="68">
-        <v>452.89002944028209</v>
+        <v>453.00691434375653</v>
       </c>
       <c r="Q73" s="68">
-        <v>459.39234298542704</v>
+        <v>459.51389918605378</v>
       </c>
       <c r="R73" s="69">
-        <v>464.71241770418192</v>
+        <v>464.8377958752061</v>
       </c>
       <c r="S73" s="68">
-        <v>469.14581330314439</v>
+        <v>469.27437644949964</v>
       </c>
       <c r="T73" s="68">
-        <v>472.89714804072804</v>
+        <v>473.02840616620961</v>
       </c>
       <c r="U73" s="68">
-        <v>476.11257781579974</v>
+        <v>476.24614592338958</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B74" s="78"/>
+      <c r="B74" s="79"/>
       <c r="C74" s="67">
         <v>0.1</v>
       </c>
       <c r="D74" s="68">
-        <v>401.93096941240782</v>
+        <v>402.04491417773272</v>
       </c>
       <c r="E74" s="68">
-        <v>403.97251293895675</v>
+        <v>404.0880798473961</v>
       </c>
       <c r="F74" s="68">
-        <v>406.16457240915219</v>
+        <v>406.28188105570769</v>
       </c>
       <c r="G74" s="69">
-        <v>408.53725101172301</v>
+        <v>408.65644491039689</v>
       </c>
       <c r="H74" s="68">
-        <v>411.12925284646451</v>
+        <v>411.25050626425929</v>
       </c>
       <c r="I74" s="68">
-        <v>413.99119096695409</v>
+        <v>414.11471838633429</v>
       </c>
       <c r="J74" s="68">
-        <v>417.19054944462908</v>
-      </c>
-      <c r="M74" s="78"/>
+        <v>417.31661896867558</v>
+      </c>
+      <c r="M74" s="79"/>
       <c r="N74" s="67">
         <v>0.1</v>
       </c>
       <c r="O74" s="68">
-        <v>390.14899184179802</v>
+        <v>390.25357503655511</v>
       </c>
       <c r="P74" s="68">
-        <v>396.67385799886819</v>
+        <v>396.78362563695066</v>
       </c>
       <c r="Q74" s="68">
-        <v>401.8937509245244</v>
+        <v>402.00766611726709</v>
       </c>
       <c r="R74" s="69">
-        <v>406.16457240915219</v>
+        <v>406.28188105570769</v>
       </c>
       <c r="S74" s="68">
-        <v>409.72359031300857</v>
+        <v>409.8437268377416</v>
       </c>
       <c r="T74" s="68">
-        <v>412.73506700088717</v>
+        <v>412.85759634561651</v>
       </c>
       <c r="U74" s="68">
-        <v>415.31633273335456</v>
+        <v>415.44091306665217</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B75" s="78"/>
+      <c r="B75" s="79"/>
       <c r="C75" s="67">
         <v>0.11</v>
       </c>
       <c r="D75" s="68">
-        <v>358.69728714795991</v>
+        <v>358.80698015695759</v>
       </c>
       <c r="E75" s="68">
-        <v>359.46617937906285</v>
+        <v>359.57654135895109</v>
       </c>
       <c r="F75" s="68">
-        <v>360.23507161016579</v>
+        <v>360.34610256094464</v>
       </c>
       <c r="G75" s="69">
-        <v>361.00396384126873</v>
+        <v>361.11566376293803</v>
       </c>
       <c r="H75" s="68">
-        <v>361.77285607237167</v>
+        <v>361.88522496493158</v>
       </c>
       <c r="I75" s="68">
-        <v>362.54174830347466</v>
+        <v>362.65478616692513</v>
       </c>
       <c r="J75" s="68">
-        <v>363.3106405345776</v>
-      </c>
-      <c r="M75" s="78"/>
+        <v>363.42434736891863</v>
+      </c>
+      <c r="M75" s="79"/>
       <c r="N75" s="67">
         <v>0.11</v>
       </c>
       <c r="O75" s="68">
-        <v>347.16390368141577</v>
+        <v>347.26356212705502</v>
       </c>
       <c r="P75" s="68">
-        <v>352.48919431905466</v>
+        <v>352.59348600752855</v>
       </c>
       <c r="Q75" s="68">
-        <v>356.74942682916583</v>
+        <v>356.85742511190739</v>
       </c>
       <c r="R75" s="69">
-        <v>360.23507161016579</v>
+        <v>360.34610256094464</v>
       </c>
       <c r="S75" s="68">
-        <v>363.13977559433255</v>
+        <v>363.25333376847567</v>
       </c>
       <c r="T75" s="68">
-        <v>365.59760204247357</v>
+        <v>365.71329863638653</v>
       </c>
       <c r="U75" s="68">
-        <v>367.70431042659453</v>
+        <v>367.82183995173875</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B76" s="79"/>
+      <c r="B76" s="80"/>
       <c r="C76" s="67">
         <v>0.12</v>
       </c>
       <c r="D76" s="68">
-        <v>323.20360002957676</v>
+        <v>323.30958596248888</v>
       </c>
       <c r="E76" s="68">
-        <v>323.22500961637854</v>
+        <v>323.33101577817735</v>
       </c>
       <c r="F76" s="68">
-        <v>323.17790852541469</v>
+        <v>323.28387018366271</v>
       </c>
       <c r="G76" s="69">
-        <v>323.05147928124831</v>
+        <v>323.15732148259718</v>
       </c>
       <c r="H76" s="68">
-        <v>322.83250052501256</v>
+        <v>322.9381358238889</v>
       </c>
       <c r="I76" s="68">
-        <v>322.50463998987158</v>
+        <v>322.60996550913035</v>
       </c>
       <c r="J76" s="68">
-        <v>322.0474823422806</v>
-      </c>
-      <c r="M76" s="79"/>
+        <v>322.15237591531212</v>
+      </c>
+      <c r="M76" s="80"/>
       <c r="N76" s="67">
         <v>0.12</v>
       </c>
       <c r="O76" s="68">
-        <v>312.3682081491956</v>
+        <v>312.46395624255996</v>
       </c>
       <c r="P76" s="68">
-        <v>316.77216015432185</v>
+        <v>316.87206932967592</v>
       </c>
       <c r="Q76" s="68">
-        <v>320.29532175842292</v>
+        <v>320.39855979936868</v>
       </c>
       <c r="R76" s="69">
-        <v>323.17790852541469</v>
+        <v>323.28387018366271</v>
       </c>
       <c r="S76" s="68">
-        <v>325.58006416457442</v>
+        <v>325.6882955039078</v>
       </c>
       <c r="T76" s="68">
-        <v>327.61265739770971</v>
+        <v>327.72280923642285</v>
       </c>
       <c r="U76" s="68">
-        <v>329.35488016896841</v>
+        <v>329.46667815000723</v>
       </c>
     </row>
   </sheetData>

--- a/MC.PA.xlsx
+++ b/MC.PA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E79B15D-2966-4B51-93E9-1B84B0709F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B505F6-CAF3-4D80-8229-15F33825524B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{833B3248-1BC2-4BAF-AC24-6FD47873AD76}"/>
   </bookViews>
@@ -1375,29 +1375,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="2" fontId="12" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1421,6 +1403,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2002,7 +2002,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="63" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -2022,7 +2022,7 @@
       <c r="I5" s="43">
         <v>498.43926599999998</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="57" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2030,13 +2030,13 @@
       <c r="H6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="61">
         <f>I5*I4</f>
         <v>234391.06483649998</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="69" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="47" t="s">
@@ -2048,44 +2048,44 @@
       <c r="E7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="70"/>
       <c r="H7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="61">
         <v>8176</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="57" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="60">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="78"/>
+      <c r="F8" s="72"/>
       <c r="H8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="61">
         <f>12454+9927</f>
         <v>22381</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="57" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="60">
         <v>0.51</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2094,33 +2094,33 @@
       <c r="E9" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F9" s="78"/>
+      <c r="F9" s="72"/>
       <c r="H9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="61">
         <f>I6+I8-I7</f>
         <v>248596.06483649998</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="60">
         <v>0.11</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="I10" s="67"/>
+      <c r="F10" s="72"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="60">
         <v>0.12</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -2129,37 +2129,37 @@
       <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="78"/>
+      <c r="F11" s="72"/>
       <c r="H11" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="74">
         <v>0.2</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>140</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="81"/>
+      <c r="F12" s="75"/>
       <c r="H12" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H13" s="65" t="s">
+      <c r="H13" s="59" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="59" t="s">
         <v>204</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -2170,7 +2170,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="4" t="s">
         <v>219</v>
       </c>
@@ -2182,7 +2182,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
+      <c r="A16" s="58"/>
       <c r="H16" s="4" t="s">
         <v>252</v>
       </c>
@@ -2191,7 +2191,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
+      <c r="A17" s="58"/>
       <c r="H17" s="4" t="s">
         <v>254</v>
       </c>
@@ -2200,7 +2200,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="64"/>
+      <c r="A18" s="58"/>
       <c r="H18" s="4" t="s">
         <v>256</v>
       </c>
@@ -2209,7 +2209,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="64"/>
+      <c r="A19" s="58"/>
       <c r="H19" s="4" t="s">
         <v>258</v>
       </c>
@@ -2218,16 +2218,16 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="64"/>
+      <c r="A20" s="58"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="64"/>
+      <c r="A21" s="58"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="64"/>
+      <c r="A22" s="58"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="64"/>
+      <c r="A23" s="58"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
@@ -2307,33 +2307,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="63" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="57" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2787,21 +2787,21 @@
       <c r="B15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="70">
+      <c r="C15" s="64">
         <f>+SUM(C9:C14)</f>
         <v>20694</v>
       </c>
-      <c r="D15" s="70">
+      <c r="D15" s="64">
         <f>+SUM(D9:D14)</f>
         <v>20983</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="43"/>
-      <c r="G15" s="70">
+      <c r="G15" s="64">
         <f>+SUM(G9:G14)</f>
         <v>20311</v>
       </c>
-      <c r="H15" s="70">
+      <c r="H15" s="64">
         <f>+SUM(H9:H14)</f>
         <v>19500</v>
       </c>
@@ -2843,7 +2843,7 @@
     <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E16" s="43"/>
       <c r="F16" s="43"/>
-      <c r="G16" s="74"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
       <c r="J16" s="43"/>
@@ -2886,19 +2886,19 @@
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="43"/>
-      <c r="G17" s="74">
+      <c r="G17" s="68">
         <f t="shared" ref="G17:H22" si="0">+G3/C3-1</f>
         <v>2.4165794748320035E-2</v>
       </c>
-      <c r="H17" s="74" t="e">
+      <c r="H17" s="68" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="74" t="e">
+      <c r="I17" s="68" t="e">
         <f t="shared" ref="I17:I22" si="1">+I3/E3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="74" t="e">
+      <c r="J17" s="68" t="e">
         <f t="shared" ref="J17:J22" si="2">+J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -2942,19 +2942,19 @@
       <c r="D18" s="26"/>
       <c r="E18" s="43"/>
       <c r="F18" s="43"/>
-      <c r="G18" s="74">
+      <c r="G18" s="68">
         <f t="shared" si="0"/>
         <v>0.12170539424816029</v>
       </c>
-      <c r="H18" s="74" t="e">
+      <c r="H18" s="68" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="74" t="e">
+      <c r="I18" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="74" t="e">
+      <c r="J18" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2997,19 +2997,19 @@
       </c>
       <c r="E19" s="43"/>
       <c r="F19" s="43"/>
-      <c r="G19" s="74">
+      <c r="G19" s="68">
         <f t="shared" si="0"/>
         <v>-1.8507780032859689E-2</v>
       </c>
-      <c r="H19" s="74" t="e">
+      <c r="H19" s="68" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="74" t="e">
+      <c r="I19" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="74" t="e">
+      <c r="J19" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -3052,19 +3052,19 @@
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="43"/>
-      <c r="G20" s="74">
+      <c r="G20" s="68">
         <f t="shared" si="0"/>
         <v>-0.10773434548441796</v>
       </c>
-      <c r="H20" s="74" t="e">
+      <c r="H20" s="68" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="74" t="e">
+      <c r="I20" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="74" t="e">
+      <c r="J20" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -3107,19 +3107,19 @@
       </c>
       <c r="E21" s="43"/>
       <c r="F21" s="43"/>
-      <c r="G21" s="74">
+      <c r="G21" s="68">
         <f t="shared" si="0"/>
         <v>-1.85077800328598E-2</v>
       </c>
-      <c r="H21" s="74" t="e">
+      <c r="H21" s="68" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="74" t="e">
+      <c r="I21" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="74" t="e">
+      <c r="J21" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -3162,19 +3162,19 @@
       </c>
       <c r="E22" s="43"/>
       <c r="F22" s="43"/>
-      <c r="G22" s="74">
+      <c r="G22" s="68">
         <f t="shared" si="0"/>
         <v>5.699162150307413E-2</v>
       </c>
-      <c r="H22" s="74" t="e">
+      <c r="H22" s="68" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="74" t="e">
+      <c r="I22" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="74" t="e">
+      <c r="J22" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -3217,19 +3217,19 @@
       </c>
       <c r="E23" s="43"/>
       <c r="F23" s="43"/>
-      <c r="G23" s="74">
+      <c r="G23" s="68">
         <f>+G9/C9-1</f>
         <v>-7.9040225829216659E-2</v>
       </c>
-      <c r="H23" s="74">
+      <c r="H23" s="68">
         <f t="shared" ref="H23:J27" si="3">+H9/D9-1</f>
         <v>-7.7641984184040225E-2</v>
       </c>
-      <c r="I23" s="74" t="e">
+      <c r="I23" s="68" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="74" t="e">
+      <c r="J23" s="68" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -3272,19 +3272,19 @@
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="43"/>
-      <c r="G24" s="74">
+      <c r="G24" s="68">
         <f t="shared" ref="G24:G27" si="4">+G10/C10-1</f>
         <v>-3.6415633937082914E-2</v>
       </c>
-      <c r="H24" s="74">
+      <c r="H24" s="68">
         <f t="shared" si="3"/>
         <v>-0.12401517362124304</v>
       </c>
-      <c r="I24" s="74" t="e">
+      <c r="I24" s="68" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="74" t="e">
+      <c r="J24" s="68" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -3327,19 +3327,19 @@
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="43"/>
-      <c r="G25" s="74">
+      <c r="G25" s="68">
         <f t="shared" si="4"/>
         <v>-1.8331805682859637E-3</v>
       </c>
-      <c r="H25" s="74">
+      <c r="H25" s="68">
         <f t="shared" si="3"/>
         <v>-2.508960573476704E-2</v>
       </c>
-      <c r="I25" s="74" t="e">
+      <c r="I25" s="68" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="74" t="e">
+      <c r="J25" s="68" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -3382,19 +3382,19 @@
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>
-      <c r="G26" s="74">
+      <c r="G26" s="68">
         <f t="shared" si="4"/>
         <v>6.4882400648824667E-3</v>
       </c>
-      <c r="H26" s="74">
+      <c r="H26" s="68">
         <f t="shared" si="3"/>
         <v>-2.8677839851024234E-2</v>
       </c>
-      <c r="I26" s="74" t="e">
+      <c r="I26" s="68" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="74" t="e">
+      <c r="J26" s="68" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -3437,19 +3437,19 @@
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="43"/>
-      <c r="G27" s="74">
+      <c r="G27" s="68">
         <f t="shared" si="4"/>
         <v>3.3532934131736969E-3</v>
       </c>
-      <c r="H27" s="74">
+      <c r="H27" s="68">
         <f t="shared" si="3"/>
         <v>-5.8335203051379514E-3</v>
       </c>
-      <c r="I27" s="74" t="e">
+      <c r="I27" s="68" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J27" s="74" t="e">
+      <c r="J27" s="68" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -3492,19 +3492,19 @@
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="43"/>
-      <c r="G28" s="74">
+      <c r="G28" s="68">
         <f>+G15/C15-1</f>
         <v>-1.85077800328598E-2</v>
       </c>
-      <c r="H28" s="74">
+      <c r="H28" s="68">
         <f t="shared" ref="H28:J28" si="5">+H15/D15-1</f>
         <v>-7.0676261735690749E-2</v>
       </c>
-      <c r="I28" s="74" t="e">
+      <c r="I28" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="74" t="e">
+      <c r="J28" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -21792,80 +21792,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="63" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63" t="s">
+      <c r="I2" s="57"/>
+      <c r="J2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="63" t="s">
+      <c r="N2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="63" t="s">
+      <c r="Q2" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="R2" s="63" t="s">
+      <c r="R2" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="S2" s="63" t="s">
+      <c r="S2" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="T2" s="63" t="s">
+      <c r="T2" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="U2" s="63" t="s">
+      <c r="U2" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="V2" s="63" t="s">
+      <c r="V2" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="W2" s="63" t="s">
+      <c r="W2" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="X2" s="63" t="s">
+      <c r="X2" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="Y2" s="63" t="s">
+      <c r="Y2" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="Z2" s="63" t="s">
+      <c r="Z2" s="57" t="s">
         <v>269</v>
       </c>
     </row>
@@ -22287,66 +22287,66 @@
       <c r="B9" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70">
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64">
         <v>6307</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="64">
         <v>6307</v>
       </c>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70">
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64">
         <v>5664</v>
       </c>
-      <c r="O9" s="70">
+      <c r="O9" s="64">
         <v>6097</v>
       </c>
-      <c r="P9" s="70">
+      <c r="P9" s="64">
         <v>6307</v>
       </c>
-      <c r="Q9" s="70">
+      <c r="Q9" s="64">
         <v>6307</v>
       </c>
-      <c r="R9" s="70">
+      <c r="R9" s="64">
         <f>+SUM(R3:R8)</f>
         <v>6478.99</v>
       </c>
-      <c r="S9" s="70">
+      <c r="S9" s="64">
         <f t="shared" ref="S9:W9" si="12">+SUM(S3:S8)</f>
         <v>6649.8423000000003</v>
       </c>
-      <c r="T9" s="70">
+      <c r="T9" s="64">
         <f t="shared" si="12"/>
         <v>6825.7113970000009</v>
       </c>
-      <c r="U9" s="70">
+      <c r="U9" s="64">
         <f t="shared" si="12"/>
         <v>7006.7570040300006</v>
       </c>
-      <c r="V9" s="70">
+      <c r="V9" s="64">
         <f t="shared" si="12"/>
         <v>7193.1442342909004</v>
       </c>
-      <c r="W9" s="70">
+      <c r="W9" s="64">
         <f t="shared" si="12"/>
         <v>7385.0437920112845</v>
       </c>
-      <c r="X9" s="70">
+      <c r="X9" s="64">
         <f t="shared" ref="X9" si="13">+SUM(X3:X8)</f>
         <v>7582.6321702709001</v>
       </c>
-      <c r="Y9" s="70">
+      <c r="Y9" s="64">
         <f t="shared" ref="Y9" si="14">+SUM(Y3:Y8)</f>
         <v>7786.0918560511955</v>
       </c>
-      <c r="Z9" s="70">
+      <c r="Z9" s="64">
         <f t="shared" ref="Z9" si="15">+SUM(Z3:Z8)</f>
         <v>7995.6115427831483</v>
       </c>
@@ -22355,48 +22355,48 @@
       <c r="B10" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="71">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65">
         <f t="shared" ref="F10" si="16">+F19/F9</f>
         <v>6.8187727921357224</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="65">
         <f>+G19/G9</f>
         <v>6.3120342476613285</v>
       </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71" t="e">
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65" t="e">
         <f t="shared" ref="J10:Q10" si="17">+J19/J9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="71" t="e">
+      <c r="K10" s="65" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="71" t="e">
+      <c r="L10" s="65" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="71" t="e">
+      <c r="M10" s="65" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="71">
+      <c r="N10" s="65">
         <f t="shared" si="17"/>
         <v>13.980225988700566</v>
       </c>
-      <c r="O10" s="71">
+      <c r="O10" s="65">
         <f t="shared" si="17"/>
         <v>14.130391996063638</v>
       </c>
-      <c r="P10" s="71">
+      <c r="P10" s="65">
         <f t="shared" si="17"/>
         <v>13.426827334707468</v>
       </c>
-      <c r="Q10" s="71">
+      <c r="Q10" s="65">
         <f t="shared" si="17"/>
         <v>12.804041541144759</v>
       </c>
@@ -22446,10 +22446,10 @@
       <c r="Q11" s="21"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="59" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="21"/>
@@ -22801,86 +22801,86 @@
       <c r="B19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="70">
+      <c r="C19" s="64">
         <f>SUM(C13:C18)</f>
         <v>42240</v>
       </c>
-      <c r="D19" s="70">
+      <c r="D19" s="64">
         <f t="shared" ref="D19:G19" si="21">SUM(D13:D18)</f>
         <v>43913</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="64">
         <f t="shared" si="21"/>
         <v>41677</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="64">
         <f t="shared" si="21"/>
         <v>43006</v>
       </c>
-      <c r="G19" s="70">
+      <c r="G19" s="64">
         <f t="shared" si="21"/>
         <v>39810</v>
       </c>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70">
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64">
         <v>46826</v>
       </c>
-      <c r="K19" s="70">
+      <c r="K19" s="64">
         <v>53670</v>
       </c>
-      <c r="L19" s="70">
+      <c r="L19" s="64">
         <v>44651</v>
       </c>
-      <c r="M19" s="70">
+      <c r="M19" s="64">
         <v>64215</v>
       </c>
-      <c r="N19" s="70">
+      <c r="N19" s="64">
         <v>79184</v>
       </c>
-      <c r="O19" s="70">
+      <c r="O19" s="64">
         <v>86153</v>
       </c>
-      <c r="P19" s="70">
+      <c r="P19" s="64">
         <v>84683</v>
       </c>
-      <c r="Q19" s="70">
+      <c r="Q19" s="64">
         <f>+SUM(Q13:Q18)</f>
         <v>80755.09</v>
       </c>
-      <c r="R19" s="70">
+      <c r="R19" s="64">
         <f>+R9*R10</f>
         <v>84226.87</v>
       </c>
-      <c r="S19" s="70">
+      <c r="S19" s="64">
         <f t="shared" ref="S19:Z19" si="22">+S9*S10</f>
         <v>89107.88682</v>
       </c>
-      <c r="T19" s="70">
+      <c r="T19" s="64">
         <f t="shared" si="22"/>
         <v>94194.817278600021</v>
       </c>
-      <c r="U19" s="70">
+      <c r="U19" s="64">
         <f t="shared" si="22"/>
         <v>99495.949457226001</v>
       </c>
-      <c r="V19" s="70">
+      <c r="V19" s="64">
         <f t="shared" si="22"/>
         <v>105019.90582064714</v>
       </c>
-      <c r="W19" s="70">
+      <c r="W19" s="64">
         <f t="shared" si="22"/>
         <v>110775.65688016926</v>
       </c>
-      <c r="X19" s="70">
+      <c r="X19" s="64">
         <f t="shared" si="22"/>
         <v>113739.48255406351</v>
       </c>
-      <c r="Y19" s="70">
+      <c r="Y19" s="64">
         <f t="shared" si="22"/>
         <v>116791.37784076793</v>
       </c>
-      <c r="Z19" s="70">
+      <c r="Z19" s="64">
         <f t="shared" si="22"/>
         <v>119934.17314174722</v>
       </c>
@@ -23655,53 +23655,53 @@
       <c r="B34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="67">
+      <c r="C34" s="61">
         <f t="shared" ref="C34:G34" si="33">C32-C33</f>
         <v>8481</v>
       </c>
-      <c r="D34" s="67">
+      <c r="D34" s="61">
         <f t="shared" si="33"/>
         <v>6693</v>
       </c>
-      <c r="E34" s="67">
+      <c r="E34" s="61">
         <f t="shared" si="33"/>
         <v>7267</v>
       </c>
-      <c r="F34" s="67">
+      <c r="F34" s="61">
         <f t="shared" si="33"/>
         <v>5283</v>
       </c>
-      <c r="G34" s="67">
+      <c r="G34" s="61">
         <f t="shared" si="33"/>
         <v>5698</v>
       </c>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67">
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61">
         <f t="shared" ref="J34:N34" si="34">J32-J33</f>
         <v>6354</v>
       </c>
-      <c r="K34" s="67">
+      <c r="K34" s="61">
         <f t="shared" si="34"/>
         <v>7171</v>
       </c>
-      <c r="L34" s="67">
+      <c r="L34" s="61">
         <f t="shared" si="34"/>
         <v>4702</v>
       </c>
-      <c r="M34" s="67">
+      <c r="M34" s="61">
         <f t="shared" si="34"/>
         <v>12036</v>
       </c>
-      <c r="N34" s="67">
+      <c r="N34" s="61">
         <f t="shared" si="34"/>
         <v>14084</v>
       </c>
-      <c r="O34" s="67">
+      <c r="O34" s="61">
         <f>O32-O33</f>
         <v>15174</v>
       </c>
-      <c r="P34" s="67">
+      <c r="P34" s="61">
         <f>P32-P33</f>
         <v>12550</v>
       </c>
@@ -24135,84 +24135,84 @@
       <c r="B44" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="73">
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="67">
         <f t="shared" ref="E44" si="41">+E19/C19-1</f>
         <v>-1.3328598484848464E-2</v>
       </c>
-      <c r="F44" s="73">
+      <c r="F44" s="67">
         <f>+F19/D19-1</f>
         <v>-2.0654475895520719E-2</v>
       </c>
-      <c r="G44" s="73">
+      <c r="G44" s="67">
         <f t="shared" ref="G44" si="42">+G19/E19-1</f>
         <v>-4.4796890371187947E-2</v>
       </c>
-      <c r="H44" s="73"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="73">
+      <c r="H44" s="67"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="67">
         <f t="shared" ref="K44:Q44" si="43">+K19/J19-1</f>
         <v>0.14615811728526884</v>
       </c>
-      <c r="L44" s="73">
+      <c r="L44" s="67">
         <f t="shared" si="43"/>
         <v>-0.16804546301471956</v>
       </c>
-      <c r="M44" s="73">
+      <c r="M44" s="67">
         <f t="shared" si="43"/>
         <v>0.43815368076862771</v>
       </c>
-      <c r="N44" s="73">
+      <c r="N44" s="67">
         <f t="shared" si="43"/>
         <v>0.23310752939344392</v>
       </c>
-      <c r="O44" s="73">
+      <c r="O44" s="67">
         <f t="shared" si="43"/>
         <v>8.8010204081632626E-2</v>
       </c>
-      <c r="P44" s="73">
+      <c r="P44" s="67">
         <f t="shared" si="43"/>
         <v>-1.7062667579770818E-2</v>
       </c>
-      <c r="Q44" s="73">
+      <c r="Q44" s="67">
         <f t="shared" si="43"/>
         <v>-4.6383689760636782E-2</v>
       </c>
-      <c r="R44" s="73">
+      <c r="R44" s="67">
         <f t="shared" ref="R44" si="44">+R19/Q19-1</f>
         <v>4.2991469639870328E-2</v>
       </c>
-      <c r="S44" s="73">
+      <c r="S44" s="67">
         <f t="shared" ref="S44" si="45">+S19/R19-1</f>
         <v>5.795082756844705E-2</v>
       </c>
-      <c r="T44" s="73">
+      <c r="T44" s="67">
         <f t="shared" ref="T44" si="46">+T19/S19-1</f>
         <v>5.7087320103053729E-2</v>
       </c>
-      <c r="U44" s="73">
+      <c r="U44" s="67">
         <f t="shared" ref="U44" si="47">+U19/T19-1</f>
         <v>5.6278384860037667E-2</v>
       </c>
-      <c r="V44" s="73">
+      <c r="V44" s="67">
         <f t="shared" ref="V44" si="48">+V19/U19-1</f>
         <v>5.551940951923795E-2</v>
       </c>
-      <c r="W44" s="73">
+      <c r="W44" s="67">
         <f t="shared" ref="W44" si="49">+W19/V19-1</f>
         <v>5.4806286622955058E-2</v>
       </c>
-      <c r="X44" s="73">
+      <c r="X44" s="67">
         <f t="shared" ref="X44" si="50">+X19/W19-1</f>
         <v>2.6755207392724634E-2</v>
       </c>
-      <c r="Y44" s="73">
+      <c r="Y44" s="67">
         <f t="shared" ref="Y44" si="51">+Y19/X19-1</f>
         <v>2.6832329620048778E-2</v>
       </c>
-      <c r="Z44" s="73">
+      <c r="Z44" s="67">
         <f t="shared" ref="Z44" si="52">+Z19/Y19-1</f>
         <v>2.6909480469218705E-2</v>
       </c>
@@ -24356,19 +24356,19 @@
         <f t="shared" si="59"/>
         <v>0.30500000000000005</v>
       </c>
-      <c r="W46" s="66">
+      <c r="W46" s="60">
         <f>+V46-1%</f>
         <v>0.29500000000000004</v>
       </c>
-      <c r="X46" s="66">
+      <c r="X46" s="60">
         <f t="shared" ref="X46:Z46" si="60">+W46-1%</f>
         <v>0.28500000000000003</v>
       </c>
-      <c r="Y46" s="66">
+      <c r="Y46" s="60">
         <f t="shared" si="60"/>
         <v>0.27500000000000002</v>
       </c>
-      <c r="Z46" s="66">
+      <c r="Z46" s="60">
         <f t="shared" si="60"/>
         <v>0.26500000000000001</v>
       </c>
@@ -24518,10 +24518,10 @@
       <c r="U49" s="43"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="59" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="43"/>
@@ -25217,56 +25217,56 @@
       <c r="B66" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="70">
+      <c r="C66" s="64">
         <f t="shared" ref="C66:H66" si="72">C59+C65</f>
         <v>0</v>
       </c>
-      <c r="D66" s="70">
+      <c r="D66" s="64">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="E66" s="70">
+      <c r="E66" s="64">
         <f t="shared" si="72"/>
         <v>144449</v>
       </c>
-      <c r="F66" s="70">
+      <c r="F66" s="64">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="G66" s="70">
+      <c r="G66" s="64">
         <f t="shared" si="72"/>
         <v>141575</v>
       </c>
-      <c r="H66" s="70">
+      <c r="H66" s="64">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="I66" s="21"/>
-      <c r="J66" s="70">
+      <c r="J66" s="64">
         <f t="shared" ref="J66:P66" si="73">J59+J65</f>
         <v>74300</v>
       </c>
-      <c r="K66" s="70">
+      <c r="K66" s="64">
         <f t="shared" si="73"/>
         <v>96507</v>
       </c>
-      <c r="L66" s="70">
+      <c r="L66" s="64">
         <f t="shared" si="73"/>
         <v>108671</v>
       </c>
-      <c r="M66" s="70">
+      <c r="M66" s="64">
         <f t="shared" si="73"/>
         <v>125311</v>
       </c>
-      <c r="N66" s="70">
+      <c r="N66" s="64">
         <f t="shared" si="73"/>
         <v>134646</v>
       </c>
-      <c r="O66" s="70">
+      <c r="O66" s="64">
         <f t="shared" si="73"/>
         <v>143694</v>
       </c>
-      <c r="P66" s="70">
+      <c r="P66" s="64">
         <f t="shared" si="73"/>
         <v>149190</v>
       </c>
@@ -25367,56 +25367,56 @@
       <c r="B69" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="70">
+      <c r="C69" s="64">
         <f t="shared" ref="C69:H69" si="74">SUM(C67:C68)</f>
         <v>0</v>
       </c>
-      <c r="D69" s="70">
+      <c r="D69" s="64">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="E69" s="70">
+      <c r="E69" s="64">
         <f t="shared" si="74"/>
         <v>66480</v>
       </c>
-      <c r="F69" s="70">
+      <c r="F69" s="64">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G69" s="70">
+      <c r="G69" s="64">
         <f t="shared" si="74"/>
         <v>66875</v>
       </c>
-      <c r="H69" s="70">
+      <c r="H69" s="64">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I69" s="21"/>
-      <c r="J69" s="70">
+      <c r="J69" s="64">
         <f t="shared" ref="J69:N69" si="75">SUM(J67:J68)</f>
         <v>33957</v>
       </c>
-      <c r="K69" s="70">
+      <c r="K69" s="64">
         <f t="shared" si="75"/>
         <v>38365</v>
       </c>
-      <c r="L69" s="70">
+      <c r="L69" s="64">
         <f t="shared" si="75"/>
         <v>38829</v>
       </c>
-      <c r="M69" s="70">
+      <c r="M69" s="64">
         <f t="shared" si="75"/>
         <v>48909</v>
       </c>
-      <c r="N69" s="70">
+      <c r="N69" s="64">
         <f t="shared" si="75"/>
         <v>56604</v>
       </c>
-      <c r="O69" s="70">
+      <c r="O69" s="64">
         <f>SUM(O67:O68)</f>
         <v>62701</v>
       </c>
-      <c r="P69" s="70">
+      <c r="P69" s="64">
         <f>SUM(P67:P68)</f>
         <v>69287</v>
       </c>
@@ -25989,56 +25989,56 @@
       <c r="B82" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="70">
+      <c r="C82" s="64">
         <f t="shared" ref="C82:H82" si="80">C81+C75+C69</f>
         <v>0</v>
       </c>
-      <c r="D82" s="70">
+      <c r="D82" s="64">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="E82" s="70">
+      <c r="E82" s="64">
         <f t="shared" si="80"/>
         <v>144449</v>
       </c>
-      <c r="F82" s="70">
+      <c r="F82" s="64">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="G82" s="70">
+      <c r="G82" s="64">
         <f t="shared" si="80"/>
         <v>141575</v>
       </c>
-      <c r="H82" s="70">
+      <c r="H82" s="64">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="I82" s="21"/>
-      <c r="J82" s="70">
+      <c r="J82" s="64">
         <f t="shared" ref="J82:P82" si="81">J81+J75+J69</f>
         <v>74300</v>
       </c>
-      <c r="K82" s="70">
+      <c r="K82" s="64">
         <f t="shared" si="81"/>
         <v>96507</v>
       </c>
-      <c r="L82" s="70">
+      <c r="L82" s="64">
         <f t="shared" si="81"/>
         <v>108671</v>
       </c>
-      <c r="M82" s="70">
+      <c r="M82" s="64">
         <f t="shared" si="81"/>
         <v>125311</v>
       </c>
-      <c r="N82" s="70">
+      <c r="N82" s="64">
         <f t="shared" si="81"/>
         <v>134646</v>
       </c>
-      <c r="O82" s="70">
+      <c r="O82" s="64">
         <f t="shared" si="81"/>
         <v>143694</v>
       </c>
-      <c r="P82" s="70">
+      <c r="P82" s="64">
         <f t="shared" si="81"/>
         <v>149190</v>
       </c>
@@ -26094,10 +26094,10 @@
       <c r="V84" s="21"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A85" s="64" t="s">
+      <c r="A85" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="65" t="s">
+      <c r="B85" s="59" t="s">
         <v>79</v>
       </c>
       <c r="C85" s="21"/>
@@ -26533,56 +26533,56 @@
       <c r="B95" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C95" s="70">
+      <c r="C95" s="64">
         <f t="shared" ref="C95:H95" si="84">SUM(C86:C94)</f>
         <v>11564</v>
       </c>
-      <c r="D95" s="70">
+      <c r="D95" s="64">
         <f t="shared" si="84"/>
         <v>10996</v>
       </c>
-      <c r="E95" s="70">
+      <c r="E95" s="64">
         <f t="shared" si="84"/>
         <v>7284</v>
       </c>
-      <c r="F95" s="70">
+      <c r="F95" s="64">
         <f t="shared" si="84"/>
         <v>8283</v>
       </c>
-      <c r="G95" s="70">
+      <c r="G95" s="64">
         <f t="shared" si="84"/>
         <v>7881</v>
       </c>
-      <c r="H95" s="70">
+      <c r="H95" s="64">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="I95" s="21"/>
-      <c r="J95" s="70">
+      <c r="J95" s="64">
         <f t="shared" ref="J95:N95" si="85">SUM(J86:J94)</f>
         <v>8490</v>
       </c>
-      <c r="K95" s="70">
+      <c r="K95" s="64">
         <f t="shared" si="85"/>
         <v>11648</v>
       </c>
-      <c r="L95" s="70">
+      <c r="L95" s="64">
         <f t="shared" si="85"/>
         <v>10896</v>
       </c>
-      <c r="M95" s="70">
+      <c r="M95" s="64">
         <f t="shared" si="85"/>
         <v>18648</v>
       </c>
-      <c r="N95" s="70">
+      <c r="N95" s="64">
         <f t="shared" si="85"/>
         <v>17833</v>
       </c>
-      <c r="O95" s="70">
+      <c r="O95" s="64">
         <f>SUM(O86:O94)</f>
         <v>18400</v>
       </c>
-      <c r="P95" s="70">
+      <c r="P95" s="64">
         <f>SUM(P86:P94)</f>
         <v>18924</v>
       </c>
@@ -26769,56 +26769,56 @@
       <c r="B100" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C100" s="70">
+      <c r="C100" s="64">
         <f t="shared" ref="C100:H100" si="86">SUM(C96:C99)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="70">
+      <c r="D100" s="64">
         <f t="shared" si="86"/>
         <v>0</v>
       </c>
-      <c r="E100" s="70">
+      <c r="E100" s="64">
         <f t="shared" si="86"/>
         <v>-3164</v>
       </c>
-      <c r="F100" s="70">
+      <c r="F100" s="64">
         <f t="shared" si="86"/>
         <v>0</v>
       </c>
-      <c r="G100" s="70">
+      <c r="G100" s="64">
         <f t="shared" si="86"/>
         <v>-2452</v>
       </c>
-      <c r="H100" s="70">
+      <c r="H100" s="64">
         <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="I100" s="21"/>
-      <c r="J100" s="70">
+      <c r="J100" s="64">
         <f t="shared" ref="J100:N100" si="87">SUM(J96:J99)</f>
         <v>-3439</v>
       </c>
-      <c r="K100" s="70">
+      <c r="K100" s="64">
         <f t="shared" si="87"/>
         <v>-5869</v>
       </c>
-      <c r="L100" s="70">
+      <c r="L100" s="64">
         <f t="shared" si="87"/>
         <v>-2939</v>
       </c>
-      <c r="M100" s="70">
+      <c r="M100" s="64">
         <f t="shared" si="87"/>
         <v>-15979</v>
       </c>
-      <c r="N100" s="70">
+      <c r="N100" s="64">
         <f t="shared" si="87"/>
         <v>-5920</v>
       </c>
-      <c r="O100" s="70">
+      <c r="O100" s="64">
         <f>SUM(O96:O99)</f>
         <v>-8310</v>
       </c>
-      <c r="P100" s="70">
+      <c r="P100" s="64">
         <f>SUM(P96:P99)</f>
         <v>-6539</v>
       </c>
@@ -27134,56 +27134,56 @@
       <c r="B108" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C108" s="70">
+      <c r="C108" s="64">
         <f t="shared" ref="C108:H108" si="88">SUM(C101:C107)</f>
         <v>0</v>
       </c>
-      <c r="D108" s="70">
+      <c r="D108" s="64">
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
-      <c r="E108" s="70">
+      <c r="E108" s="64">
         <f t="shared" si="88"/>
         <v>-4945</v>
       </c>
-      <c r="F108" s="70">
+      <c r="F108" s="64">
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
-      <c r="G108" s="70">
+      <c r="G108" s="64">
         <f t="shared" si="88"/>
         <v>-6767</v>
       </c>
-      <c r="H108" s="70">
+      <c r="H108" s="64">
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="I108" s="21"/>
-      <c r="J108" s="70">
+      <c r="J108" s="64">
         <f t="shared" ref="J108:N108" si="89">SUM(J101:J107)</f>
         <v>-4323</v>
       </c>
-      <c r="K108" s="70">
+      <c r="K108" s="64">
         <f t="shared" si="89"/>
         <v>-4734</v>
       </c>
-      <c r="L108" s="70">
+      <c r="L108" s="64">
         <f t="shared" si="89"/>
         <v>7403</v>
       </c>
-      <c r="M108" s="70">
+      <c r="M108" s="64">
         <f t="shared" si="89"/>
         <v>-15156</v>
       </c>
-      <c r="N108" s="70">
+      <c r="N108" s="64">
         <f t="shared" si="89"/>
         <v>-12685</v>
       </c>
-      <c r="O108" s="70">
+      <c r="O108" s="64">
         <f>SUM(O101:O107)</f>
         <v>-9397</v>
       </c>
-      <c r="P108" s="70">
+      <c r="P108" s="64">
         <f>SUM(P101:P107)</f>
         <v>-10716</v>
       </c>
@@ -27241,56 +27241,56 @@
       <c r="B110" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C110" s="70">
+      <c r="C110" s="64">
         <f t="shared" ref="C110:H110" si="90">C95+C100+C108+C109</f>
         <v>11564</v>
       </c>
-      <c r="D110" s="70">
+      <c r="D110" s="64">
         <f t="shared" si="90"/>
         <v>10996</v>
       </c>
-      <c r="E110" s="70">
+      <c r="E110" s="64">
         <f t="shared" si="90"/>
         <v>-807</v>
       </c>
-      <c r="F110" s="70">
+      <c r="F110" s="64">
         <f t="shared" si="90"/>
         <v>8283</v>
       </c>
-      <c r="G110" s="70">
+      <c r="G110" s="64">
         <f t="shared" si="90"/>
         <v>-1455</v>
       </c>
-      <c r="H110" s="70">
+      <c r="H110" s="64">
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="I110" s="21"/>
-      <c r="J110" s="70">
+      <c r="J110" s="64">
         <f t="shared" ref="J110:P110" si="91">J95+J100+J108+J109</f>
         <v>796</v>
       </c>
-      <c r="K110" s="70">
+      <c r="K110" s="64">
         <f t="shared" si="91"/>
         <v>1084</v>
       </c>
-      <c r="L110" s="70">
+      <c r="L110" s="64">
         <f t="shared" si="91"/>
         <v>14308</v>
       </c>
-      <c r="M110" s="70">
+      <c r="M110" s="64">
         <f t="shared" si="91"/>
         <v>-11989</v>
       </c>
-      <c r="N110" s="70">
+      <c r="N110" s="64">
         <f t="shared" si="91"/>
         <v>-717</v>
       </c>
-      <c r="O110" s="70">
+      <c r="O110" s="64">
         <f t="shared" si="91"/>
         <v>420</v>
       </c>
-      <c r="P110" s="70">
+      <c r="P110" s="64">
         <f t="shared" si="91"/>
         <v>1749</v>
       </c>
@@ -27428,46 +27428,46 @@
       </c>
       <c r="C114" s="43"/>
       <c r="D114" s="43"/>
-      <c r="E114" s="67">
+      <c r="E114" s="61">
         <f>+E95+E96</f>
         <v>4556</v>
       </c>
       <c r="F114" s="43"/>
-      <c r="G114" s="67">
+      <c r="G114" s="61">
         <f>+G95+G96</f>
         <v>5521</v>
       </c>
       <c r="H114" s="43"/>
       <c r="I114" s="43"/>
-      <c r="J114" s="67">
+      <c r="J114" s="61">
         <f t="shared" ref="J114:Q114" si="92">+J95+J96</f>
         <v>5452</v>
       </c>
-      <c r="K114" s="67">
+      <c r="K114" s="61">
         <f t="shared" si="92"/>
         <v>8354</v>
       </c>
-      <c r="L114" s="67">
+      <c r="L114" s="61">
         <f t="shared" si="92"/>
         <v>8418</v>
       </c>
-      <c r="M114" s="67">
+      <c r="M114" s="61">
         <f t="shared" si="92"/>
         <v>15984</v>
       </c>
-      <c r="N114" s="67">
+      <c r="N114" s="61">
         <f t="shared" si="92"/>
         <v>12864</v>
       </c>
-      <c r="O114" s="67">
+      <c r="O114" s="61">
         <f t="shared" si="92"/>
         <v>10922</v>
       </c>
-      <c r="P114" s="67">
+      <c r="P114" s="61">
         <f t="shared" si="92"/>
         <v>13393</v>
       </c>
-      <c r="Q114" s="67">
+      <c r="Q114" s="61">
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
@@ -28836,36 +28836,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="57" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="59" t="s">
         <v>105</v>
       </c>
     </row>
@@ -28901,7 +28901,7 @@
         <f>Model!P34/Model!P69</f>
         <v>0.1811306594310621</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="60">
         <f>AVERAGE(G4:I4,D4:E4)</f>
         <v>0.22218917698842239</v>
       </c>
@@ -28938,7 +28938,7 @@
         <f>Model!P26/Model!P66</f>
         <v>0.12673101414303908</v>
       </c>
-      <c r="L5" s="66">
+      <c r="L5" s="60">
         <f t="shared" ref="L5:L12" si="0">AVERAGE(G5:I5,D5:E5)</f>
         <v>0.1399231746806982</v>
       </c>
@@ -28975,7 +28975,7 @@
         <f>(Model!P26*(1-Model!P48))/(Model!P69+Model!P70+Model!P71+Model!P76+Model!P77-Model!P64-Model!P55-Model!P56)</f>
         <v>0.13877720472925267</v>
       </c>
-      <c r="L6" s="66">
+      <c r="L6" s="60">
         <f t="shared" si="0"/>
         <v>0.17563463529405338</v>
       </c>
@@ -29012,7 +29012,7 @@
         <f>Model!P26/(Model!P59+Model!P60+Model!P61+Model!P62+Model!P63-Model!P57-Model!P55-Model!P78)</f>
         <v>0.14715909090909091</v>
       </c>
-      <c r="L7" s="66">
+      <c r="L7" s="60">
         <f t="shared" si="0"/>
         <v>0.16283920229338777</v>
       </c>
@@ -29049,7 +29049,7 @@
         <f>1-(-Model!P101/Model!P34)</f>
         <v>0.41657370517928283</v>
       </c>
-      <c r="L9" s="66">
+      <c r="L9" s="60">
         <f t="shared" si="0"/>
         <v>0.54046299017555233</v>
       </c>
@@ -29058,35 +29058,35 @@
       <c r="B10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="60">
         <f t="shared" ref="D10:H10" si="1">D9*D4</f>
         <v>9.6121565509320619E-2</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="60">
         <f t="shared" si="1"/>
         <v>9.10465267822234E-2</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="60">
         <f t="shared" si="1"/>
         <v>4.9009760745834303E-2</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="60">
         <f t="shared" si="1"/>
         <v>0.16101331043366252</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="60">
         <f t="shared" si="1"/>
         <v>0.12914281676206629</v>
       </c>
-      <c r="I10" s="66">
+      <c r="I10" s="60">
         <f>I9*I4</f>
         <v>0.12782890225036284</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="60">
         <f>J9*J4</f>
         <v>7.5454269920764344E-2</v>
       </c>
-      <c r="L10" s="66">
+      <c r="L10" s="60">
         <f t="shared" si="0"/>
         <v>0.12103062434752712</v>
       </c>
@@ -29123,7 +29123,7 @@
         <f>(-Model!P94-Model!P96)/(Model!P26*(1-Model!P48))</f>
         <v>0.55129447226570283</v>
       </c>
-      <c r="L11" s="66">
+      <c r="L11" s="60">
         <f t="shared" si="0"/>
         <v>0.50599624573101187</v>
       </c>
@@ -29132,35 +29132,35 @@
       <c r="B12" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="66">
+      <c r="D12" s="60">
         <f t="shared" ref="D12:H12" si="2">D11*D6</f>
         <v>0.10675189565487436</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="60">
         <f t="shared" si="2"/>
         <v>7.9486767097339123E-2</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="60">
         <f t="shared" si="2"/>
         <v>5.2041413624057946E-2</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="60">
         <f t="shared" si="2"/>
         <v>3.0676444383524095E-2</v>
       </c>
-      <c r="H12" s="66">
+      <c r="H12" s="60">
         <f t="shared" si="2"/>
         <v>9.7087850649034968E-2</v>
       </c>
-      <c r="I12" s="66">
+      <c r="I12" s="60">
         <f>I11*I6</f>
         <v>0.13244632929750158</v>
       </c>
-      <c r="J12" s="66">
+      <c r="J12" s="60">
         <f>J11*J6</f>
         <v>7.650710584372275E-2</v>
       </c>
-      <c r="L12" s="66">
+      <c r="L12" s="60">
         <f t="shared" si="0"/>
         <v>8.9289857416454829E-2</v>
       </c>
@@ -29169,10 +29169,10 @@
       <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="59" t="s">
         <v>113</v>
       </c>
       <c r="J14" s="26"/>
@@ -29209,7 +29209,7 @@
         <f>J32/Model!P69</f>
         <v>0.40654090955013206</v>
       </c>
-      <c r="L15" s="66">
+      <c r="L15" s="60">
         <f t="shared" ref="L15:L16" si="3">AVERAGE(G15:I15,D15:E15)</f>
         <v>0.39866768597751723</v>
       </c>
@@ -29246,7 +29246,7 @@
         <f>J32/(Model!P26+Model!P88)</f>
         <v>1.1999148029818956</v>
       </c>
-      <c r="L16" s="66">
+      <c r="L16" s="60">
         <f t="shared" si="3"/>
         <v>0.98977905537672606</v>
       </c>
@@ -29255,10 +29255,10 @@
       <c r="J17" s="26"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="59" t="s">
         <v>116</v>
       </c>
     </row>
@@ -29485,10 +29485,10 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="59" t="s">
         <v>123</v>
       </c>
     </row>
@@ -29556,31 +29556,31 @@
       <c r="B31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="67">
+      <c r="D31" s="61">
         <f t="shared" ref="D31:H31" si="7">D30*D29</f>
         <v>129829.5805062</v>
       </c>
-      <c r="E31" s="67">
+      <c r="E31" s="61">
         <f t="shared" si="7"/>
         <v>208634.53562459999</v>
       </c>
-      <c r="F31" s="67">
+      <c r="F31" s="61">
         <f t="shared" si="7"/>
         <v>257329.74006479999</v>
       </c>
-      <c r="G31" s="67">
+      <c r="G31" s="61">
         <f t="shared" si="7"/>
         <v>367648.22684000002</v>
       </c>
-      <c r="H31" s="67">
+      <c r="H31" s="61">
         <f t="shared" si="7"/>
         <v>341391.85985060001</v>
       </c>
-      <c r="I31" s="67">
+      <c r="I31" s="61">
         <f>I30*I29</f>
         <v>366841.49828480004</v>
       </c>
-      <c r="J31" s="67">
+      <c r="J31" s="61">
         <f>J30*J29</f>
         <v>234848.73517874998</v>
       </c>
@@ -29622,31 +29622,31 @@
       <c r="B33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="67">
+      <c r="D33" s="61">
         <f t="shared" ref="D33:H33" si="8">D31+D32</f>
         <v>134513.5805062</v>
       </c>
-      <c r="E33" s="67">
+      <c r="E33" s="61">
         <f t="shared" si="8"/>
         <v>226228.53562459999</v>
       </c>
-      <c r="F33" s="67">
+      <c r="F33" s="61">
         <f t="shared" si="8"/>
         <v>273168.74006480002</v>
       </c>
-      <c r="G33" s="67">
+      <c r="G33" s="61">
         <f t="shared" si="8"/>
         <v>391694.22684000002</v>
       </c>
-      <c r="H33" s="67">
+      <c r="H33" s="61">
         <f t="shared" si="8"/>
         <v>367063.85985060001</v>
       </c>
-      <c r="I33" s="67">
+      <c r="I33" s="61">
         <f>I31+I32</f>
         <v>395158.49828480004</v>
       </c>
-      <c r="J33" s="67">
+      <c r="J33" s="61">
         <f>J31+J32</f>
         <v>263016.73517875001</v>
       </c>
@@ -29685,7 +29685,7 @@
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="59" t="s">
         <v>126</v>
       </c>
     </row>
@@ -29730,24 +29730,24 @@
       <c r="B37" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68">
+      <c r="D37" s="62"/>
+      <c r="E37" s="62">
         <f>E36/((Model!K34/Model!J34-1)*100)</f>
         <v>2.2627242484710504</v>
       </c>
-      <c r="F37" s="68">
+      <c r="F37" s="62">
         <f>F36/((Model!L34/Model!K34-1)*100)</f>
         <v>-1.5895199719436202</v>
       </c>
-      <c r="G37" s="68">
+      <c r="G37" s="62">
         <f>G36/((Model!M34/Model!L34-1)*100)</f>
         <v>0.19583576814797859</v>
       </c>
-      <c r="H37" s="68">
+      <c r="H37" s="62">
         <f>H36/((Model!N34/Model!M34-1)*100)</f>
         <v>1.4245554938927476</v>
       </c>
-      <c r="I37" s="68">
+      <c r="I37" s="62">
         <f>I36/((Model!O34/Model!N34-1)*100)</f>
         <v>3.1237617108472171</v>
       </c>
@@ -29755,7 +29755,7 @@
         <f>J36/-2</f>
         <v>-9.3382894357171313</v>
       </c>
-      <c r="L37" s="68">
+      <c r="L37" s="62">
         <f>AVERAGE(G37:I37,E37)</f>
         <v>1.7517193053397484</v>
       </c>
@@ -29798,7 +29798,7 @@
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="59" t="s">
         <v>130</v>
       </c>
     </row>
@@ -30005,14 +30005,14 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">+TODAY()</f>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>158</v>
       </c>
       <c r="J4" s="8">
         <f ca="1">V62</f>
-        <v>466.25350698205875</v>
+        <v>466.29499829788261</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>159</v>
@@ -30034,7 +30034,7 @@
       </c>
       <c r="J5" s="11">
         <f ca="1">J4/J3-1</f>
-        <v>-8.4986560721770354E-3</v>
+        <v>-8.4104236089683759E-3</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>161</v>
@@ -31632,43 +31632,43 @@
       <c r="L52" s="40"/>
       <c r="M52" s="40">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>4563.6115303932902</v>
+        <v>4526.3452517838268</v>
       </c>
       <c r="N52" s="40">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>13664.844283806513</v>
+        <v>13668.115799806801</v>
       </c>
       <c r="O52" s="40">
         <f t="shared" ref="O52:U52" ca="1" si="20">O51/(1+$E$18)^O53</f>
-        <v>14039.378885576614</v>
+        <v>14042.740069334313</v>
       </c>
       <c r="P52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14368.337863184757</v>
+        <v>14371.777803387562</v>
       </c>
       <c r="Q52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14721.914379621159</v>
+        <v>14725.438969982197</v>
       </c>
       <c r="R52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>15029.05467785942</v>
+        <v>15032.652801030574</v>
       </c>
       <c r="S52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14152.198542459453</v>
+        <v>14155.586736500254</v>
       </c>
       <c r="T52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>12962.170018543771</v>
+        <v>12965.273306494468</v>
       </c>
       <c r="U52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>11863.484625463956</v>
+        <v>11866.324875887985</v>
       </c>
       <c r="V52" s="41">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>10849.423769725976</v>
+        <v>10852.021242680617</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
@@ -31677,43 +31677,43 @@
       </c>
       <c r="M53" s="42">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.33055555555555555</v>
+        <v>0.32777777777777778</v>
       </c>
       <c r="N53" s="42">
         <f ca="1">M53+1</f>
-        <v>1.3305555555555555</v>
+        <v>1.3277777777777777</v>
       </c>
       <c r="O53" s="42">
         <f ca="1">N53+1</f>
-        <v>2.3305555555555557</v>
+        <v>2.3277777777777775</v>
       </c>
       <c r="P53" s="42">
         <f t="shared" ref="P53:V53" ca="1" si="21">O53+1</f>
-        <v>3.3305555555555557</v>
+        <v>3.3277777777777775</v>
       </c>
       <c r="Q53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>4.3305555555555557</v>
+        <v>4.3277777777777775</v>
       </c>
       <c r="R53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3305555555555557</v>
+        <v>5.3277777777777775</v>
       </c>
       <c r="S53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>6.3305555555555557</v>
+        <v>6.3277777777777775</v>
       </c>
       <c r="T53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>7.3305555555555557</v>
+        <v>7.3277777777777775</v>
       </c>
       <c r="U53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>8.3305555555555557</v>
+        <v>8.3277777777777775</v>
       </c>
       <c r="V53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>9.3305555555555557</v>
+        <v>9.3277777777777775</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
@@ -31726,7 +31726,7 @@
       <c r="Q54" s="43"/>
       <c r="V54" s="21">
         <f ca="1">SUM(M52:V52)</f>
-        <v>126214.41857663491</v>
+        <v>126206.27685688858</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
@@ -31770,7 +31770,7 @@
       <c r="U56" s="45"/>
       <c r="V56" s="46">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>120389.63721342833</v>
+        <v>120418.45983417926</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
@@ -31798,7 +31798,7 @@
       <c r="U57" s="48"/>
       <c r="V57" s="49">
         <f ca="1">V54+V56</f>
-        <v>246604.05579006323</v>
+        <v>246624.73669106784</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
@@ -31852,7 +31852,7 @@
       <c r="Q60" s="43"/>
       <c r="V60" s="50">
         <f ca="1">V57+V58-V59</f>
-        <v>232399.05579006323</v>
+        <v>232419.73669106784</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
@@ -31889,7 +31889,7 @@
       </c>
       <c r="V62" s="50">
         <f ca="1">V60/V61</f>
-        <v>466.25350698205875</v>
+        <v>466.29499829788261</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
@@ -31922,450 +31922,450 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B68" s="51"/>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="53"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="77"/>
       <c r="M68" s="51"/>
-      <c r="N68" s="54" t="s">
+      <c r="N68" s="78" t="s">
         <v>201</v>
       </c>
-      <c r="O68" s="54"/>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="54"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="54"/>
-      <c r="T68" s="54"/>
-      <c r="U68" s="55"/>
+      <c r="O68" s="78"/>
+      <c r="P68" s="78"/>
+      <c r="Q68" s="78"/>
+      <c r="R68" s="78"/>
+      <c r="S68" s="78"/>
+      <c r="T68" s="78"/>
+      <c r="U68" s="79"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="56" t="s">
+      <c r="B69" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="C69" s="57">
+      <c r="C69" s="52">
         <f ca="1">+J4</f>
-        <v>466.25350698205875</v>
-      </c>
-      <c r="D69" s="58">
+        <v>466.29499829788261</v>
+      </c>
+      <c r="D69" s="53">
         <v>0.01</v>
       </c>
-      <c r="E69" s="58">
+      <c r="E69" s="53">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F69" s="58">
+      <c r="F69" s="53">
         <v>0.02</v>
       </c>
-      <c r="G69" s="58">
+      <c r="G69" s="53">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H69" s="58">
+      <c r="H69" s="53">
         <v>0.03</v>
       </c>
-      <c r="I69" s="58">
+      <c r="I69" s="53">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J69" s="58">
+      <c r="J69" s="53">
         <v>0.04</v>
       </c>
-      <c r="M69" s="56" t="s">
+      <c r="M69" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="N69" s="57">
+      <c r="N69" s="52">
         <f ca="1">+J4</f>
-        <v>466.25350698205875</v>
-      </c>
-      <c r="O69" s="58">
+        <v>466.29499829788261</v>
+      </c>
+      <c r="O69" s="53">
         <v>0.08</v>
       </c>
-      <c r="P69" s="58">
+      <c r="P69" s="53">
         <v>0.09</v>
       </c>
-      <c r="Q69" s="58">
+      <c r="Q69" s="53">
         <v>0.1</v>
       </c>
-      <c r="R69" s="58">
+      <c r="R69" s="53">
         <v>0.11</v>
       </c>
-      <c r="S69" s="58">
+      <c r="S69" s="53">
         <v>0.12</v>
       </c>
-      <c r="T69" s="58">
+      <c r="T69" s="53">
         <v>0.13</v>
       </c>
-      <c r="U69" s="58">
+      <c r="U69" s="53">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="56"/>
-      <c r="C70" s="59">
+      <c r="B70" s="80"/>
+      <c r="C70" s="54">
         <v>0.06</v>
       </c>
-      <c r="D70" s="60">
+      <c r="D70" s="55">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>745.96768760199541</v>
-      </c>
-      <c r="E70" s="60">
-        <v>775.30661428737619</v>
-      </c>
-      <c r="F70" s="60">
-        <v>811.68157316427391</v>
-      </c>
-      <c r="G70" s="61">
-        <v>858.10800660048096</v>
-      </c>
-      <c r="H70" s="60">
-        <v>919.61165187565268</v>
-      </c>
-      <c r="I70" s="60">
-        <v>1005.2388360931673</v>
-      </c>
-      <c r="J70" s="60">
-        <v>1133.082213459782</v>
-      </c>
-      <c r="M70" s="56"/>
-      <c r="N70" s="59">
+        <v>746.01538626041781</v>
+      </c>
+      <c r="E70" s="55">
+        <v>775.35906207241817</v>
+      </c>
+      <c r="F70" s="55">
+        <v>811.73990900675346</v>
+      </c>
+      <c r="G70" s="56">
+        <v>858.17385754442398</v>
+      </c>
+      <c r="H70" s="55">
+        <v>919.6874584870983</v>
+      </c>
+      <c r="I70" s="55">
+        <v>1005.3285032777779</v>
+      </c>
+      <c r="J70" s="55">
+        <v>1133.1925748024671</v>
+      </c>
+      <c r="M70" s="80"/>
+      <c r="N70" s="54">
         <v>0.06</v>
       </c>
-      <c r="O70" s="60">
+      <c r="O70" s="55">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>765.98055275050763</v>
-      </c>
-      <c r="P70" s="60">
-        <v>784.59948699315316</v>
-      </c>
-      <c r="Q70" s="60">
-        <v>799.49463438726968</v>
-      </c>
-      <c r="R70" s="61">
-        <v>811.68157316427391</v>
-      </c>
-      <c r="S70" s="60">
-        <v>821.83735547844447</v>
-      </c>
-      <c r="T70" s="60">
-        <v>830.43070974428088</v>
-      </c>
-      <c r="U70" s="60">
-        <v>837.79644197214066</v>
+        <v>766.03149091498381</v>
+      </c>
+      <c r="P70" s="55">
+        <v>784.65343902644543</v>
+      </c>
+      <c r="Q70" s="55">
+        <v>799.55099751561488</v>
+      </c>
+      <c r="R70" s="56">
+        <v>811.73990900675346</v>
+      </c>
+      <c r="S70" s="55">
+        <v>821.89733524936889</v>
+      </c>
+      <c r="T70" s="55">
+        <v>830.49208053158213</v>
+      </c>
+      <c r="U70" s="55">
+        <v>837.85900505919335</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="56"/>
-      <c r="C71" s="59">
+      <c r="B71" s="80"/>
+      <c r="C71" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D71" s="60">
-        <v>618.02692526516955</v>
-      </c>
-      <c r="E71" s="60">
-        <v>633.31779733240455</v>
-      </c>
-      <c r="F71" s="60">
-        <v>651.44792894184218</v>
-      </c>
-      <c r="G71" s="61">
-        <v>673.36373994088274</v>
-      </c>
-      <c r="H71" s="60">
-        <v>700.484860100628</v>
-      </c>
-      <c r="I71" s="60">
-        <v>735.04213620423661</v>
-      </c>
-      <c r="J71" s="60">
-        <v>780.75364622364066</v>
-      </c>
-      <c r="M71" s="56"/>
-      <c r="N71" s="59">
+      <c r="D71" s="55">
+        <v>618.07101870150188</v>
+      </c>
+      <c r="E71" s="55">
+        <v>633.36476481585385</v>
+      </c>
+      <c r="F71" s="55">
+        <v>651.49830413495329</v>
+      </c>
+      <c r="G71" s="56">
+        <v>673.41823439371535</v>
+      </c>
+      <c r="H71" s="55">
+        <v>700.54445219451486</v>
+      </c>
+      <c r="I71" s="55">
+        <v>735.10822362679505</v>
+      </c>
+      <c r="J71" s="55">
+        <v>780.82832550629712</v>
+      </c>
+      <c r="M71" s="80"/>
+      <c r="N71" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O71" s="60">
-        <v>617.95395364142144</v>
-      </c>
-      <c r="P71" s="60">
-        <v>631.59964728233354</v>
-      </c>
-      <c r="Q71" s="60">
-        <v>642.51620219506333</v>
-      </c>
-      <c r="R71" s="61">
-        <v>651.44792894184218</v>
-      </c>
-      <c r="S71" s="60">
-        <v>658.89103456415785</v>
-      </c>
-      <c r="T71" s="60">
-        <v>665.1890470138095</v>
-      </c>
-      <c r="U71" s="60">
-        <v>670.58734339922546</v>
+      <c r="O71" s="55">
+        <v>617.99803336212767</v>
+      </c>
+      <c r="P71" s="55">
+        <v>631.64629182513056</v>
+      </c>
+      <c r="Q71" s="55">
+        <v>642.56489859553301</v>
+      </c>
+      <c r="R71" s="56">
+        <v>651.49830413495329</v>
+      </c>
+      <c r="S71" s="55">
+        <v>658.94280875113657</v>
+      </c>
+      <c r="T71" s="55">
+        <v>665.24200496483036</v>
+      </c>
+      <c r="U71" s="55">
+        <v>670.6413160051394</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="56"/>
-      <c r="C72" s="59">
+      <c r="B72" s="80"/>
+      <c r="C72" s="54">
         <v>0.08</v>
       </c>
-      <c r="D72" s="61">
-        <v>526.29876493245717</v>
-      </c>
-      <c r="E72" s="61">
-        <v>534.44867990854721</v>
-      </c>
-      <c r="F72" s="61">
-        <v>543.78965147112956</v>
-      </c>
-      <c r="G72" s="61">
-        <v>554.64651323470184</v>
-      </c>
-      <c r="H72" s="61">
-        <v>567.47403225956123</v>
-      </c>
-      <c r="I72" s="61">
-        <v>582.92909429947008</v>
-      </c>
-      <c r="J72" s="61">
-        <v>601.99702798507201</v>
-      </c>
-      <c r="M72" s="56"/>
-      <c r="N72" s="59">
+      <c r="D72" s="56">
+        <v>526.34019185957231</v>
+      </c>
+      <c r="E72" s="56">
+        <v>534.49184931619277</v>
+      </c>
+      <c r="F72" s="56">
+        <v>543.83481801139908</v>
+      </c>
+      <c r="G72" s="56">
+        <v>554.69400101026008</v>
+      </c>
+      <c r="H72" s="56">
+        <v>567.52426260387256</v>
+      </c>
+      <c r="I72" s="56">
+        <v>582.98262899048655</v>
+      </c>
+      <c r="J72" s="56">
+        <v>602.05463946747795</v>
+      </c>
+      <c r="M72" s="80"/>
+      <c r="N72" s="54">
         <v>0.08</v>
       </c>
-      <c r="O72" s="61">
-        <v>518.19847731413756</v>
-      </c>
-      <c r="P72" s="61">
-        <v>528.62451122994912</v>
-      </c>
-      <c r="Q72" s="61">
-        <v>536.96533836259835</v>
-      </c>
-      <c r="R72" s="61">
-        <v>543.78965147112956</v>
-      </c>
-      <c r="S72" s="61">
-        <v>549.47657906157212</v>
-      </c>
-      <c r="T72" s="61">
-        <v>554.28859471502369</v>
-      </c>
-      <c r="U72" s="61">
-        <v>558.41317956083935</v>
+      <c r="O72" s="56">
+        <v>518.23817237122648</v>
+      </c>
+      <c r="P72" s="56">
+        <v>528.66643540981522</v>
+      </c>
+      <c r="Q72" s="56">
+        <v>537.00904584068644</v>
+      </c>
+      <c r="R72" s="56">
+        <v>543.83481801139908</v>
+      </c>
+      <c r="S72" s="56">
+        <v>549.52296148699304</v>
+      </c>
+      <c r="T72" s="56">
+        <v>554.33600596634176</v>
+      </c>
+      <c r="U72" s="56">
+        <v>558.46147266292644</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="56"/>
-      <c r="C73" s="59">
+      <c r="B73" s="80"/>
+      <c r="C73" s="54">
         <v>0.09</v>
       </c>
-      <c r="D73" s="60">
-        <v>457.24205542185291</v>
-      </c>
-      <c r="E73" s="60">
-        <v>461.50879136739076</v>
-      </c>
-      <c r="F73" s="60">
-        <v>466.25350698205875</v>
-      </c>
-      <c r="G73" s="61">
-        <v>471.58650526642521</v>
-      </c>
-      <c r="H73" s="60">
-        <v>477.65485688791523</v>
-      </c>
-      <c r="I73" s="60">
-        <v>484.65911275665292</v>
-      </c>
-      <c r="J73" s="60">
-        <v>492.88004414681274</v>
-      </c>
-      <c r="M73" s="56"/>
-      <c r="N73" s="59">
+      <c r="D73" s="55">
+        <v>457.28138929575113</v>
+      </c>
+      <c r="E73" s="55">
+        <v>461.54914674542209</v>
+      </c>
+      <c r="F73" s="55">
+        <v>466.29499829788261</v>
+      </c>
+      <c r="G73" s="56">
+        <v>471.62927336146839</v>
+      </c>
+      <c r="H73" s="55">
+        <v>477.69907781396131</v>
+      </c>
+      <c r="I73" s="55">
+        <v>484.70501057960814</v>
+      </c>
+      <c r="J73" s="55">
+        <v>492.92791015235565</v>
+      </c>
+      <c r="M73" s="80"/>
+      <c r="N73" s="54">
         <v>0.09</v>
       </c>
-      <c r="O73" s="60">
-        <v>446.12573926364291</v>
-      </c>
-      <c r="P73" s="60">
-        <v>454.32594092670121</v>
-      </c>
-      <c r="Q73" s="60">
-        <v>460.88610225714785</v>
-      </c>
-      <c r="R73" s="61">
-        <v>466.25350698205875</v>
-      </c>
-      <c r="S73" s="60">
-        <v>470.72634425281785</v>
-      </c>
-      <c r="T73" s="60">
-        <v>474.51105271269097</v>
-      </c>
-      <c r="U73" s="60">
-        <v>477.75508853543931</v>
+      <c r="O73" s="55">
+        <v>446.16241176757455</v>
+      </c>
+      <c r="P73" s="55">
+        <v>454.36457665029263</v>
+      </c>
+      <c r="Q73" s="55">
+        <v>460.92630855646712</v>
+      </c>
+      <c r="R73" s="56">
+        <v>466.29499829788261</v>
+      </c>
+      <c r="S73" s="55">
+        <v>470.76890641572885</v>
+      </c>
+      <c r="T73" s="55">
+        <v>474.55452097698338</v>
+      </c>
+      <c r="U73" s="55">
+        <v>477.79933345805875</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="56"/>
-      <c r="C74" s="59">
+      <c r="B74" s="80"/>
+      <c r="C74" s="54">
         <v>0.1</v>
       </c>
-      <c r="D74" s="60">
-        <v>403.32989900411042</v>
-      </c>
-      <c r="E74" s="60">
-        <v>405.39153928928249</v>
-      </c>
-      <c r="F74" s="60">
-        <v>407.6051771826107</v>
-      </c>
-      <c r="G74" s="61">
-        <v>410.00121220572612</v>
-      </c>
-      <c r="H74" s="60">
-        <v>412.61872945786916</v>
-      </c>
-      <c r="I74" s="60">
-        <v>415.50884022266138</v>
-      </c>
-      <c r="J74" s="60">
-        <v>418.73969287826509</v>
-      </c>
-      <c r="M74" s="56"/>
-      <c r="N74" s="59">
+      <c r="D74" s="55">
+        <v>403.36751313073091</v>
+      </c>
+      <c r="E74" s="55">
+        <v>405.4296993084576</v>
+      </c>
+      <c r="F74" s="55">
+        <v>407.64392334111068</v>
+      </c>
+      <c r="G74" s="56">
+        <v>410.04059279967504</v>
+      </c>
+      <c r="H74" s="55">
+        <v>412.65880313256059</v>
+      </c>
+      <c r="I74" s="55">
+        <v>415.54967915691816</v>
+      </c>
+      <c r="J74" s="55">
+        <v>418.78138729561596</v>
+      </c>
+      <c r="M74" s="80"/>
+      <c r="N74" s="54">
         <v>0.1</v>
       </c>
-      <c r="O74" s="60">
-        <v>391.43194077658103</v>
-      </c>
-      <c r="P74" s="60">
-        <v>398.02103709014864</v>
-      </c>
-      <c r="Q74" s="60">
-        <v>403.29231414100281</v>
-      </c>
-      <c r="R74" s="61">
-        <v>407.6051771826107</v>
-      </c>
-      <c r="S74" s="60">
-        <v>411.19922971728397</v>
-      </c>
-      <c r="T74" s="60">
-        <v>414.24035109277673</v>
-      </c>
-      <c r="U74" s="60">
-        <v>416.84702655748487</v>
+      <c r="O74" s="55">
+        <v>391.46640449580065</v>
+      </c>
+      <c r="P74" s="55">
+        <v>398.05724550685289</v>
+      </c>
+      <c r="Q74" s="55">
+        <v>403.32991831569467</v>
+      </c>
+      <c r="R74" s="56">
+        <v>407.64392334111068</v>
+      </c>
+      <c r="S74" s="55">
+        <v>411.23892752895728</v>
+      </c>
+      <c r="T74" s="55">
+        <v>414.28085414944297</v>
+      </c>
+      <c r="U74" s="55">
+        <v>416.88821982414498</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="56"/>
-      <c r="C75" s="59">
+      <c r="B75" s="80"/>
+      <c r="C75" s="54">
         <v>0.11</v>
       </c>
-      <c r="D75" s="60">
-        <v>360.04296028576005</v>
-      </c>
-      <c r="E75" s="60">
-        <v>360.82014395776542</v>
-      </c>
-      <c r="F75" s="60">
-        <v>361.59732762977075</v>
-      </c>
-      <c r="G75" s="61">
-        <v>362.37451130177607</v>
-      </c>
-      <c r="H75" s="60">
-        <v>363.15169497378145</v>
-      </c>
-      <c r="I75" s="60">
-        <v>363.92887864578682</v>
-      </c>
-      <c r="J75" s="60">
-        <v>364.70606231779215</v>
-      </c>
-      <c r="M75" s="56"/>
-      <c r="N75" s="59">
+      <c r="D75" s="55">
+        <v>360.0791099636661</v>
+      </c>
+      <c r="E75" s="55">
+        <v>360.8565189652744</v>
+      </c>
+      <c r="F75" s="55">
+        <v>361.63392796688271</v>
+      </c>
+      <c r="G75" s="56">
+        <v>362.4113369684909</v>
+      </c>
+      <c r="H75" s="55">
+        <v>363.18874597009915</v>
+      </c>
+      <c r="I75" s="55">
+        <v>363.96615497170745</v>
+      </c>
+      <c r="J75" s="55">
+        <v>364.74356397331576</v>
+      </c>
+      <c r="M75" s="80"/>
+      <c r="N75" s="54">
         <v>0.11</v>
       </c>
-      <c r="O75" s="60">
-        <v>348.38520520567988</v>
-      </c>
-      <c r="P75" s="60">
-        <v>353.76792174882803</v>
-      </c>
-      <c r="Q75" s="60">
-        <v>358.07409498334653</v>
-      </c>
-      <c r="R75" s="61">
-        <v>361.59732762977075</v>
-      </c>
-      <c r="S75" s="60">
-        <v>364.53335483512433</v>
-      </c>
-      <c r="T75" s="60">
-        <v>367.0176855473465</v>
-      </c>
-      <c r="U75" s="60">
-        <v>369.1471118721085</v>
+      <c r="O75" s="55">
+        <v>348.41797493954209</v>
+      </c>
+      <c r="P75" s="55">
+        <v>353.80225209882894</v>
+      </c>
+      <c r="Q75" s="55">
+        <v>358.10967382625853</v>
+      </c>
+      <c r="R75" s="56">
+        <v>361.63392796688271</v>
+      </c>
+      <c r="S75" s="55">
+        <v>364.57080641740276</v>
+      </c>
+      <c r="T75" s="55">
+        <v>367.05585741399676</v>
+      </c>
+      <c r="U75" s="55">
+        <v>369.18590112536305</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B76" s="62"/>
-      <c r="C76" s="59">
+      <c r="B76" s="81"/>
+      <c r="C76" s="54">
         <v>0.12</v>
       </c>
-      <c r="D76" s="60">
-        <v>324.50273882314673</v>
-      </c>
-      <c r="E76" s="60">
-        <v>324.52439923971519</v>
-      </c>
-      <c r="F76" s="60">
-        <v>324.47674632326465</v>
-      </c>
-      <c r="G76" s="61">
-        <v>324.34883586331853</v>
-      </c>
-      <c r="H76" s="60">
-        <v>324.12729160262757</v>
-      </c>
-      <c r="I76" s="60">
-        <v>323.79558992929555</v>
-      </c>
-      <c r="J76" s="60">
-        <v>323.33307632845236</v>
-      </c>
-      <c r="M76" s="62"/>
-      <c r="N76" s="59">
+      <c r="D76" s="55">
+        <v>324.53760583263067</v>
+      </c>
+      <c r="E76" s="55">
+        <v>324.55927306901282</v>
+      </c>
+      <c r="F76" s="55">
+        <v>324.51160514897214</v>
+      </c>
+      <c r="G76" s="56">
+        <v>324.38365441623102</v>
+      </c>
+      <c r="H76" s="55">
+        <v>324.16204040200631</v>
+      </c>
+      <c r="I76" s="55">
+        <v>323.83023429191854</v>
+      </c>
+      <c r="J76" s="55">
+        <v>323.3675750679933</v>
+      </c>
+      <c r="M76" s="81"/>
+      <c r="N76" s="54">
         <v>0.12</v>
       </c>
-      <c r="O76" s="60">
-        <v>313.54040199787175</v>
-      </c>
-      <c r="P76" s="60">
-        <v>317.99594968599479</v>
-      </c>
-      <c r="Q76" s="60">
-        <v>321.56038783649325</v>
-      </c>
-      <c r="R76" s="61">
-        <v>324.47674632326465</v>
-      </c>
-      <c r="S76" s="60">
-        <v>326.90704506224085</v>
-      </c>
-      <c r="T76" s="60">
-        <v>328.96345168752845</v>
-      </c>
-      <c r="U76" s="60">
-        <v>330.72608593777494</v>
+      <c r="O76" s="55">
+        <v>313.57181749961273</v>
+      </c>
+      <c r="P76" s="55">
+        <v>318.02876802342581</v>
+      </c>
+      <c r="Q76" s="55">
+        <v>321.5943284424763</v>
+      </c>
+      <c r="R76" s="56">
+        <v>324.51160514897214</v>
+      </c>
+      <c r="S76" s="55">
+        <v>326.94266907105197</v>
+      </c>
+      <c r="T76" s="55">
+        <v>328.99972315896565</v>
+      </c>
+      <c r="U76" s="55">
+        <v>330.76291237717749</v>
       </c>
     </row>
   </sheetData>

--- a/MC.PA.xlsx
+++ b/MC.PA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B505F6-CAF3-4D80-8229-15F33825524B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906F496E-AC66-418E-A825-69C86E50A504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{833B3248-1BC2-4BAF-AC24-6FD47873AD76}"/>
   </bookViews>
@@ -1975,7 +1975,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="43">
-        <v>470.25</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="I6" s="61">
         <f>I5*I4</f>
-        <v>234391.06483649998</v>
+        <v>255699.34345799999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="I9" s="61">
         <f>I6+I8-I7</f>
-        <v>248596.06483649998</v>
+        <v>269904.34345799999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -29516,7 +29516,7 @@
       </c>
       <c r="J29" s="4">
         <f>+Main!I4</f>
-        <v>470.25</v>
+        <v>513</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -29582,7 +29582,7 @@
       </c>
       <c r="J31" s="61">
         <f>J30*J29</f>
-        <v>234848.73517874998</v>
+        <v>256198.620195</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -29648,7 +29648,7 @@
       </c>
       <c r="J33" s="61">
         <f>J31+J32</f>
-        <v>263016.73517875001</v>
+        <v>284366.62019499997</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
@@ -29719,7 +29719,7 @@
       </c>
       <c r="J36" s="42">
         <f>Main!I6/Model!P34</f>
-        <v>18.676578871434263</v>
+        <v>20.374449677928286</v>
       </c>
       <c r="L36" s="42">
         <f>AVERAGE(G36:I36,D36:E36)</f>
@@ -29753,7 +29753,7 @@
       </c>
       <c r="J37" s="42">
         <f>J36/-2</f>
-        <v>-9.3382894357171313</v>
+        <v>-10.187224838964143</v>
       </c>
       <c r="L37" s="62">
         <f>AVERAGE(G37:I37,E37)</f>
@@ -29790,7 +29790,7 @@
       </c>
       <c r="J38" s="42">
         <f>J31/Model!P69</f>
-        <v>3.3895064756556059</v>
+        <v>3.6976434279879342</v>
       </c>
       <c r="L38" s="42">
         <f>AVERAGE(G38:I38,D38:E38)</f>
@@ -29832,7 +29832,7 @@
       </c>
       <c r="J40" s="42">
         <f>J33/Model!P19</f>
-        <v>3.1058977029480532</v>
+        <v>3.3580130627752909</v>
       </c>
       <c r="L40" s="42">
         <f>AVERAGE(G40:I40,D40:E40)</f>
@@ -29869,7 +29869,7 @@
       </c>
       <c r="J41" s="42">
         <f>Ratios!J33/(Model!P26+Model!P88+Model!P89)</f>
-        <v>9.8497073429483581</v>
+        <v>10.649238669625134</v>
       </c>
       <c r="L41" s="42">
         <f t="shared" ref="L41:L42" si="9">AVERAGE(G41:I41,D41:E41)</f>
@@ -29906,7 +29906,7 @@
       </c>
       <c r="J42" s="42">
         <f>J33/Model!P26</f>
-        <v>13.911077123750463</v>
+        <v>15.040282445390595</v>
       </c>
       <c r="L42" s="42">
         <f t="shared" si="9"/>
@@ -29989,14 +29989,14 @@
       </c>
       <c r="J3" s="6">
         <f>+Main!I4</f>
-        <v>470.25</v>
+        <v>513</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>156</v>
       </c>
       <c r="O3" s="6">
         <f>+J3</f>
-        <v>470.25</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -30034,7 +30034,7 @@
       </c>
       <c r="J5" s="11">
         <f ca="1">J4/J3-1</f>
-        <v>-8.4104236089683759E-3</v>
+        <v>-9.1042888308221048E-2</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>161</v>

--- a/MC.PA.xlsx
+++ b/MC.PA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906F496E-AC66-418E-A825-69C86E50A504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9704E4A1-E825-43BC-BEAF-A246E793759A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{833B3248-1BC2-4BAF-AC24-6FD47873AD76}"/>
   </bookViews>
@@ -30005,14 +30005,14 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">+TODAY()</f>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>158</v>
       </c>
       <c r="J4" s="8">
         <f ca="1">V62</f>
-        <v>466.29499829788261</v>
+        <v>466.37795544977268</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>159</v>
@@ -30034,7 +30034,7 @@
       </c>
       <c r="J5" s="11">
         <f ca="1">J4/J3-1</f>
-        <v>-9.1042888308221048E-2</v>
+        <v>-9.0881178460482048E-2</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>161</v>
@@ -31632,43 +31632,43 @@
       <c r="L52" s="40"/>
       <c r="M52" s="40">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>4526.3452517838268</v>
+        <v>4451.758371530178</v>
       </c>
       <c r="N52" s="40">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>13668.115799806801</v>
+        <v>13674.661181707052</v>
       </c>
       <c r="O52" s="40">
         <f t="shared" ref="O52:U52" ca="1" si="20">O51/(1+$E$18)^O53</f>
-        <v>14042.740069334313</v>
+        <v>14049.464851156918</v>
       </c>
       <c r="P52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14371.777803387562</v>
+        <v>14378.660154670395</v>
       </c>
       <c r="Q52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14725.438969982197</v>
+        <v>14732.490682384923</v>
       </c>
       <c r="R52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>15032.652801030574</v>
+        <v>15039.851631871474</v>
       </c>
       <c r="S52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14155.586736500254</v>
+        <v>14162.365558290297</v>
       </c>
       <c r="T52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>12965.273306494468</v>
+        <v>12971.482111458892</v>
       </c>
       <c r="U52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>11866.324875887985</v>
+        <v>11872.007416861645</v>
       </c>
       <c r="V52" s="41">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>10852.021242680617</v>
+        <v>10857.218054330689</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
@@ -31677,43 +31677,43 @@
       </c>
       <c r="M53" s="42">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.32777777777777778</v>
+        <v>0.32222222222222224</v>
       </c>
       <c r="N53" s="42">
         <f ca="1">M53+1</f>
-        <v>1.3277777777777777</v>
+        <v>1.3222222222222222</v>
       </c>
       <c r="O53" s="42">
         <f ca="1">N53+1</f>
-        <v>2.3277777777777775</v>
+        <v>2.322222222222222</v>
       </c>
       <c r="P53" s="42">
         <f t="shared" ref="P53:V53" ca="1" si="21">O53+1</f>
-        <v>3.3277777777777775</v>
+        <v>3.322222222222222</v>
       </c>
       <c r="Q53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>4.3277777777777775</v>
+        <v>4.322222222222222</v>
       </c>
       <c r="R53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3277777777777775</v>
+        <v>5.322222222222222</v>
       </c>
       <c r="S53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>6.3277777777777775</v>
+        <v>6.322222222222222</v>
       </c>
       <c r="T53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>7.3277777777777775</v>
+        <v>7.322222222222222</v>
       </c>
       <c r="U53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>8.3277777777777775</v>
+        <v>8.3222222222222229</v>
       </c>
       <c r="V53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>9.3277777777777775</v>
+        <v>9.3222222222222229</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
@@ -31726,7 +31726,7 @@
       <c r="Q54" s="43"/>
       <c r="V54" s="21">
         <f ca="1">SUM(M52:V52)</f>
-        <v>126206.27685688858</v>
+        <v>126189.96001426247</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
@@ -31770,7 +31770,7 @@
       <c r="U56" s="45"/>
       <c r="V56" s="46">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>120418.45983417926</v>
+        <v>120476.12577870292</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
@@ -31798,7 +31798,7 @@
       <c r="U57" s="48"/>
       <c r="V57" s="49">
         <f ca="1">V54+V56</f>
-        <v>246624.73669106784</v>
+        <v>246666.08579296537</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
@@ -31852,7 +31852,7 @@
       <c r="Q60" s="43"/>
       <c r="V60" s="50">
         <f ca="1">V57+V58-V59</f>
-        <v>232419.73669106784</v>
+        <v>232461.08579296537</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
@@ -31889,7 +31889,7 @@
       </c>
       <c r="V62" s="50">
         <f ca="1">V60/V61</f>
-        <v>466.29499829788261</v>
+        <v>466.37795544977268</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
@@ -31950,7 +31950,7 @@
       </c>
       <c r="C69" s="52">
         <f ca="1">+J4</f>
-        <v>466.29499829788261</v>
+        <v>466.37795544977268</v>
       </c>
       <c r="D69" s="53">
         <v>0.01</v>
@@ -31978,7 +31978,7 @@
       </c>
       <c r="N69" s="52">
         <f ca="1">+J4</f>
-        <v>466.29499829788261</v>
+        <v>466.37795544977268</v>
       </c>
       <c r="O69" s="53">
         <v>0.08</v>
@@ -32009,25 +32009,25 @@
       </c>
       <c r="D70" s="55">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>746.01538626041781</v>
+        <v>746.110769022299</v>
       </c>
       <c r="E70" s="55">
-        <v>775.35906207241817</v>
+        <v>775.46394539390258</v>
       </c>
       <c r="F70" s="55">
-        <v>811.73990900675346</v>
+        <v>811.85657130258767</v>
       </c>
       <c r="G70" s="56">
-        <v>858.17385754442398</v>
+        <v>858.3055536928174</v>
       </c>
       <c r="H70" s="55">
-        <v>919.6874584870983</v>
+        <v>919.8390708053646</v>
       </c>
       <c r="I70" s="55">
-        <v>1005.3285032777779</v>
+        <v>1005.5078434736193</v>
       </c>
       <c r="J70" s="55">
-        <v>1133.1925748024671</v>
+        <v>1133.4133133643629</v>
       </c>
       <c r="M70" s="80"/>
       <c r="N70" s="54">
@@ -32035,25 +32035,25 @@
       </c>
       <c r="O70" s="55">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>766.03149091498381</v>
+        <v>766.13335426220522</v>
       </c>
       <c r="P70" s="55">
-        <v>784.65343902644543</v>
+        <v>784.76133157495349</v>
       </c>
       <c r="Q70" s="55">
-        <v>799.55099751561488</v>
+        <v>799.66371342515242</v>
       </c>
       <c r="R70" s="56">
-        <v>811.73990900675346</v>
+        <v>811.85657130258767</v>
       </c>
       <c r="S70" s="55">
-        <v>821.89733524936889</v>
+        <v>822.01728620045049</v>
       </c>
       <c r="T70" s="55">
-        <v>830.49208053158213</v>
+        <v>830.61481419094969</v>
       </c>
       <c r="U70" s="55">
-        <v>837.85900505919335</v>
+        <v>837.9841238970921</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
@@ -32062,50 +32062,50 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D71" s="55">
-        <v>618.07101870150188</v>
+        <v>618.15918677456841</v>
       </c>
       <c r="E71" s="55">
-        <v>633.36476481585385</v>
+        <v>633.45868260385919</v>
       </c>
       <c r="F71" s="55">
-        <v>651.49830413495329</v>
+        <v>651.59903926392508</v>
       </c>
       <c r="G71" s="56">
-        <v>673.41823439371535</v>
+        <v>673.52721036502396</v>
       </c>
       <c r="H71" s="55">
-        <v>700.54445219451486</v>
+        <v>700.66362632254413</v>
       </c>
       <c r="I71" s="55">
-        <v>735.10822362679505</v>
+        <v>735.24039207495116</v>
       </c>
       <c r="J71" s="55">
-        <v>780.82832550629712</v>
+        <v>780.97768251968876</v>
       </c>
       <c r="M71" s="80"/>
       <c r="N71" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O71" s="55">
-        <v>617.99803336212767</v>
+        <v>618.08617399620755</v>
       </c>
       <c r="P71" s="55">
-        <v>631.64629182513056</v>
+        <v>631.73956354972199</v>
       </c>
       <c r="Q71" s="55">
-        <v>642.56489859553301</v>
+        <v>642.6622751925338</v>
       </c>
       <c r="R71" s="56">
-        <v>651.49830413495329</v>
+        <v>651.59903926392508</v>
       </c>
       <c r="S71" s="55">
-        <v>658.94280875113657</v>
+        <v>659.04634265675111</v>
       </c>
       <c r="T71" s="55">
-        <v>665.24200496483036</v>
+        <v>665.34790706606555</v>
       </c>
       <c r="U71" s="55">
-        <v>670.6413160051394</v>
+        <v>670.74924798833513</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
@@ -32114,50 +32114,50 @@
         <v>0.08</v>
       </c>
       <c r="D72" s="56">
-        <v>526.34019185957231</v>
+        <v>526.42302276932605</v>
       </c>
       <c r="E72" s="56">
-        <v>534.49184931619277</v>
+        <v>534.57816630473212</v>
       </c>
       <c r="F72" s="56">
-        <v>543.83481801139908</v>
+        <v>543.92513054625988</v>
       </c>
       <c r="G72" s="56">
-        <v>554.69400101026008</v>
+        <v>554.78895750466938</v>
       </c>
       <c r="H72" s="56">
-        <v>567.52426260387256</v>
+        <v>567.62470599502558</v>
       </c>
       <c r="I72" s="56">
-        <v>582.98262899048655</v>
+        <v>583.08968319464384</v>
       </c>
       <c r="J72" s="56">
-        <v>602.05463946747795</v>
+        <v>602.16984986949785</v>
       </c>
       <c r="M72" s="80"/>
       <c r="N72" s="54">
         <v>0.08</v>
       </c>
       <c r="O72" s="56">
-        <v>518.23817237122648</v>
+        <v>518.31753843000865</v>
       </c>
       <c r="P72" s="56">
-        <v>528.66643540981522</v>
+        <v>528.75026114403681</v>
       </c>
       <c r="Q72" s="56">
-        <v>537.00904584068644</v>
+        <v>537.09643931525954</v>
       </c>
       <c r="R72" s="56">
-        <v>543.83481801139908</v>
+        <v>543.92513054625988</v>
       </c>
       <c r="S72" s="56">
-        <v>549.52296148699304</v>
+        <v>549.61570657209325</v>
       </c>
       <c r="T72" s="56">
-        <v>554.33600596634176</v>
+        <v>554.43080936318336</v>
       </c>
       <c r="U72" s="56">
-        <v>558.46147266292644</v>
+        <v>558.55804032697483</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
@@ -32166,50 +32166,50 @@
         <v>0.09</v>
       </c>
       <c r="D73" s="55">
-        <v>457.28138929575113</v>
+        <v>457.36003001411933</v>
       </c>
       <c r="E73" s="55">
-        <v>461.54914674542209</v>
+        <v>461.62983120579361</v>
       </c>
       <c r="F73" s="55">
-        <v>466.29499829788261</v>
+        <v>466.37795544977268</v>
       </c>
       <c r="G73" s="56">
-        <v>471.62927336146839</v>
+        <v>471.71478498889581</v>
       </c>
       <c r="H73" s="55">
-        <v>477.69907781396131</v>
+        <v>477.78749614694948</v>
       </c>
       <c r="I73" s="55">
-        <v>484.70501057960814</v>
+        <v>484.79678391091448</v>
       </c>
       <c r="J73" s="55">
-        <v>492.92791015235565</v>
+        <v>493.02362126256418</v>
       </c>
       <c r="M73" s="80"/>
       <c r="N73" s="54">
         <v>0.09</v>
       </c>
       <c r="O73" s="55">
-        <v>446.16241176757455</v>
+        <v>446.23572783437203</v>
       </c>
       <c r="P73" s="55">
-        <v>454.36457665029263</v>
+        <v>454.44182056657229</v>
       </c>
       <c r="Q73" s="55">
-        <v>460.92630855646712</v>
+        <v>461.00669475233252</v>
       </c>
       <c r="R73" s="56">
-        <v>466.29499829788261</v>
+        <v>466.37795544977268</v>
       </c>
       <c r="S73" s="55">
-        <v>470.76890641572885</v>
+        <v>470.85400603097281</v>
       </c>
       <c r="T73" s="55">
-        <v>474.55452097698338</v>
+        <v>474.64143344583454</v>
       </c>
       <c r="U73" s="55">
-        <v>477.79933345805875</v>
+        <v>477.88779980143022</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
@@ -32218,50 +32218,50 @@
         <v>0.1</v>
       </c>
       <c r="D74" s="55">
-        <v>403.36751313073091</v>
+        <v>403.44271030555268</v>
       </c>
       <c r="E74" s="55">
-        <v>405.4296993084576</v>
+        <v>405.50598870206039</v>
       </c>
       <c r="F74" s="55">
-        <v>407.64392334111068</v>
+        <v>407.72138547900778</v>
       </c>
       <c r="G74" s="56">
-        <v>410.04059279967504</v>
+        <v>410.11932431248255</v>
       </c>
       <c r="H74" s="55">
-        <v>412.65880313256059</v>
+        <v>412.73892135745507</v>
       </c>
       <c r="I74" s="55">
-        <v>415.54967915691816</v>
+        <v>415.63132850888621</v>
       </c>
       <c r="J74" s="55">
-        <v>418.78138729561596</v>
+        <v>418.86474829339068</v>
       </c>
       <c r="M74" s="80"/>
       <c r="N74" s="54">
         <v>0.1</v>
       </c>
       <c r="O74" s="55">
-        <v>391.46640449580065</v>
+        <v>391.53529835305295</v>
       </c>
       <c r="P74" s="55">
-        <v>398.05724550685289</v>
+        <v>398.12963014510859</v>
       </c>
       <c r="Q74" s="55">
-        <v>403.32991831569467</v>
+        <v>403.40509557875316</v>
       </c>
       <c r="R74" s="56">
-        <v>407.64392334111068</v>
+        <v>407.72138547900778</v>
       </c>
       <c r="S74" s="55">
-        <v>411.23892752895728</v>
+        <v>411.31829372921999</v>
       </c>
       <c r="T74" s="55">
-        <v>414.28085414944297</v>
+        <v>414.3618314793996</v>
       </c>
       <c r="U74" s="55">
-        <v>416.88821982414498</v>
+        <v>416.97057812241064</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
@@ -32270,50 +32270,50 @@
         <v>0.11</v>
       </c>
       <c r="D75" s="55">
-        <v>360.0791099636661</v>
+        <v>360.15137421266718</v>
       </c>
       <c r="E75" s="55">
-        <v>360.8565189652744</v>
+        <v>360.92923406949029</v>
       </c>
       <c r="F75" s="55">
-        <v>361.63392796688271</v>
+        <v>361.70709392631346</v>
       </c>
       <c r="G75" s="56">
-        <v>362.4113369684909</v>
+        <v>362.48495378313658</v>
       </c>
       <c r="H75" s="55">
-        <v>363.18874597009915</v>
+        <v>363.26281363995975</v>
       </c>
       <c r="I75" s="55">
-        <v>363.96615497170745</v>
+        <v>364.04067349678286</v>
       </c>
       <c r="J75" s="55">
-        <v>364.74356397331576</v>
+        <v>364.81853335360603</v>
       </c>
       <c r="M75" s="80"/>
       <c r="N75" s="54">
         <v>0.11</v>
       </c>
       <c r="O75" s="55">
-        <v>348.41797493954209</v>
+        <v>348.48347636032014</v>
       </c>
       <c r="P75" s="55">
-        <v>353.80225209882894</v>
+        <v>353.87087610942854</v>
       </c>
       <c r="Q75" s="55">
-        <v>358.10967382625853</v>
+        <v>358.18079590871525</v>
       </c>
       <c r="R75" s="56">
-        <v>361.63392796688271</v>
+        <v>361.70709392631346</v>
       </c>
       <c r="S75" s="55">
-        <v>364.57080641740276</v>
+        <v>364.64567560764533</v>
       </c>
       <c r="T75" s="55">
-        <v>367.05585741399676</v>
+        <v>367.13216779954149</v>
       </c>
       <c r="U75" s="55">
-        <v>369.18590112536305</v>
+        <v>369.26344682116689</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
@@ -32322,50 +32322,50 @@
         <v>0.12</v>
       </c>
       <c r="D76" s="55">
-        <v>324.53760583263067</v>
+        <v>324.60730072680394</v>
       </c>
       <c r="E76" s="55">
-        <v>324.55927306901282</v>
+        <v>324.62898160925607</v>
       </c>
       <c r="F76" s="55">
-        <v>324.51160514897214</v>
+        <v>324.5812836678615</v>
       </c>
       <c r="G76" s="56">
-        <v>324.38365441623102</v>
+        <v>324.4532523514867</v>
       </c>
       <c r="H76" s="55">
-        <v>324.16204040200631</v>
+        <v>324.23149876430176</v>
       </c>
       <c r="I76" s="55">
-        <v>323.83023429191854</v>
+        <v>323.89948368204585</v>
       </c>
       <c r="J76" s="55">
-        <v>323.3675750679933</v>
+        <v>323.43653307439331</v>
       </c>
       <c r="M76" s="81"/>
       <c r="N76" s="54">
         <v>0.12</v>
       </c>
       <c r="O76" s="55">
-        <v>313.57181749961273</v>
+        <v>313.63460611782125</v>
       </c>
       <c r="P76" s="55">
-        <v>318.02876802342581</v>
+        <v>318.09436363820799</v>
       </c>
       <c r="Q76" s="55">
-        <v>321.5943284424763</v>
+        <v>321.66216965451741</v>
       </c>
       <c r="R76" s="56">
-        <v>324.51160514897214</v>
+        <v>324.5812836678615</v>
       </c>
       <c r="S76" s="55">
-        <v>326.94266907105197</v>
+        <v>327.01387867898154</v>
       </c>
       <c r="T76" s="55">
-        <v>328.99972315896565</v>
+        <v>329.07222830377549</v>
       </c>
       <c r="U76" s="55">
-        <v>330.76291237717749</v>
+        <v>330.83652798217031</v>
       </c>
     </row>
   </sheetData>

--- a/MC.PA.xlsx
+++ b/MC.PA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9704E4A1-E825-43BC-BEAF-A246E793759A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA8BBF1-DF28-4B25-B031-5316D9FACC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{833B3248-1BC2-4BAF-AC24-6FD47873AD76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{833B3248-1BC2-4BAF-AC24-6FD47873AD76}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -30005,14 +30005,14 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">+TODAY()</f>
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>158</v>
       </c>
       <c r="J4" s="8">
         <f ca="1">V62</f>
-        <v>466.37795544977268</v>
+        <v>466.50232738151612</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>159</v>
@@ -30034,7 +30034,7 @@
       </c>
       <c r="J5" s="11">
         <f ca="1">J4/J3-1</f>
-        <v>-9.0881178460482048E-2</v>
+        <v>-9.0638738047726819E-2</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>161</v>
@@ -31632,43 +31632,43 @@
       <c r="L52" s="40"/>
       <c r="M52" s="40">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>4451.758371530178</v>
+        <v>4339.7421455320382</v>
       </c>
       <c r="N52" s="40">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>13674.661181707052</v>
+        <v>13684.485132120035</v>
       </c>
       <c r="O52" s="40">
         <f t="shared" ref="O52:U52" ca="1" si="20">O51/(1+$E$18)^O53</f>
-        <v>14049.464851156918</v>
+        <v>14059.55806254934</v>
       </c>
       <c r="P52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14378.660154670395</v>
+        <v>14388.98986174596</v>
       </c>
       <c r="Q52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14732.490682384923</v>
+        <v>14743.074583221683</v>
       </c>
       <c r="R52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>15039.851631871474</v>
+        <v>15050.656342473574</v>
       </c>
       <c r="S52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14162.365558290297</v>
+        <v>14172.539878160196</v>
       </c>
       <c r="T52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>12971.482111458892</v>
+        <v>12980.80089423183</v>
       </c>
       <c r="U52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>11872.007416861645</v>
+        <v>11880.536331078682</v>
       </c>
       <c r="V52" s="41">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>10857.218054330689</v>
+        <v>10865.017938391538</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
@@ -31677,43 +31677,43 @@
       </c>
       <c r="M53" s="42">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.32222222222222224</v>
+        <v>0.31388888888888888</v>
       </c>
       <c r="N53" s="42">
         <f ca="1">M53+1</f>
-        <v>1.3222222222222222</v>
+        <v>1.3138888888888889</v>
       </c>
       <c r="O53" s="42">
         <f ca="1">N53+1</f>
-        <v>2.322222222222222</v>
+        <v>2.3138888888888891</v>
       </c>
       <c r="P53" s="42">
         <f t="shared" ref="P53:V53" ca="1" si="21">O53+1</f>
-        <v>3.322222222222222</v>
+        <v>3.3138888888888891</v>
       </c>
       <c r="Q53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>4.322222222222222</v>
+        <v>4.3138888888888891</v>
       </c>
       <c r="R53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>5.322222222222222</v>
+        <v>5.3138888888888891</v>
       </c>
       <c r="S53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>6.322222222222222</v>
+        <v>6.3138888888888891</v>
       </c>
       <c r="T53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>7.322222222222222</v>
+        <v>7.3138888888888891</v>
       </c>
       <c r="U53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>8.3222222222222229</v>
+        <v>8.31388888888889</v>
       </c>
       <c r="V53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>9.3222222222222229</v>
+        <v>9.31388888888889</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
@@ -31726,7 +31726,7 @@
       <c r="Q54" s="43"/>
       <c r="V54" s="21">
         <f ca="1">SUM(M52:V52)</f>
-        <v>126189.96001426247</v>
+        <v>126165.40116950488</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
@@ -31770,7 +31770,7 @@
       <c r="U56" s="45"/>
       <c r="V56" s="46">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>120476.12577870292</v>
+        <v>120562.67647782969</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
@@ -31798,7 +31798,7 @@
       <c r="U57" s="48"/>
       <c r="V57" s="49">
         <f ca="1">V54+V56</f>
-        <v>246666.08579296537</v>
+        <v>246728.07764733458</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
@@ -31852,7 +31852,7 @@
       <c r="Q60" s="43"/>
       <c r="V60" s="50">
         <f ca="1">V57+V58-V59</f>
-        <v>232461.08579296537</v>
+        <v>232523.07764733458</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
@@ -31889,7 +31889,7 @@
       </c>
       <c r="V62" s="50">
         <f ca="1">V60/V61</f>
-        <v>466.37795544977268</v>
+        <v>466.50232738151612</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
@@ -31950,7 +31950,7 @@
       </c>
       <c r="C69" s="52">
         <f ca="1">+J4</f>
-        <v>466.37795544977268</v>
+        <v>466.50232738151612</v>
       </c>
       <c r="D69" s="53">
         <v>0.01</v>
@@ -31978,7 +31978,7 @@
       </c>
       <c r="N69" s="52">
         <f ca="1">+J4</f>
-        <v>466.37795544977268</v>
+        <v>466.50232738151612</v>
       </c>
       <c r="O69" s="53">
         <v>0.08</v>
@@ -32009,25 +32009,25 @@
       </c>
       <c r="D70" s="55">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>746.110769022299</v>
+        <v>746.25380673539678</v>
       </c>
       <c r="E70" s="55">
-        <v>775.46394539390258</v>
+        <v>775.62123971418362</v>
       </c>
       <c r="F70" s="55">
-        <v>811.85657130258767</v>
+        <v>812.03154123539457</v>
       </c>
       <c r="G70" s="56">
-        <v>858.3055536928174</v>
+        <v>858.50308353149671</v>
       </c>
       <c r="H70" s="55">
-        <v>919.8390708053646</v>
+        <v>920.06648698993638</v>
       </c>
       <c r="I70" s="55">
-        <v>1005.5078434736193</v>
+        <v>1005.7768683081152</v>
       </c>
       <c r="J70" s="55">
-        <v>1133.4133133643629</v>
+        <v>1133.7444608808382</v>
       </c>
       <c r="M70" s="80"/>
       <c r="N70" s="54">
@@ -32035,25 +32035,25 @@
       </c>
       <c r="O70" s="55">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>766.13335426220522</v>
+        <v>766.2861167876689</v>
       </c>
       <c r="P70" s="55">
-        <v>784.76133157495349</v>
+        <v>784.92314156266821</v>
       </c>
       <c r="Q70" s="55">
-        <v>799.66371342515242</v>
+        <v>799.83276138266774</v>
       </c>
       <c r="R70" s="56">
-        <v>811.85657130258767</v>
+        <v>812.03154123539457</v>
       </c>
       <c r="S70" s="55">
-        <v>822.01728620045049</v>
+        <v>822.19719111266704</v>
       </c>
       <c r="T70" s="55">
-        <v>830.61481419094969</v>
+        <v>830.79889485497438</v>
       </c>
       <c r="U70" s="55">
-        <v>837.9841238970921</v>
+        <v>838.17178377695222</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
@@ -32062,50 +32062,50 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D71" s="55">
-        <v>618.15918677456841</v>
+        <v>618.2913918264602</v>
       </c>
       <c r="E71" s="55">
-        <v>633.45868260385919</v>
+        <v>633.59951628144506</v>
       </c>
       <c r="F71" s="55">
-        <v>651.59903926392508</v>
+        <v>651.75010375887393</v>
       </c>
       <c r="G71" s="56">
-        <v>673.52721036502396</v>
+        <v>673.69064193289466</v>
       </c>
       <c r="H71" s="55">
-        <v>700.66362632254413</v>
+        <v>700.8423623147296</v>
       </c>
       <c r="I71" s="55">
-        <v>735.24039207495116</v>
+        <v>735.4386287077275</v>
       </c>
       <c r="J71" s="55">
-        <v>780.97768251968876</v>
+        <v>781.20171411746981</v>
       </c>
       <c r="M71" s="80"/>
       <c r="N71" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O71" s="55">
-        <v>618.08617399620755</v>
+        <v>618.21833787027606</v>
       </c>
       <c r="P71" s="55">
-        <v>631.73956354972199</v>
+        <v>631.87942767674178</v>
       </c>
       <c r="Q71" s="55">
-        <v>642.6622751925338</v>
+        <v>642.80829952191459</v>
       </c>
       <c r="R71" s="56">
-        <v>651.59903926392508</v>
+        <v>651.75010375887393</v>
       </c>
       <c r="S71" s="55">
-        <v>659.04634265675111</v>
+        <v>659.20160728967346</v>
       </c>
       <c r="T71" s="55">
-        <v>665.34790706606555</v>
+        <v>665.50672566188848</v>
       </c>
       <c r="U71" s="55">
-        <v>670.74924798833513</v>
+        <v>670.91111283807277</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
@@ -32114,50 +32114,50 @@
         <v>0.08</v>
       </c>
       <c r="D72" s="56">
-        <v>526.42302276932605</v>
+        <v>526.54721169528591</v>
       </c>
       <c r="E72" s="56">
-        <v>534.57816630473212</v>
+        <v>534.70758714437818</v>
       </c>
       <c r="F72" s="56">
-        <v>543.92513054625988</v>
+        <v>544.06054790944063</v>
       </c>
       <c r="G72" s="56">
-        <v>554.78895750466938</v>
+        <v>554.93134453119228</v>
       </c>
       <c r="H72" s="56">
-        <v>567.62470599502558</v>
+        <v>567.77532776664009</v>
       </c>
       <c r="I72" s="56">
-        <v>583.08968319464384</v>
+        <v>583.25022648701588</v>
       </c>
       <c r="J72" s="56">
-        <v>602.16984986949785</v>
+        <v>602.34263399916813</v>
       </c>
       <c r="M72" s="80"/>
       <c r="N72" s="54">
         <v>0.08</v>
       </c>
       <c r="O72" s="56">
-        <v>518.31753843000865</v>
+        <v>518.43652730102599</v>
       </c>
       <c r="P72" s="56">
-        <v>528.75026114403681</v>
+        <v>528.87594310445411</v>
       </c>
       <c r="Q72" s="56">
-        <v>537.09643931525954</v>
+        <v>537.22747574719676</v>
       </c>
       <c r="R72" s="56">
-        <v>543.92513054625988</v>
+        <v>544.06054790944063</v>
       </c>
       <c r="S72" s="56">
-        <v>549.61570657209325</v>
+        <v>549.75477471131057</v>
       </c>
       <c r="T72" s="56">
-        <v>554.43080936318336</v>
+        <v>554.57296662058513</v>
       </c>
       <c r="U72" s="56">
-        <v>558.55804032697483</v>
+        <v>558.70284539996328</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
@@ -32166,50 +32166,50 @@
         <v>0.09</v>
       </c>
       <c r="D73" s="55">
-        <v>457.36003001411933</v>
+        <v>457.47792341954823</v>
       </c>
       <c r="E73" s="55">
-        <v>461.62983120579361</v>
+        <v>461.75079205944837</v>
       </c>
       <c r="F73" s="55">
-        <v>466.37795544977268</v>
+        <v>466.50232738151612</v>
       </c>
       <c r="G73" s="56">
-        <v>471.71478498889581</v>
+        <v>471.84299092778997</v>
       </c>
       <c r="H73" s="55">
-        <v>477.78749614694948</v>
+        <v>477.92006475432197</v>
       </c>
       <c r="I73" s="55">
-        <v>484.79678391091448</v>
+        <v>484.93438802845492</v>
       </c>
       <c r="J73" s="55">
-        <v>493.02362126256418</v>
+        <v>493.16713558446889</v>
       </c>
       <c r="M73" s="80"/>
       <c r="N73" s="54">
         <v>0.09</v>
       </c>
       <c r="O73" s="55">
-        <v>446.23572783437203</v>
+        <v>446.34562948106253</v>
       </c>
       <c r="P73" s="55">
-        <v>454.44182056657229</v>
+        <v>454.55761751458061</v>
       </c>
       <c r="Q73" s="55">
-        <v>461.00669475233252</v>
+        <v>461.12720794139511</v>
       </c>
       <c r="R73" s="56">
-        <v>466.37795544977268</v>
+        <v>466.50232738151612</v>
       </c>
       <c r="S73" s="55">
-        <v>470.85400603097281</v>
+        <v>470.98159358161689</v>
       </c>
       <c r="T73" s="55">
-        <v>474.64143344583454</v>
+        <v>474.77174190477911</v>
       </c>
       <c r="U73" s="55">
-        <v>477.88779980143022</v>
+        <v>478.02044046748961</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
@@ -32218,50 +32218,50 @@
         <v>0.1</v>
       </c>
       <c r="D74" s="55">
-        <v>403.44271030555268</v>
+        <v>403.55542824985645</v>
       </c>
       <c r="E74" s="55">
-        <v>405.50598870206039</v>
+        <v>405.62034605928909</v>
       </c>
       <c r="F74" s="55">
-        <v>407.72138547900778</v>
+        <v>407.83750311740641</v>
       </c>
       <c r="G74" s="56">
-        <v>410.11932431248255</v>
+        <v>410.23734727394532</v>
       </c>
       <c r="H74" s="55">
-        <v>412.73892135745507</v>
+        <v>412.85902576428208</v>
       </c>
       <c r="I74" s="55">
-        <v>415.63132850888621</v>
+        <v>415.7537311269852</v>
       </c>
       <c r="J74" s="55">
-        <v>418.86474829339068</v>
+        <v>418.98972008014636</v>
       </c>
       <c r="M74" s="80"/>
       <c r="N74" s="54">
         <v>0.1</v>
       </c>
       <c r="O74" s="55">
-        <v>391.53529835305295</v>
+        <v>391.63855506076834</v>
       </c>
       <c r="P74" s="55">
-        <v>398.12963014510859</v>
+        <v>398.23812649125057</v>
       </c>
       <c r="Q74" s="55">
-        <v>403.40509557875316</v>
+        <v>403.51778363563631</v>
       </c>
       <c r="R74" s="56">
-        <v>407.72138547900778</v>
+        <v>407.83750311740641</v>
       </c>
       <c r="S74" s="55">
-        <v>411.31829372921999</v>
+        <v>411.43726935221486</v>
       </c>
       <c r="T74" s="55">
-        <v>414.3618314793996</v>
+        <v>414.48322539705282</v>
       </c>
       <c r="U74" s="55">
-        <v>416.97057812241064</v>
+        <v>417.0940448640568</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
@@ -32270,50 +32270,50 @@
         <v>0.11</v>
       </c>
       <c r="D75" s="55">
-        <v>360.15137421266718</v>
+        <v>360.25968267173289</v>
       </c>
       <c r="E75" s="55">
-        <v>360.92923406949029</v>
+        <v>361.0382193016851</v>
       </c>
       <c r="F75" s="55">
-        <v>361.70709392631346</v>
+        <v>361.81675593163732</v>
       </c>
       <c r="G75" s="56">
-        <v>362.48495378313658</v>
+        <v>362.59529256158947</v>
       </c>
       <c r="H75" s="55">
-        <v>363.26281363995975</v>
+        <v>363.37382919154169</v>
       </c>
       <c r="I75" s="55">
-        <v>364.04067349678286</v>
+        <v>364.15236582149385</v>
       </c>
       <c r="J75" s="55">
-        <v>364.81853335360603</v>
+        <v>364.93090245144606</v>
       </c>
       <c r="M75" s="80"/>
       <c r="N75" s="54">
         <v>0.11</v>
       </c>
       <c r="O75" s="55">
-        <v>348.48347636032014</v>
+        <v>348.58163322245002</v>
       </c>
       <c r="P75" s="55">
-        <v>353.87087610942854</v>
+        <v>353.97372025211894</v>
       </c>
       <c r="Q75" s="55">
-        <v>358.18079590871525</v>
+        <v>358.28738987585405</v>
       </c>
       <c r="R75" s="56">
-        <v>361.70709392631346</v>
+        <v>361.81675593163732</v>
       </c>
       <c r="S75" s="55">
-        <v>364.64567560764533</v>
+        <v>364.75789431145671</v>
       </c>
       <c r="T75" s="55">
-        <v>367.13216779954149</v>
+        <v>367.24654986361162</v>
       </c>
       <c r="U75" s="55">
-        <v>369.26344682116689</v>
+        <v>369.37968319403012</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
@@ -32322,50 +32322,50 @@
         <v>0.12</v>
       </c>
       <c r="D76" s="55">
-        <v>324.60730072680394</v>
+        <v>324.71174508099233</v>
       </c>
       <c r="E76" s="55">
-        <v>324.62898160925607</v>
+        <v>324.73344644866523</v>
       </c>
       <c r="F76" s="55">
-        <v>324.5812836678615</v>
+        <v>324.68570343978485</v>
       </c>
       <c r="G76" s="56">
-        <v>324.4532523514867</v>
+        <v>324.55755115279004</v>
       </c>
       <c r="H76" s="55">
-        <v>324.23149876430176</v>
+        <v>324.33558804132849</v>
       </c>
       <c r="I76" s="55">
-        <v>323.89948368204585</v>
+        <v>324.0032592540237</v>
       </c>
       <c r="J76" s="55">
-        <v>323.43653307439331</v>
+        <v>323.53987122665507</v>
       </c>
       <c r="M76" s="81"/>
       <c r="N76" s="54">
         <v>0.12</v>
       </c>
       <c r="O76" s="55">
-        <v>313.63460611782125</v>
+        <v>313.7286829017313</v>
       </c>
       <c r="P76" s="55">
-        <v>318.09436363820799</v>
+        <v>318.19265423204939</v>
       </c>
       <c r="Q76" s="55">
-        <v>321.66216965451741</v>
+        <v>321.76383129630392</v>
       </c>
       <c r="R76" s="56">
-        <v>324.5812836678615</v>
+        <v>324.68570343978485</v>
       </c>
       <c r="S76" s="55">
-        <v>327.01387867898154</v>
+        <v>327.12059689268563</v>
       </c>
       <c r="T76" s="55">
-        <v>329.07222830377549</v>
+        <v>329.18089135283248</v>
       </c>
       <c r="U76" s="55">
-        <v>330.83652798217031</v>
+        <v>330.94685803295835</v>
       </c>
     </row>
   </sheetData>

--- a/MC.PA.xlsx
+++ b/MC.PA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA8BBF1-DF28-4B25-B031-5316D9FACC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8274A8CF-DD29-40FE-9542-880D66C14DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{833B3248-1BC2-4BAF-AC24-6FD47873AD76}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{833B3248-1BC2-4BAF-AC24-6FD47873AD76}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -30005,14 +30005,14 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">+TODAY()</f>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>158</v>
       </c>
       <c r="J4" s="8">
         <f ca="1">V62</f>
-        <v>466.50232738151612</v>
+        <v>466.54376765400184</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>159</v>
@@ -30034,7 +30034,7 @@
       </c>
       <c r="J5" s="11">
         <f ca="1">J4/J3-1</f>
-        <v>-9.0638738047726819E-2</v>
+        <v>-9.0557957789470067E-2</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>161</v>
@@ -31632,43 +31632,43 @@
       <c r="L52" s="40"/>
       <c r="M52" s="40">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>4339.7421455320382</v>
+        <v>4302.3671358784131</v>
       </c>
       <c r="N52" s="40">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>13684.485132120035</v>
+        <v>13687.761350358282</v>
       </c>
       <c r="O52" s="40">
         <f t="shared" ref="O52:U52" ca="1" si="20">O51/(1+$E$18)^O53</f>
-        <v>14059.55806254934</v>
+        <v>14062.92407742688</v>
       </c>
       <c r="P52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14388.98986174596</v>
+        <v>14392.434746267363</v>
       </c>
       <c r="Q52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14743.074583221683</v>
+        <v>14746.604239571268</v>
       </c>
       <c r="R52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>15050.656342473574</v>
+        <v>15054.259637323967</v>
       </c>
       <c r="S52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14172.539878160196</v>
+        <v>14175.932942143445</v>
       </c>
       <c r="T52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>12980.80089423183</v>
+        <v>12983.908642621787</v>
       </c>
       <c r="U52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>11880.536331078682</v>
+        <v>11883.380663871059</v>
       </c>
       <c r="V52" s="41">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>10865.017938391538</v>
+        <v>10867.619144763934</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
@@ -31677,43 +31677,43 @@
       </c>
       <c r="M53" s="42">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.31388888888888888</v>
+        <v>0.31111111111111112</v>
       </c>
       <c r="N53" s="42">
         <f ca="1">M53+1</f>
-        <v>1.3138888888888889</v>
+        <v>1.3111111111111111</v>
       </c>
       <c r="O53" s="42">
         <f ca="1">N53+1</f>
-        <v>2.3138888888888891</v>
+        <v>2.3111111111111109</v>
       </c>
       <c r="P53" s="42">
         <f t="shared" ref="P53:V53" ca="1" si="21">O53+1</f>
-        <v>3.3138888888888891</v>
+        <v>3.3111111111111109</v>
       </c>
       <c r="Q53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>4.3138888888888891</v>
+        <v>4.3111111111111109</v>
       </c>
       <c r="R53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3138888888888891</v>
+        <v>5.3111111111111109</v>
       </c>
       <c r="S53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>6.3138888888888891</v>
+        <v>6.3111111111111109</v>
       </c>
       <c r="T53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>7.3138888888888891</v>
+        <v>7.3111111111111109</v>
       </c>
       <c r="U53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>8.31388888888889</v>
+        <v>8.31111111111111</v>
       </c>
       <c r="V53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>9.31388888888889</v>
+        <v>9.31111111111111</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
@@ -31726,7 +31726,7 @@
       <c r="Q54" s="43"/>
       <c r="V54" s="21">
         <f ca="1">SUM(M52:V52)</f>
-        <v>126165.40116950488</v>
+        <v>126157.19258022639</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
@@ -31770,7 +31770,7 @@
       <c r="U56" s="45"/>
       <c r="V56" s="46">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>120562.67647782969</v>
+        <v>120591.54052610882</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
@@ -31798,7 +31798,7 @@
       <c r="U57" s="48"/>
       <c r="V57" s="49">
         <f ca="1">V54+V56</f>
-        <v>246728.07764733458</v>
+        <v>246748.73310633522</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
@@ -31852,7 +31852,7 @@
       <c r="Q60" s="43"/>
       <c r="V60" s="50">
         <f ca="1">V57+V58-V59</f>
-        <v>232523.07764733458</v>
+        <v>232543.73310633522</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
@@ -31889,7 +31889,7 @@
       </c>
       <c r="V62" s="50">
         <f ca="1">V60/V61</f>
-        <v>466.50232738151612</v>
+        <v>466.54376765400184</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
@@ -31950,7 +31950,7 @@
       </c>
       <c r="C69" s="52">
         <f ca="1">+J4</f>
-        <v>466.50232738151612</v>
+        <v>466.54376765400184</v>
       </c>
       <c r="D69" s="53">
         <v>0.01</v>
@@ -31978,7 +31978,7 @@
       </c>
       <c r="N69" s="52">
         <f ca="1">+J4</f>
-        <v>466.50232738151612</v>
+        <v>466.54376765400184</v>
       </c>
       <c r="O69" s="53">
         <v>0.08</v>
@@ -32009,25 +32009,25 @@
       </c>
       <c r="D70" s="55">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>746.25380673539678</v>
+        <v>746.30147624721383</v>
       </c>
       <c r="E70" s="55">
-        <v>775.62123971418362</v>
+        <v>775.67366296696719</v>
       </c>
       <c r="F70" s="55">
-        <v>812.03154123539457</v>
+        <v>812.08985826657124</v>
       </c>
       <c r="G70" s="56">
-        <v>858.50308353149671</v>
+        <v>858.56892296596129</v>
       </c>
       <c r="H70" s="55">
-        <v>920.06648698993638</v>
+        <v>920.14229176503102</v>
       </c>
       <c r="I70" s="55">
-        <v>1005.7768683081152</v>
+        <v>1005.8665471235878</v>
       </c>
       <c r="J70" s="55">
-        <v>1133.7444608808382</v>
+        <v>1133.8548539612468</v>
       </c>
       <c r="M70" s="80"/>
       <c r="N70" s="54">
@@ -32035,25 +32035,25 @@
       </c>
       <c r="O70" s="55">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>766.2861167876689</v>
+        <v>766.3370289531091</v>
       </c>
       <c r="P70" s="55">
-        <v>784.92314156266821</v>
+        <v>784.97707052526027</v>
       </c>
       <c r="Q70" s="55">
-        <v>799.83276138266774</v>
+        <v>799.88910378298124</v>
       </c>
       <c r="R70" s="56">
-        <v>812.03154123539457</v>
+        <v>812.08985826657124</v>
       </c>
       <c r="S70" s="55">
-        <v>822.19719111266704</v>
+        <v>822.25715366956285</v>
       </c>
       <c r="T70" s="55">
-        <v>830.79889485497438</v>
+        <v>830.8602497797865</v>
       </c>
       <c r="U70" s="55">
-        <v>838.17178377695222</v>
+        <v>838.23433215997829</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
@@ -32062,50 +32062,50 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D71" s="55">
-        <v>618.2913918264602</v>
+        <v>618.33544761270321</v>
       </c>
       <c r="E71" s="55">
-        <v>633.59951628144506</v>
+        <v>633.6464493575354</v>
       </c>
       <c r="F71" s="55">
-        <v>651.75010375887393</v>
+        <v>651.8004483894772</v>
       </c>
       <c r="G71" s="56">
-        <v>673.69064193289466</v>
+        <v>673.74511047089868</v>
       </c>
       <c r="H71" s="55">
-        <v>700.8423623147296</v>
+        <v>700.90193424535505</v>
       </c>
       <c r="I71" s="55">
-        <v>735.4386287077275</v>
+        <v>735.50470329557515</v>
       </c>
       <c r="J71" s="55">
-        <v>781.20171411746981</v>
+        <v>781.27639025944109</v>
       </c>
       <c r="M71" s="80"/>
       <c r="N71" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O71" s="55">
-        <v>618.21833787027606</v>
+        <v>618.2623799254178</v>
       </c>
       <c r="P71" s="55">
-        <v>631.87942767674178</v>
+        <v>631.9260374478124</v>
       </c>
       <c r="Q71" s="55">
-        <v>642.80829952191459</v>
+        <v>642.85696346572809</v>
       </c>
       <c r="R71" s="56">
-        <v>651.75010375887393</v>
+        <v>651.8004483894772</v>
       </c>
       <c r="S71" s="55">
-        <v>659.20160728967346</v>
+        <v>659.25335249260161</v>
       </c>
       <c r="T71" s="55">
-        <v>665.50672566188848</v>
+        <v>665.55965596447595</v>
       </c>
       <c r="U71" s="55">
-        <v>670.91111283807277</v>
+        <v>670.96505894036841</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
@@ -32114,50 +32114,50 @@
         <v>0.08</v>
       </c>
       <c r="D72" s="56">
-        <v>526.54721169528591</v>
+        <v>526.58859266628644</v>
       </c>
       <c r="E72" s="56">
-        <v>534.70758714437818</v>
+        <v>534.75071283239504</v>
       </c>
       <c r="F72" s="56">
-        <v>544.06054790944063</v>
+        <v>544.10567329341518</v>
       </c>
       <c r="G72" s="56">
-        <v>554.93134453119228</v>
+        <v>554.97879412977727</v>
       </c>
       <c r="H72" s="56">
-        <v>567.77532776664009</v>
+        <v>567.82552345408419</v>
       </c>
       <c r="I72" s="56">
-        <v>583.25022648701588</v>
+        <v>583.3037307623174</v>
       </c>
       <c r="J72" s="56">
-        <v>602.34263399916813</v>
+        <v>602.40022029844954</v>
       </c>
       <c r="M72" s="80"/>
       <c r="N72" s="54">
         <v>0.08</v>
       </c>
       <c r="O72" s="56">
-        <v>518.43652730102599</v>
+        <v>518.47617417913284</v>
       </c>
       <c r="P72" s="56">
-        <v>528.87594310445411</v>
+        <v>528.91782196643305</v>
       </c>
       <c r="Q72" s="56">
-        <v>537.22747574719676</v>
+        <v>537.27114019627322</v>
       </c>
       <c r="R72" s="56">
-        <v>544.06054790944063</v>
+        <v>544.10567329341518</v>
       </c>
       <c r="S72" s="56">
-        <v>549.75477471131057</v>
+        <v>549.80111754103348</v>
       </c>
       <c r="T72" s="56">
-        <v>554.57296662058513</v>
+        <v>554.62033959671055</v>
       </c>
       <c r="U72" s="56">
-        <v>558.70284539996328</v>
+        <v>558.75110135871932</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
@@ -32166,50 +32166,50 @@
         <v>0.09</v>
       </c>
       <c r="D73" s="55">
-        <v>457.47792341954823</v>
+        <v>457.51720314915906</v>
       </c>
       <c r="E73" s="55">
-        <v>461.75079205944837</v>
+        <v>461.79109476142764</v>
       </c>
       <c r="F73" s="55">
-        <v>466.50232738151612</v>
+        <v>466.54376765400184</v>
       </c>
       <c r="G73" s="56">
-        <v>471.84299092778997</v>
+        <v>471.8857098146442</v>
       </c>
       <c r="H73" s="55">
-        <v>477.92006475432197</v>
+        <v>477.96423856037217</v>
       </c>
       <c r="I73" s="55">
-        <v>484.93438802845492</v>
+        <v>484.98024114166333</v>
       </c>
       <c r="J73" s="55">
-        <v>493.16713558446889</v>
+        <v>493.2149597091867</v>
       </c>
       <c r="M73" s="80"/>
       <c r="N73" s="54">
         <v>0.09</v>
       </c>
       <c r="O73" s="55">
-        <v>446.34562948106253</v>
+        <v>446.38224401544807</v>
       </c>
       <c r="P73" s="55">
-        <v>454.55761751458061</v>
+        <v>454.59619809041436</v>
       </c>
       <c r="Q73" s="55">
-        <v>461.12720794139511</v>
+        <v>461.16736135038747</v>
       </c>
       <c r="R73" s="56">
-        <v>466.50232738151612</v>
+        <v>466.54376765400184</v>
       </c>
       <c r="S73" s="55">
-        <v>470.98159358161689</v>
+        <v>471.02410624034712</v>
       </c>
       <c r="T73" s="55">
-        <v>474.77174190477911</v>
+        <v>474.81516196725465</v>
       </c>
       <c r="U73" s="55">
-        <v>478.02044046748961</v>
+        <v>478.06463830460405</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
@@ -32218,50 +32218,50 @@
         <v>0.1</v>
       </c>
       <c r="D74" s="55">
-        <v>403.55542824985645</v>
+        <v>403.59298011398334</v>
       </c>
       <c r="E74" s="55">
-        <v>405.62034605928909</v>
+        <v>405.65844468381175</v>
       </c>
       <c r="F74" s="55">
-        <v>407.83750311740641</v>
+        <v>407.87618881307782</v>
       </c>
       <c r="G74" s="56">
-        <v>410.23734727394532</v>
+        <v>410.2766684136692</v>
       </c>
       <c r="H74" s="55">
-        <v>412.85902576428208</v>
+        <v>412.89904108658419</v>
       </c>
       <c r="I74" s="55">
-        <v>415.7537311269852</v>
+        <v>415.79451292543581</v>
       </c>
       <c r="J74" s="55">
-        <v>418.98972008014636</v>
+        <v>419.03135872170844</v>
       </c>
       <c r="M74" s="80"/>
       <c r="N74" s="54">
         <v>0.1</v>
       </c>
       <c r="O74" s="55">
-        <v>391.63855506076834</v>
+        <v>391.67295150908603</v>
       </c>
       <c r="P74" s="55">
-        <v>398.23812649125057</v>
+        <v>398.27427041071223</v>
       </c>
       <c r="Q74" s="55">
-        <v>403.51778363563631</v>
+        <v>403.55532553201334</v>
       </c>
       <c r="R74" s="56">
-        <v>407.83750311740641</v>
+        <v>407.87618881307782</v>
       </c>
       <c r="S74" s="55">
-        <v>411.43726935221486</v>
+        <v>411.47690821396498</v>
       </c>
       <c r="T74" s="55">
-        <v>414.48322539705282</v>
+        <v>414.52367078394633</v>
       </c>
       <c r="U74" s="55">
-        <v>417.0940448640568</v>
+        <v>417.13518155821612</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
@@ -32270,50 +32270,50 @@
         <v>0.11</v>
       </c>
       <c r="D75" s="55">
-        <v>360.25968267173289</v>
+        <v>360.29576200822993</v>
       </c>
       <c r="E75" s="55">
-        <v>361.0382193016851</v>
+        <v>361.07452436004939</v>
       </c>
       <c r="F75" s="55">
-        <v>361.81675593163732</v>
+        <v>361.85328671186898</v>
       </c>
       <c r="G75" s="56">
-        <v>362.59529256158947</v>
+        <v>362.63204906368844</v>
       </c>
       <c r="H75" s="55">
-        <v>363.37382919154169</v>
+        <v>363.41081141550796</v>
       </c>
       <c r="I75" s="55">
-        <v>364.15236582149385</v>
+        <v>364.18957376732749</v>
       </c>
       <c r="J75" s="55">
-        <v>364.93090245144606</v>
+        <v>364.96833611914701</v>
       </c>
       <c r="M75" s="80"/>
       <c r="N75" s="54">
         <v>0.11</v>
       </c>
       <c r="O75" s="55">
-        <v>348.58163322245002</v>
+        <v>348.61432673093736</v>
       </c>
       <c r="P75" s="55">
-        <v>353.97372025211894</v>
+        <v>354.00797709353913</v>
       </c>
       <c r="Q75" s="55">
-        <v>358.28738987585405</v>
+        <v>358.32289738362056</v>
       </c>
       <c r="R75" s="56">
-        <v>361.81675593163732</v>
+        <v>361.85328671186898</v>
       </c>
       <c r="S75" s="55">
-        <v>364.75789431145671</v>
+        <v>364.7952778187427</v>
       </c>
       <c r="T75" s="55">
-        <v>367.24654986361162</v>
+        <v>367.28465490917426</v>
       </c>
       <c r="U75" s="55">
-        <v>369.37968319403012</v>
+        <v>369.41840670097281</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
@@ -32322,50 +32322,50 @@
         <v>0.12</v>
       </c>
       <c r="D76" s="55">
-        <v>324.71174508099233</v>
+        <v>324.74653368910424</v>
       </c>
       <c r="E76" s="55">
-        <v>324.73344644866523</v>
+        <v>324.76824188948444</v>
       </c>
       <c r="F76" s="55">
-        <v>324.68570343978485</v>
+        <v>324.72048384864803</v>
       </c>
       <c r="G76" s="56">
-        <v>324.55755115279004</v>
+        <v>324.59229121271864</v>
       </c>
       <c r="H76" s="55">
-        <v>324.33558804132849</v>
+        <v>324.37025821584768</v>
       </c>
       <c r="I76" s="55">
-        <v>324.0032592540237</v>
+        <v>324.03782479433931</v>
       </c>
       <c r="J76" s="55">
-        <v>323.53987122665507</v>
+        <v>323.57429086857428</v>
       </c>
       <c r="M76" s="81"/>
       <c r="N76" s="54">
         <v>0.12</v>
       </c>
       <c r="O76" s="55">
-        <v>313.7286829017313</v>
+        <v>313.76001347669234</v>
       </c>
       <c r="P76" s="55">
-        <v>318.19265423204939</v>
+        <v>318.22539029489644</v>
       </c>
       <c r="Q76" s="55">
-        <v>321.76383129630392</v>
+        <v>321.79769174945983</v>
       </c>
       <c r="R76" s="56">
-        <v>324.68570343978485</v>
+        <v>324.72048384864803</v>
       </c>
       <c r="S76" s="55">
-        <v>327.12059689268563</v>
+        <v>327.15614393130488</v>
       </c>
       <c r="T76" s="55">
-        <v>329.18089135283248</v>
+        <v>329.21708707816833</v>
       </c>
       <c r="U76" s="55">
-        <v>330.94685803295835</v>
+        <v>330.98360977547986</v>
       </c>
     </row>
   </sheetData>

--- a/MC.PA.xlsx
+++ b/MC.PA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8274A8CF-DD29-40FE-9542-880D66C14DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE83794-D6EA-4BBC-9F12-D49996C5CB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{833B3248-1BC2-4BAF-AC24-6FD47873AD76}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{833B3248-1BC2-4BAF-AC24-6FD47873AD76}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,7 @@
     <author>tc={0730EDA6-8BD7-4887-A459-F5F3D684BDDA}</author>
     <author>tc={04D8DA85-74C1-43F7-9161-C9F4B5E4FC35}</author>
     <author>tc={F8C88AB7-0E52-4349-A875-E61A1AD7BCCB}</author>
+    <author>tc={6A0FBB0C-E2C5-451B-89D8-64036F47AC91}</author>
   </authors>
   <commentList>
     <comment ref="G6" authorId="0" shapeId="0" xr:uid="{0730EDA6-8BD7-4887-A459-F5F3D684BDDA}">
@@ -69,6 +70,14 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Organ: +2%</t>
+      </text>
+    </comment>
+    <comment ref="I28" authorId="3" shapeId="0" xr:uid="{6A0FBB0C-E2C5-451B-89D8-64036F47AC91}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Organic Growth +1%</t>
       </text>
     </comment>
   </commentList>
@@ -962,13 +971,19 @@
     <numFmt numFmtId="171" formatCode="0.0"/>
     <numFmt numFmtId="172" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1289,138 +1304,142 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1967,6 +1986,9 @@
   <threadedComment ref="G19" dT="2025-04-15T09:02:58.16" personId="{2567B180-7FBF-4C5E-A839-9F212724FCA9}" id="{F8C88AB7-0E52-4349-A875-E61A1AD7BCCB}">
     <text>Organ: +2%</text>
   </threadedComment>
+  <threadedComment ref="I28" dT="2025-10-18T12:40:47.40" personId="{2567B180-7FBF-4C5E-A839-9F212724FCA9}" id="{6A0FBB0C-E2C5-451B-89D8-64036F47AC91}">
+    <text>Organic Growth +1%</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1974,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A2E0A7-D3BF-4874-B6F1-44DA921D3AB0}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2009,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="43">
-        <v>513</v>
+        <v>605.70000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2022,8 +2044,8 @@
       <c r="I5" s="43">
         <v>498.43926599999998</v>
       </c>
-      <c r="J5" s="57" t="s">
-        <v>223</v>
+      <c r="J5" s="82" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2032,7 +2054,7 @@
       </c>
       <c r="I6" s="61">
         <f>I5*I4</f>
-        <v>255699.34345799999</v>
+        <v>301904.66341620003</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2055,8 +2077,8 @@
       <c r="I7" s="61">
         <v>8176</v>
       </c>
-      <c r="J7" s="57" t="s">
-        <v>223</v>
+      <c r="J7" s="82" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2077,8 +2099,8 @@
         <f>12454+9927</f>
         <v>22381</v>
       </c>
-      <c r="J8" s="57" t="s">
-        <v>223</v>
+      <c r="J8" s="82" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2100,7 +2122,7 @@
       </c>
       <c r="I9" s="61">
         <f>I6+I8-I7</f>
-        <v>269904.34345799999</v>
+        <v>316109.66341620003</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2292,11 +2314,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8159692D-F6A3-4F44-AE01-03788CB191C2}">
   <dimension ref="A1:AP488"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2473,7 +2495,9 @@
       <c r="D9" s="21">
         <v>1391</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="21">
+        <v>1386</v>
+      </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21">
         <v>1305</v>
@@ -2481,7 +2505,9 @@
       <c r="H9" s="21">
         <v>1283</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="21">
+        <v>1330</v>
+      </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
@@ -2526,7 +2552,9 @@
       <c r="D10" s="21">
         <v>10281</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="21">
+        <v>9151</v>
+      </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21">
         <v>10108</v>
@@ -2534,7 +2562,9 @@
       <c r="H10" s="21">
         <v>9006</v>
       </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="21">
+        <v>8497</v>
+      </c>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
@@ -2579,7 +2609,9 @@
       <c r="D11" s="21">
         <v>1953</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="21">
+        <v>2012</v>
+      </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21">
         <v>2178</v>
@@ -2587,7 +2619,9 @@
       <c r="H11" s="21">
         <v>1904</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="21">
+        <v>1958</v>
+      </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
@@ -2632,7 +2666,9 @@
       <c r="D12" s="21">
         <v>2685</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="21">
+        <v>2386</v>
+      </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21">
         <v>2482</v>
@@ -2640,7 +2676,9 @@
       <c r="H12" s="21">
         <v>2608</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="21">
+        <v>2319</v>
+      </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
@@ -2685,7 +2723,9 @@
       <c r="D13" s="21">
         <v>4457</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="21">
+        <v>3927</v>
+      </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21">
         <v>4189</v>
@@ -2693,7 +2733,9 @@
       <c r="H13" s="21">
         <v>4431</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="21">
+        <v>3992</v>
+      </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
@@ -2739,7 +2781,9 @@
         <f>552-336</f>
         <v>216</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="21">
+        <v>214</v>
+      </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21">
         <v>49</v>
@@ -2748,7 +2792,9 @@
         <f>609-341</f>
         <v>268</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="21">
+        <v>185</v>
+      </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
@@ -2795,7 +2841,10 @@
         <f>+SUM(D9:D14)</f>
         <v>20983</v>
       </c>
-      <c r="E15" s="43"/>
+      <c r="E15" s="64">
+        <f>+SUM(E9:E14)</f>
+        <v>19076</v>
+      </c>
       <c r="F15" s="43"/>
       <c r="G15" s="64">
         <f>+SUM(G9:G14)</f>
@@ -2805,7 +2854,10 @@
         <f>+SUM(H9:H14)</f>
         <v>19500</v>
       </c>
-      <c r="I15" s="43"/>
+      <c r="I15" s="64">
+        <f>+SUM(I9:I14)</f>
+        <v>18281</v>
+      </c>
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
       <c r="L15" s="43"/>
@@ -3225,9 +3277,9 @@
         <f t="shared" ref="H23:J27" si="3">+H9/D9-1</f>
         <v>-7.7641984184040225E-2</v>
       </c>
-      <c r="I23" s="68" t="e">
+      <c r="I23" s="68">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-4.0404040404040442E-2</v>
       </c>
       <c r="J23" s="68" t="e">
         <f t="shared" si="3"/>
@@ -3280,9 +3332,9 @@
         <f t="shared" si="3"/>
         <v>-0.12401517362124304</v>
       </c>
-      <c r="I24" s="68" t="e">
+      <c r="I24" s="68">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-7.1467599169489637E-2</v>
       </c>
       <c r="J24" s="68" t="e">
         <f t="shared" si="3"/>
@@ -3335,9 +3387,9 @@
         <f t="shared" si="3"/>
         <v>-2.508960573476704E-2</v>
       </c>
-      <c r="I25" s="68" t="e">
+      <c r="I25" s="68">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-2.6838966202783254E-2</v>
       </c>
       <c r="J25" s="68" t="e">
         <f t="shared" si="3"/>
@@ -3390,9 +3442,9 @@
         <f t="shared" si="3"/>
         <v>-2.8677839851024234E-2</v>
       </c>
-      <c r="I26" s="68" t="e">
+      <c r="I26" s="68">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-2.8080469404861641E-2</v>
       </c>
       <c r="J26" s="68" t="e">
         <f t="shared" si="3"/>
@@ -3445,9 +3497,9 @@
         <f t="shared" si="3"/>
         <v>-5.8335203051379514E-3</v>
       </c>
-      <c r="I27" s="68" t="e">
+      <c r="I27" s="68">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.6552075375604769E-2</v>
       </c>
       <c r="J27" s="68" t="e">
         <f t="shared" si="3"/>
@@ -3492,19 +3544,19 @@
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="43"/>
-      <c r="G28" s="68">
+      <c r="G28" s="83">
         <f>+G15/C15-1</f>
         <v>-1.85077800328598E-2</v>
       </c>
-      <c r="H28" s="68">
+      <c r="H28" s="83">
         <f t="shared" ref="H28:J28" si="5">+H15/D15-1</f>
         <v>-7.0676261735690749E-2</v>
       </c>
-      <c r="I28" s="68" t="e">
+      <c r="I28" s="83">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="68" t="e">
+        <v>-4.1675403648563591E-2</v>
+      </c>
+      <c r="J28" s="83" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -29516,7 +29568,7 @@
       </c>
       <c r="J29" s="4">
         <f>+Main!I4</f>
-        <v>513</v>
+        <v>605.70000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -29582,7 +29634,7 @@
       </c>
       <c r="J31" s="61">
         <f>J30*J29</f>
-        <v>256198.620195</v>
+        <v>302494.16033550003</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -29648,7 +29700,7 @@
       </c>
       <c r="J33" s="61">
         <f>J31+J32</f>
-        <v>284366.62019499997</v>
+        <v>330662.16033550003</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
@@ -29719,7 +29771,7 @@
       </c>
       <c r="J36" s="42">
         <f>Main!I6/Model!P34</f>
-        <v>20.374449677928286</v>
+        <v>24.056148479378489</v>
       </c>
       <c r="L36" s="42">
         <f>AVERAGE(G36:I36,D36:E36)</f>
@@ -29753,7 +29805,7 @@
       </c>
       <c r="J37" s="42">
         <f>J36/-2</f>
-        <v>-10.187224838964143</v>
+        <v>-12.028074239689245</v>
       </c>
       <c r="L37" s="62">
         <f>AVERAGE(G37:I37,E37)</f>
@@ -29790,7 +29842,7 @@
       </c>
       <c r="J38" s="42">
         <f>J31/Model!P69</f>
-        <v>3.6976434279879342</v>
+        <v>4.3658140825190879</v>
       </c>
       <c r="L38" s="42">
         <f>AVERAGE(G38:I38,D38:E38)</f>
@@ -29832,7 +29884,7 @@
       </c>
       <c r="J40" s="42">
         <f>J33/Model!P19</f>
-        <v>3.3580130627752909</v>
+        <v>3.9047053167164605</v>
       </c>
       <c r="L40" s="42">
         <f>AVERAGE(G40:I40,D40:E40)</f>
@@ -29869,7 +29921,7 @@
       </c>
       <c r="J41" s="42">
         <f>Ratios!J33/(Model!P26+Model!P88+Model!P89)</f>
-        <v>10.649238669625134</v>
+        <v>12.382959230629519</v>
       </c>
       <c r="L41" s="42">
         <f t="shared" ref="L41:L42" si="9">AVERAGE(G41:I41,D41:E41)</f>
@@ -29906,7 +29958,7 @@
       </c>
       <c r="J42" s="42">
         <f>J33/Model!P26</f>
-        <v>15.040282445390595</v>
+        <v>17.488875037578676</v>
       </c>
       <c r="L42" s="42">
         <f t="shared" si="9"/>
@@ -29989,14 +30041,14 @@
       </c>
       <c r="J3" s="6">
         <f>+Main!I4</f>
-        <v>513</v>
+        <v>605.70000000000005</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>156</v>
       </c>
       <c r="O3" s="6">
         <f>+J3</f>
-        <v>513</v>
+        <v>605.70000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -30005,14 +30057,14 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">+TODAY()</f>
-        <v>45909</v>
+        <v>45948</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>158</v>
       </c>
       <c r="J4" s="8">
         <f ca="1">V62</f>
-        <v>466.54376765400184</v>
+        <v>468.15322097279955</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>159</v>
@@ -30034,7 +30086,7 @@
       </c>
       <c r="J5" s="11">
         <f ca="1">J4/J3-1</f>
-        <v>-9.0557957789470067E-2</v>
+        <v>-0.22708730233977292</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>161</v>
@@ -31632,43 +31684,43 @@
       <c r="L52" s="40"/>
       <c r="M52" s="40">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>4302.3671358784131</v>
+        <v>2830.5240038717029</v>
       </c>
       <c r="N52" s="40">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>13687.761350358282</v>
+        <v>13816.147524345854</v>
       </c>
       <c r="O52" s="40">
         <f t="shared" ref="O52:U52" ca="1" si="20">O51/(1+$E$18)^O53</f>
-        <v>14062.92407742688</v>
+        <v>14194.829139998072</v>
       </c>
       <c r="P52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14392.434746267363</v>
+        <v>14527.430497883874</v>
       </c>
       <c r="Q52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14746.604239571268</v>
+        <v>14884.921970949443</v>
       </c>
       <c r="R52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>15054.259637323967</v>
+        <v>15195.463063332041</v>
       </c>
       <c r="S52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14175.932942143445</v>
+        <v>14308.897986357817</v>
       </c>
       <c r="T52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>12983.908642621787</v>
+        <v>13105.69293673404</v>
       </c>
       <c r="U52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>11883.380663871059</v>
+        <v>11994.842409763665</v>
       </c>
       <c r="V52" s="41">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>10867.619144763934</v>
+        <v>10969.553420693854</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
@@ -31677,43 +31729,43 @@
       </c>
       <c r="M53" s="42">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.31111111111111112</v>
+        <v>0.20277777777777778</v>
       </c>
       <c r="N53" s="42">
         <f ca="1">M53+1</f>
-        <v>1.3111111111111111</v>
+        <v>1.2027777777777777</v>
       </c>
       <c r="O53" s="42">
         <f ca="1">N53+1</f>
-        <v>2.3111111111111109</v>
+        <v>2.2027777777777775</v>
       </c>
       <c r="P53" s="42">
         <f t="shared" ref="P53:V53" ca="1" si="21">O53+1</f>
-        <v>3.3111111111111109</v>
+        <v>3.2027777777777775</v>
       </c>
       <c r="Q53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>4.3111111111111109</v>
+        <v>4.2027777777777775</v>
       </c>
       <c r="R53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3111111111111109</v>
+        <v>5.2027777777777775</v>
       </c>
       <c r="S53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>6.3111111111111109</v>
+        <v>6.2027777777777775</v>
       </c>
       <c r="T53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>7.3111111111111109</v>
+        <v>7.2027777777777775</v>
       </c>
       <c r="U53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>8.31111111111111</v>
+        <v>8.2027777777777775</v>
       </c>
       <c r="V53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>9.31111111111111</v>
+        <v>9.2027777777777775</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
@@ -31726,7 +31778,7 @@
       <c r="Q54" s="43"/>
       <c r="V54" s="21">
         <f ca="1">SUM(M52:V52)</f>
-        <v>126157.19258022639</v>
+        <v>125828.30295393034</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
@@ -31770,7 +31822,7 @@
       <c r="U56" s="45"/>
       <c r="V56" s="46">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>120591.54052610882</v>
+        <v>121722.64488328765</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
@@ -31798,7 +31850,7 @@
       <c r="U57" s="48"/>
       <c r="V57" s="49">
         <f ca="1">V54+V56</f>
-        <v>246748.73310633522</v>
+        <v>247550.947837218</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
@@ -31852,7 +31904,7 @@
       <c r="Q60" s="43"/>
       <c r="V60" s="50">
         <f ca="1">V57+V58-V59</f>
-        <v>232543.73310633522</v>
+        <v>233345.947837218</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
@@ -31889,7 +31941,7 @@
       </c>
       <c r="V62" s="50">
         <f ca="1">V60/V61</f>
-        <v>466.54376765400184</v>
+        <v>468.15322097279955</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
@@ -31950,7 +32002,7 @@
       </c>
       <c r="C69" s="52">
         <f ca="1">+J4</f>
-        <v>466.54376765400184</v>
+        <v>468.15322097279955</v>
       </c>
       <c r="D69" s="53">
         <v>0.01</v>
@@ -31978,7 +32030,7 @@
       </c>
       <c r="N69" s="52">
         <f ca="1">+J4</f>
-        <v>466.54376765400184</v>
+        <v>468.15322097279955</v>
       </c>
       <c r="O69" s="53">
         <v>0.08</v>
@@ -32009,25 +32061,25 @@
       </c>
       <c r="D70" s="55">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>746.30147624721383</v>
+        <v>748.15676246086468</v>
       </c>
       <c r="E70" s="55">
-        <v>775.67366296696719</v>
+        <v>777.71494651584976</v>
       </c>
       <c r="F70" s="55">
-        <v>812.08985826657124</v>
+        <v>814.36174484646506</v>
       </c>
       <c r="G70" s="56">
-        <v>858.56892296596129</v>
+        <v>861.13513499940836</v>
       </c>
       <c r="H70" s="55">
-        <v>920.14229176503102</v>
+        <v>923.0984128858446</v>
       </c>
       <c r="I70" s="55">
-        <v>1005.8665471235878</v>
+        <v>1009.3655111458693</v>
       </c>
       <c r="J70" s="55">
-        <v>1133.8548539612468</v>
+        <v>1138.1642950596733</v>
       </c>
       <c r="M70" s="80"/>
       <c r="N70" s="54">
@@ -32035,25 +32087,25 @@
       </c>
       <c r="O70" s="55">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>766.3370289531091</v>
+        <v>768.31918891466137</v>
       </c>
       <c r="P70" s="55">
-        <v>784.97707052526027</v>
+        <v>787.07726725724785</v>
       </c>
       <c r="Q70" s="55">
-        <v>799.88910378298124</v>
+        <v>802.08372993131729</v>
       </c>
       <c r="R70" s="56">
-        <v>812.08985826657124</v>
+        <v>814.36174484646506</v>
       </c>
       <c r="S70" s="55">
-        <v>822.25715366956285</v>
+        <v>824.5934239424214</v>
       </c>
       <c r="T70" s="55">
-        <v>830.8602497797865</v>
+        <v>833.25099856207669</v>
       </c>
       <c r="U70" s="55">
-        <v>838.23433215997829</v>
+        <v>840.67177680749569</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
@@ -32062,50 +32114,50 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D71" s="55">
-        <v>618.33544761270321</v>
+        <v>620.04867922211736</v>
       </c>
       <c r="E71" s="55">
-        <v>633.6464493575354</v>
+        <v>635.47231810935557</v>
       </c>
       <c r="F71" s="55">
-        <v>651.8004483894772</v>
+        <v>653.75986911969062</v>
       </c>
       <c r="G71" s="56">
-        <v>673.74511047089868</v>
+        <v>675.86596962748763</v>
       </c>
       <c r="H71" s="55">
-        <v>700.90193424535505</v>
+        <v>703.22257569429564</v>
       </c>
       <c r="I71" s="55">
-        <v>735.50470329557515</v>
+        <v>738.07990398826166</v>
       </c>
       <c r="J71" s="55">
-        <v>781.27639025944109</v>
+        <v>784.18831562296486</v>
       </c>
       <c r="M71" s="80"/>
       <c r="N71" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O71" s="55">
-        <v>618.2623799254178</v>
+        <v>619.97507400400036</v>
       </c>
       <c r="P71" s="55">
-        <v>631.9260374478124</v>
+        <v>633.73924979187416</v>
       </c>
       <c r="Q71" s="55">
-        <v>642.85696346572809</v>
+        <v>644.75059042217333</v>
       </c>
       <c r="R71" s="56">
-        <v>651.8004483894772</v>
+        <v>653.75986911969062</v>
       </c>
       <c r="S71" s="55">
-        <v>659.25335249260161</v>
+        <v>661.26760136762164</v>
       </c>
       <c r="T71" s="55">
-        <v>665.55965596447595</v>
+        <v>667.62029788510199</v>
       </c>
       <c r="U71" s="55">
-        <v>670.96505894036841</v>
+        <v>673.06546632865638</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
@@ -32114,50 +32166,50 @@
         <v>0.08</v>
       </c>
       <c r="D72" s="56">
-        <v>526.58859266628644</v>
+        <v>528.196410832536</v>
       </c>
       <c r="E72" s="56">
-        <v>534.75071283239504</v>
+        <v>536.42686671259492</v>
       </c>
       <c r="F72" s="56">
-        <v>544.10567329341518</v>
+        <v>545.86014970367728</v>
       </c>
       <c r="G72" s="56">
-        <v>554.97879412977727</v>
+        <v>556.82430356333487</v>
       </c>
       <c r="H72" s="56">
-        <v>567.82552345408419</v>
+        <v>569.7785895521406</v>
       </c>
       <c r="I72" s="56">
-        <v>583.3037307623174</v>
+        <v>585.38638504647679</v>
       </c>
       <c r="J72" s="56">
-        <v>602.40022029844954</v>
+        <v>604.64275611091773</v>
       </c>
       <c r="M72" s="80"/>
       <c r="N72" s="54">
         <v>0.08</v>
       </c>
       <c r="O72" s="56">
-        <v>518.47617417913284</v>
+        <v>520.01607274876983</v>
       </c>
       <c r="P72" s="56">
-        <v>528.91782196643305</v>
+        <v>530.54514113780624</v>
       </c>
       <c r="Q72" s="56">
-        <v>537.27114019627322</v>
+        <v>538.96839584903535</v>
       </c>
       <c r="R72" s="56">
-        <v>544.10567329341518</v>
+        <v>545.86014970367728</v>
       </c>
       <c r="S72" s="56">
-        <v>549.80111754103348</v>
+        <v>551.60327791587883</v>
       </c>
       <c r="T72" s="56">
-        <v>554.62033959671055</v>
+        <v>556.46284794158805</v>
       </c>
       <c r="U72" s="56">
-        <v>558.75110135871932</v>
+        <v>560.62819367791019</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
@@ -32166,50 +32218,50 @@
         <v>0.09</v>
       </c>
       <c r="D73" s="55">
-        <v>457.51720314915906</v>
+        <v>459.04199060833474</v>
       </c>
       <c r="E73" s="55">
-        <v>461.79109476142764</v>
+        <v>463.35596975413722</v>
       </c>
       <c r="F73" s="55">
-        <v>466.54376765400184</v>
+        <v>468.15322097279955</v>
       </c>
       <c r="G73" s="56">
-        <v>471.8857098146442</v>
+        <v>473.54526858882735</v>
       </c>
       <c r="H73" s="55">
-        <v>477.96423856037217</v>
+        <v>479.68081170156262</v>
       </c>
       <c r="I73" s="55">
-        <v>484.98024114166333</v>
+        <v>486.76262181010696</v>
       </c>
       <c r="J73" s="55">
-        <v>493.2149597091867</v>
+        <v>495.07457901320316</v>
       </c>
       <c r="M73" s="80"/>
       <c r="N73" s="54">
         <v>0.09</v>
       </c>
       <c r="O73" s="55">
-        <v>446.38224401544807</v>
+        <v>447.80258964779074</v>
       </c>
       <c r="P73" s="55">
-        <v>454.59619809041436</v>
+        <v>456.09358759501652</v>
       </c>
       <c r="Q73" s="55">
-        <v>461.16736135038747</v>
+        <v>462.72638595279716</v>
       </c>
       <c r="R73" s="56">
-        <v>466.54376765400184</v>
+        <v>468.15322097279955</v>
       </c>
       <c r="S73" s="55">
-        <v>471.02410624034712</v>
+        <v>472.67558348946812</v>
       </c>
       <c r="T73" s="55">
-        <v>474.81516196725465</v>
+        <v>476.50219792664927</v>
       </c>
       <c r="U73" s="55">
-        <v>478.06463830460405</v>
+        <v>479.78215315851884</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
@@ -32218,50 +32270,50 @@
         <v>0.1</v>
       </c>
       <c r="D74" s="55">
-        <v>403.59298011398334</v>
+        <v>405.04930570159445</v>
       </c>
       <c r="E74" s="55">
-        <v>405.65844468381175</v>
+        <v>407.13620723044329</v>
       </c>
       <c r="F74" s="55">
-        <v>407.87618881307782</v>
+        <v>409.37696879157988</v>
       </c>
       <c r="G74" s="56">
-        <v>410.2766684136692</v>
+        <v>411.80236239146166</v>
       </c>
       <c r="H74" s="55">
-        <v>412.89904108658419</v>
+        <v>414.45195203839154</v>
       </c>
       <c r="I74" s="55">
-        <v>415.79451292543581</v>
+        <v>417.37747528168796</v>
       </c>
       <c r="J74" s="55">
-        <v>419.03135872170844</v>
+        <v>420.64791552044284</v>
       </c>
       <c r="M74" s="80"/>
       <c r="N74" s="54">
         <v>0.1</v>
       </c>
       <c r="O74" s="55">
-        <v>391.67295150908603</v>
+        <v>393.00556199237712</v>
       </c>
       <c r="P74" s="55">
-        <v>398.27427041071223</v>
+        <v>399.67539439205228</v>
       </c>
       <c r="Q74" s="55">
-        <v>403.55532553201334</v>
+        <v>405.01126031179246</v>
       </c>
       <c r="R74" s="56">
-        <v>407.87618881307782</v>
+        <v>409.37696879157988</v>
       </c>
       <c r="S74" s="55">
-        <v>411.47690821396498</v>
+        <v>413.01505919140271</v>
       </c>
       <c r="T74" s="55">
-        <v>414.52367078394633</v>
+        <v>416.09344337586822</v>
       </c>
       <c r="U74" s="55">
-        <v>417.13518155821612</v>
+        <v>418.73205839112438</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
@@ -32270,50 +32322,50 @@
         <v>0.11</v>
       </c>
       <c r="D75" s="55">
-        <v>360.29576200822993</v>
+        <v>361.69358713067248</v>
       </c>
       <c r="E75" s="55">
-        <v>361.07452436004939</v>
+        <v>362.48120386941554</v>
       </c>
       <c r="F75" s="55">
-        <v>361.85328671186898</v>
+        <v>363.26882060815865</v>
       </c>
       <c r="G75" s="56">
-        <v>362.63204906368844</v>
+        <v>364.05643734690159</v>
       </c>
       <c r="H75" s="55">
-        <v>363.41081141550796</v>
+        <v>364.84405408564464</v>
       </c>
       <c r="I75" s="55">
-        <v>364.18957376732749</v>
+        <v>365.63167082438775</v>
       </c>
       <c r="J75" s="55">
-        <v>364.96833611914701</v>
+        <v>366.41928756313081</v>
       </c>
       <c r="M75" s="80"/>
       <c r="N75" s="54">
         <v>0.11</v>
       </c>
       <c r="O75" s="55">
-        <v>348.61432673093736</v>
+        <v>349.87933604952656</v>
       </c>
       <c r="P75" s="55">
-        <v>354.00797709353913</v>
+        <v>355.3343112400803</v>
       </c>
       <c r="Q75" s="55">
-        <v>358.32289738362056</v>
+        <v>359.69829139252334</v>
       </c>
       <c r="R75" s="56">
-        <v>361.85328671186898</v>
+        <v>363.26882060815865</v>
       </c>
       <c r="S75" s="55">
-        <v>364.7952778187427</v>
+        <v>366.244261621188</v>
       </c>
       <c r="T75" s="55">
-        <v>367.28465490917426</v>
+        <v>368.76194247836668</v>
       </c>
       <c r="U75" s="55">
-        <v>369.41840670097281</v>
+        <v>370.91995464166268</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
@@ -32322,50 +32374,50 @@
         <v>0.12</v>
       </c>
       <c r="D76" s="55">
-        <v>324.74653368910424</v>
+        <v>326.0929491441853</v>
       </c>
       <c r="E76" s="55">
-        <v>324.76824188948444</v>
+        <v>326.11492550486525</v>
       </c>
       <c r="F76" s="55">
-        <v>324.72048384864803</v>
+        <v>326.06657751136936</v>
       </c>
       <c r="G76" s="56">
-        <v>324.59229121271864</v>
+        <v>325.93680131830121</v>
       </c>
       <c r="H76" s="55">
-        <v>324.37025821584768</v>
+        <v>325.71202555906575</v>
       </c>
       <c r="I76" s="55">
-        <v>324.03782479433931</v>
+        <v>325.37548560433908</v>
       </c>
       <c r="J76" s="55">
-        <v>323.57429086857428</v>
+        <v>324.90622566746674</v>
       </c>
       <c r="M76" s="81"/>
       <c r="N76" s="54">
         <v>0.12</v>
       </c>
       <c r="O76" s="55">
-        <v>313.76001347669234</v>
+        <v>314.97071300405042</v>
       </c>
       <c r="P76" s="55">
-        <v>318.22539029489644</v>
+        <v>319.4912503959211</v>
       </c>
       <c r="Q76" s="55">
-        <v>321.79769174945983</v>
+        <v>323.10768030941767</v>
       </c>
       <c r="R76" s="56">
-        <v>324.72048384864803</v>
+        <v>326.06657751136936</v>
       </c>
       <c r="S76" s="55">
-        <v>327.15614393130488</v>
+        <v>328.53232517966245</v>
       </c>
       <c r="T76" s="55">
-        <v>329.21708707816833</v>
+        <v>330.61872705283355</v>
       </c>
       <c r="U76" s="55">
-        <v>330.98360977547986</v>
+        <v>332.40707151555159</v>
       </c>
     </row>
   </sheetData>

--- a/MC.PA.xlsx
+++ b/MC.PA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE83794-D6EA-4BBC-9F12-D49996C5CB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C9C267-75C2-4A0D-95B7-38DAFD6EA82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{833B3248-1BC2-4BAF-AC24-6FD47873AD76}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="3" xr2:uid="{833B3248-1BC2-4BAF-AC24-6FD47873AD76}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="272">
   <si>
     <t>LVMH</t>
   </si>
@@ -955,6 +955,9 @@
   <si>
     <t>FY33</t>
   </si>
+  <si>
+    <t>Increased stake in Loro Piana Q425</t>
+  </si>
 </sst>
 </file>
 
@@ -1307,7 +1310,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1418,6 +1421,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1439,7 +1443,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1603,16 +1607,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>6526</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>164392</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25576</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>18872</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>129115</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>37922</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>10053</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1627,8 +1631,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11103151" y="164392"/>
-          <a:ext cx="12346" cy="20919723"/>
+          <a:off x="12341401" y="207255"/>
+          <a:ext cx="12346" cy="17938398"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1996,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A2E0A7-D3BF-4874-B6F1-44DA921D3AB0}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J8"/>
+    <sheetView topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2031,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="43">
-        <v>605.70000000000005</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2042,10 +2046,10 @@
         <v>2</v>
       </c>
       <c r="I5" s="43">
-        <v>498.43926599999998</v>
-      </c>
-      <c r="J5" s="82" t="s">
-        <v>224</v>
+        <v>497.68693999999999</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2054,7 +2058,7 @@
       </c>
       <c r="I6" s="61">
         <f>I5*I4</f>
-        <v>301904.66341620003</v>
+        <v>273230.13006</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2075,10 +2079,10 @@
         <v>4</v>
       </c>
       <c r="I7" s="61">
-        <v>8176</v>
-      </c>
-      <c r="J7" s="82" t="s">
-        <v>224</v>
+        <v>8794</v>
+      </c>
+      <c r="J7" s="83" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2096,11 +2100,11 @@
         <v>5</v>
       </c>
       <c r="I8" s="61">
-        <f>12454+9927</f>
-        <v>22381</v>
-      </c>
-      <c r="J8" s="82" t="s">
-        <v>224</v>
+        <f>12418+7925</f>
+        <v>20343</v>
+      </c>
+      <c r="J8" s="83" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2122,7 +2126,7 @@
       </c>
       <c r="I9" s="61">
         <f>I6+I8-I7</f>
-        <v>316109.66341620003</v>
+        <v>284779.13006</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2214,6 +2218,9 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="58"/>
+      <c r="B17" s="84" t="s">
+        <v>271</v>
+      </c>
       <c r="H17" s="4" t="s">
         <v>254</v>
       </c>
@@ -2314,11 +2321,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8159692D-F6A3-4F44-AE01-03788CB191C2}">
   <dimension ref="A1:AP488"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3544,19 +3551,19 @@
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="43"/>
-      <c r="G28" s="83">
+      <c r="G28" s="76">
         <f>+G15/C15-1</f>
         <v>-1.85077800328598E-2</v>
       </c>
-      <c r="H28" s="83">
+      <c r="H28" s="76">
         <f t="shared" ref="H28:J28" si="5">+H15/D15-1</f>
         <v>-7.0676261735690749E-2</v>
       </c>
-      <c r="I28" s="83">
+      <c r="I28" s="76">
         <f t="shared" si="5"/>
         <v>-4.1675403648563591E-2</v>
       </c>
-      <c r="J28" s="83" t="e">
+      <c r="J28" s="76" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -21828,10 +21835,10 @@
   <dimension ref="A1:Z175"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="Q122" sqref="Q122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21950,44 +21957,43 @@
         <v>1254</v>
       </c>
       <c r="Q3" s="21">
-        <f>+G3</f>
-        <v>1245</v>
+        <v>1255</v>
       </c>
       <c r="R3" s="21">
         <f>+Q3*(1+4%)</f>
-        <v>1294.8</v>
+        <v>1305.2</v>
       </c>
       <c r="S3" s="21">
         <f t="shared" ref="S3:Z3" si="0">+R3*(1+4%)</f>
-        <v>1346.5920000000001</v>
+        <v>1357.4080000000001</v>
       </c>
       <c r="T3" s="21">
         <f t="shared" si="0"/>
-        <v>1400.4556800000003</v>
+        <v>1411.7043200000003</v>
       </c>
       <c r="U3" s="21">
         <f t="shared" si="0"/>
-        <v>1456.4739072000002</v>
+        <v>1468.1724928000003</v>
       </c>
       <c r="V3" s="21">
         <f t="shared" si="0"/>
-        <v>1514.7328634880002</v>
+        <v>1526.8993925120003</v>
       </c>
       <c r="W3" s="21">
         <f t="shared" si="0"/>
-        <v>1575.3221780275203</v>
+        <v>1587.9753682124804</v>
       </c>
       <c r="X3" s="21">
         <f t="shared" si="0"/>
-        <v>1638.3350651486212</v>
+        <v>1651.4943829409797</v>
       </c>
       <c r="Y3" s="21">
         <f t="shared" si="0"/>
-        <v>1703.8684677545662</v>
+        <v>1717.5541582586188</v>
       </c>
       <c r="Z3" s="21">
         <f t="shared" si="0"/>
-        <v>1772.0232064647489</v>
+        <v>1786.2563245889637</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -22019,44 +22025,43 @@
         <v>553</v>
       </c>
       <c r="Q4" s="21">
-        <f t="shared" ref="Q4:Q8" si="1">+G4</f>
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="R4" s="21">
         <f>+Q4*(1+2%)</f>
-        <v>553.86</v>
+        <v>549.78</v>
       </c>
       <c r="S4" s="21">
-        <f t="shared" ref="S4:W4" si="2">+R4*(1+2%)</f>
-        <v>564.93720000000008</v>
+        <f t="shared" ref="S4:W4" si="1">+R4*(1+2%)</f>
+        <v>560.77559999999994</v>
       </c>
       <c r="T4" s="21">
+        <f t="shared" si="1"/>
+        <v>571.99111199999993</v>
+      </c>
+      <c r="U4" s="21">
+        <f t="shared" si="1"/>
+        <v>583.43093423999994</v>
+      </c>
+      <c r="V4" s="21">
+        <f t="shared" si="1"/>
+        <v>595.09955292479992</v>
+      </c>
+      <c r="W4" s="21">
+        <f t="shared" si="1"/>
+        <v>607.00154398329596</v>
+      </c>
+      <c r="X4" s="21">
+        <f t="shared" ref="X4:Z4" si="2">+W4*(1+2%)</f>
+        <v>619.14157486296187</v>
+      </c>
+      <c r="Y4" s="21">
         <f t="shared" si="2"/>
-        <v>576.23594400000013</v>
-      </c>
-      <c r="U4" s="21">
+        <v>631.52440636022118</v>
+      </c>
+      <c r="Z4" s="21">
         <f t="shared" si="2"/>
-        <v>587.76066288000015</v>
-      </c>
-      <c r="V4" s="21">
-        <f t="shared" si="2"/>
-        <v>599.51587613760012</v>
-      </c>
-      <c r="W4" s="21">
-        <f t="shared" si="2"/>
-        <v>611.5061936603521</v>
-      </c>
-      <c r="X4" s="21">
-        <f t="shared" ref="X4:Z4" si="3">+W4*(1+2%)</f>
-        <v>623.73631753355914</v>
-      </c>
-      <c r="Y4" s="21">
-        <f t="shared" si="3"/>
-        <v>636.21104388423032</v>
-      </c>
-      <c r="Z4" s="21">
-        <f t="shared" si="3"/>
-        <v>648.93526476191494</v>
+        <v>644.15489448742562</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -22088,44 +22093,43 @@
         <v>2019</v>
       </c>
       <c r="Q5" s="21">
-        <f t="shared" si="1"/>
-        <v>1991</v>
+        <v>1905</v>
       </c>
       <c r="R5" s="21">
         <f>+Q5*(1+3%)</f>
-        <v>2050.73</v>
+        <v>1962.15</v>
       </c>
       <c r="S5" s="21">
-        <f t="shared" ref="S5:W5" si="4">+R5*(1+3%)</f>
-        <v>2112.2519000000002</v>
+        <f t="shared" ref="S5:W5" si="3">+R5*(1+3%)</f>
+        <v>2021.0145000000002</v>
       </c>
       <c r="T5" s="21">
+        <f t="shared" si="3"/>
+        <v>2081.6449350000003</v>
+      </c>
+      <c r="U5" s="21">
+        <f t="shared" si="3"/>
+        <v>2144.0942830500003</v>
+      </c>
+      <c r="V5" s="21">
+        <f t="shared" si="3"/>
+        <v>2208.4171115415002</v>
+      </c>
+      <c r="W5" s="21">
+        <f t="shared" si="3"/>
+        <v>2274.6696248877452</v>
+      </c>
+      <c r="X5" s="21">
+        <f t="shared" ref="X5:Z5" si="4">+W5*(1+3%)</f>
+        <v>2342.9097136343776</v>
+      </c>
+      <c r="Y5" s="21">
         <f t="shared" si="4"/>
-        <v>2175.6194570000002</v>
-      </c>
-      <c r="U5" s="21">
+        <v>2413.1970050434088</v>
+      </c>
+      <c r="Z5" s="21">
         <f t="shared" si="4"/>
-        <v>2240.8880407100005</v>
-      </c>
-      <c r="V5" s="21">
-        <f t="shared" si="4"/>
-        <v>2308.1146819313008</v>
-      </c>
-      <c r="W5" s="21">
-        <f t="shared" si="4"/>
-        <v>2377.3581223892397</v>
-      </c>
-      <c r="X5" s="21">
-        <f t="shared" ref="X5:Z5" si="5">+W5*(1+3%)</f>
-        <v>2448.6788660609168</v>
-      </c>
-      <c r="Y5" s="21">
-        <f t="shared" si="5"/>
-        <v>2522.1392320427444</v>
-      </c>
-      <c r="Z5" s="21">
-        <f t="shared" si="5"/>
-        <v>2597.8034090040269</v>
+        <v>2485.5929151947112</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -22157,44 +22161,43 @@
         <v>510</v>
       </c>
       <c r="Q6" s="21">
-        <f t="shared" si="1"/>
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="R6" s="21">
         <f>+Q6*(1+1%)</f>
-        <v>513.08000000000004</v>
+        <v>525.20000000000005</v>
       </c>
       <c r="S6" s="21">
-        <f t="shared" ref="S6:W6" si="6">+R6*(1+1%)</f>
-        <v>518.21080000000006</v>
+        <f t="shared" ref="S6:W6" si="5">+R6*(1+1%)</f>
+        <v>530.452</v>
       </c>
       <c r="T6" s="21">
+        <f t="shared" si="5"/>
+        <v>535.75652000000002</v>
+      </c>
+      <c r="U6" s="21">
+        <f t="shared" si="5"/>
+        <v>541.11408519999998</v>
+      </c>
+      <c r="V6" s="21">
+        <f t="shared" si="5"/>
+        <v>546.52522605199999</v>
+      </c>
+      <c r="W6" s="21">
+        <f t="shared" si="5"/>
+        <v>551.99047831252005</v>
+      </c>
+      <c r="X6" s="21">
+        <f t="shared" ref="X6:Z6" si="6">+W6*(1+1%)</f>
+        <v>557.51038309564524</v>
+      </c>
+      <c r="Y6" s="21">
         <f t="shared" si="6"/>
-        <v>523.39290800000003</v>
-      </c>
-      <c r="U6" s="21">
+        <v>563.08548692660167</v>
+      </c>
+      <c r="Z6" s="21">
         <f t="shared" si="6"/>
-        <v>528.62683708000009</v>
-      </c>
-      <c r="V6" s="21">
-        <f t="shared" si="6"/>
-        <v>533.91310545080012</v>
-      </c>
-      <c r="W6" s="21">
-        <f t="shared" si="6"/>
-        <v>539.25223650530813</v>
-      </c>
-      <c r="X6" s="21">
-        <f t="shared" ref="X6:Z6" si="7">+W6*(1+1%)</f>
-        <v>544.64475887036122</v>
-      </c>
-      <c r="Y6" s="21">
-        <f t="shared" si="7"/>
-        <v>550.09120645906478</v>
-      </c>
-      <c r="Z6" s="21">
-        <f t="shared" si="7"/>
-        <v>555.59211852365547</v>
+        <v>568.71634179586772</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -22226,44 +22229,43 @@
         <v>1193</v>
       </c>
       <c r="Q7" s="21">
-        <f t="shared" si="1"/>
-        <v>1222</v>
+        <v>1232</v>
       </c>
       <c r="R7" s="21">
         <f>+Q7*(1+2%)</f>
-        <v>1246.44</v>
+        <v>1256.6400000000001</v>
       </c>
       <c r="S7" s="21">
-        <f t="shared" ref="S7:W7" si="8">+R7*(1+2%)</f>
-        <v>1271.3688</v>
+        <f t="shared" ref="S7:W7" si="7">+R7*(1+2%)</f>
+        <v>1281.7728000000002</v>
       </c>
       <c r="T7" s="21">
+        <f t="shared" si="7"/>
+        <v>1307.4082560000002</v>
+      </c>
+      <c r="U7" s="21">
+        <f t="shared" si="7"/>
+        <v>1333.5564211200001</v>
+      </c>
+      <c r="V7" s="21">
+        <f t="shared" si="7"/>
+        <v>1360.2275495424001</v>
+      </c>
+      <c r="W7" s="21">
+        <f t="shared" si="7"/>
+        <v>1387.4321005332481</v>
+      </c>
+      <c r="X7" s="21">
+        <f t="shared" ref="X7:Z7" si="8">+W7*(1+2%)</f>
+        <v>1415.1807425439131</v>
+      </c>
+      <c r="Y7" s="21">
         <f t="shared" si="8"/>
-        <v>1296.7961760000001</v>
-      </c>
-      <c r="U7" s="21">
+        <v>1443.4843573947915</v>
+      </c>
+      <c r="Z7" s="21">
         <f t="shared" si="8"/>
-        <v>1322.73209952</v>
-      </c>
-      <c r="V7" s="21">
-        <f t="shared" si="8"/>
-        <v>1349.1867415104</v>
-      </c>
-      <c r="W7" s="21">
-        <f t="shared" si="8"/>
-        <v>1376.170476340608</v>
-      </c>
-      <c r="X7" s="21">
-        <f t="shared" ref="X7:Z7" si="9">+W7*(1+2%)</f>
-        <v>1403.6938858674202</v>
-      </c>
-      <c r="Y7" s="21">
-        <f t="shared" si="9"/>
-        <v>1431.7677635847688</v>
-      </c>
-      <c r="Z7" s="21">
-        <f t="shared" si="9"/>
-        <v>1460.4031188564641</v>
+        <v>1472.3540445426872</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -22295,44 +22297,43 @@
         <v>778</v>
       </c>
       <c r="Q8" s="21">
-        <f t="shared" si="1"/>
-        <v>804</v>
+        <v>832</v>
       </c>
       <c r="R8" s="21">
         <f>+Q8*(1+2%)</f>
-        <v>820.08</v>
+        <v>848.64</v>
       </c>
       <c r="S8" s="21">
-        <f t="shared" ref="S8:W8" si="10">+R8*(1+2%)</f>
-        <v>836.48160000000007</v>
+        <f t="shared" ref="S8:W8" si="9">+R8*(1+2%)</f>
+        <v>865.61279999999999</v>
       </c>
       <c r="T8" s="21">
+        <f t="shared" si="9"/>
+        <v>882.92505600000004</v>
+      </c>
+      <c r="U8" s="21">
+        <f t="shared" si="9"/>
+        <v>900.58355712000002</v>
+      </c>
+      <c r="V8" s="21">
+        <f t="shared" si="9"/>
+        <v>918.59522826240004</v>
+      </c>
+      <c r="W8" s="21">
+        <f t="shared" si="9"/>
+        <v>936.96713282764802</v>
+      </c>
+      <c r="X8" s="21">
+        <f t="shared" ref="X8:Z8" si="10">+W8*(1+2%)</f>
+        <v>955.70647548420095</v>
+      </c>
+      <c r="Y8" s="21">
         <f t="shared" si="10"/>
-        <v>853.21123200000011</v>
-      </c>
-      <c r="U8" s="21">
+        <v>974.82060499388501</v>
+      </c>
+      <c r="Z8" s="21">
         <f t="shared" si="10"/>
-        <v>870.27545664000013</v>
-      </c>
-      <c r="V8" s="21">
-        <f t="shared" si="10"/>
-        <v>887.68096577280016</v>
-      </c>
-      <c r="W8" s="21">
-        <f t="shared" si="10"/>
-        <v>905.4345850882562</v>
-      </c>
-      <c r="X8" s="21">
-        <f t="shared" ref="X8:Z8" si="11">+W8*(1+2%)</f>
-        <v>923.54327679002131</v>
-      </c>
-      <c r="Y8" s="21">
-        <f t="shared" si="11"/>
-        <v>942.01414232582181</v>
-      </c>
-      <c r="Z8" s="21">
-        <f t="shared" si="11"/>
-        <v>960.85442517233821</v>
+        <v>994.31701709376273</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -22368,39 +22369,39 @@
       </c>
       <c r="R9" s="64">
         <f>+SUM(R3:R8)</f>
-        <v>6478.99</v>
+        <v>6447.6100000000006</v>
       </c>
       <c r="S9" s="64">
-        <f t="shared" ref="S9:W9" si="12">+SUM(S3:S8)</f>
-        <v>6649.8423000000003</v>
+        <f t="shared" ref="S9:W9" si="11">+SUM(S3:S8)</f>
+        <v>6617.0357000000013</v>
       </c>
       <c r="T9" s="64">
-        <f t="shared" si="12"/>
-        <v>6825.7113970000009</v>
+        <f t="shared" si="11"/>
+        <v>6791.4301990000004</v>
       </c>
       <c r="U9" s="64">
-        <f t="shared" si="12"/>
-        <v>7006.7570040300006</v>
+        <f t="shared" si="11"/>
+        <v>6970.9517735299996</v>
       </c>
       <c r="V9" s="64">
-        <f t="shared" si="12"/>
-        <v>7193.1442342909004</v>
+        <f t="shared" si="11"/>
+        <v>7155.7640608351003</v>
       </c>
       <c r="W9" s="64">
-        <f t="shared" si="12"/>
-        <v>7385.0437920112845</v>
+        <f t="shared" si="11"/>
+        <v>7346.0362487569373</v>
       </c>
       <c r="X9" s="64">
-        <f t="shared" ref="X9" si="13">+SUM(X3:X8)</f>
-        <v>7582.6321702709001</v>
+        <f t="shared" ref="X9" si="12">+SUM(X3:X8)</f>
+        <v>7541.9432725620782</v>
       </c>
       <c r="Y9" s="64">
-        <f t="shared" ref="Y9" si="14">+SUM(Y3:Y8)</f>
-        <v>7786.0918560511955</v>
+        <f t="shared" ref="Y9" si="13">+SUM(Y3:Y8)</f>
+        <v>7743.6660189775266</v>
       </c>
       <c r="Z9" s="64">
-        <f t="shared" ref="Z9" si="15">+SUM(Z3:Z8)</f>
-        <v>7995.6115427831483</v>
+        <f t="shared" ref="Z9" si="14">+SUM(Z3:Z8)</f>
+        <v>7951.3915377034182</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -22411,7 +22412,7 @@
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
       <c r="F10" s="65">
-        <f t="shared" ref="F10" si="16">+F19/F9</f>
+        <f t="shared" ref="F10" si="15">+F19/F9</f>
         <v>6.8187727921357224</v>
       </c>
       <c r="G10" s="65">
@@ -22421,36 +22422,36 @@
       <c r="H10" s="64"/>
       <c r="I10" s="64"/>
       <c r="J10" s="65" t="e">
-        <f t="shared" ref="J10:Q10" si="17">+J19/J9</f>
+        <f t="shared" ref="J10:Q10" si="16">+J19/J9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K10" s="65" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L10" s="65" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M10" s="65" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N10" s="65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>13.980225988700566</v>
       </c>
       <c r="O10" s="65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>14.130391996063638</v>
       </c>
       <c r="P10" s="65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>13.426827334707468</v>
       </c>
       <c r="Q10" s="65">
-        <f t="shared" si="17"/>
-        <v>12.804041541144759</v>
+        <f t="shared" si="16"/>
+        <v>12.812272078642778</v>
       </c>
       <c r="R10" s="4">
         <v>13</v>
@@ -22533,14 +22534,14 @@
         <v>3181</v>
       </c>
       <c r="D13" s="21">
-        <f t="shared" ref="D13:D18" si="18">O13-C13</f>
+        <f t="shared" ref="D13:D18" si="17">O13-C13</f>
         <v>3421</v>
       </c>
       <c r="E13" s="21">
         <v>2807</v>
       </c>
       <c r="F13" s="21">
-        <f t="shared" ref="F13:F18" si="19">+P13-SUM(E13)</f>
+        <f t="shared" ref="F13:F18" si="18">+P13-SUM(E13)</f>
         <v>3055</v>
       </c>
       <c r="G13" s="21">
@@ -22570,8 +22571,7 @@
         <v>5862</v>
       </c>
       <c r="Q13" s="21">
-        <f>+G13+F13*(1-8%)</f>
-        <v>5398.6</v>
+        <v>5358</v>
       </c>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
@@ -22587,14 +22587,14 @@
         <v>21162</v>
       </c>
       <c r="D14" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>21007</v>
       </c>
       <c r="E14" s="21">
         <v>20771</v>
       </c>
       <c r="F14" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>20289</v>
       </c>
       <c r="G14" s="21">
@@ -22624,8 +22624,7 @@
         <v>41060</v>
       </c>
       <c r="Q14" s="21">
-        <f>+G14+F14*(1-8%)</f>
-        <v>37780.880000000005</v>
+        <v>37770</v>
       </c>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
@@ -22641,14 +22640,14 @@
         <v>4028</v>
       </c>
       <c r="D15" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>4243</v>
       </c>
       <c r="E15" s="21">
         <v>4136</v>
       </c>
       <c r="F15" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>4282</v>
       </c>
       <c r="G15" s="21">
@@ -22678,8 +22677,7 @@
         <v>8418</v>
       </c>
       <c r="Q15" s="21">
-        <f>+G15+F15*(1-1%)</f>
-        <v>8321.18</v>
+        <v>8174</v>
       </c>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
@@ -22695,14 +22693,14 @@
         <v>5427</v>
       </c>
       <c r="D16" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>5475</v>
       </c>
       <c r="E16" s="21">
         <v>5150</v>
       </c>
       <c r="F16" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>5427</v>
       </c>
       <c r="G16" s="21">
@@ -22732,8 +22730,7 @@
         <v>10577</v>
       </c>
       <c r="Q16" s="21">
-        <f t="shared" ref="Q16:Q17" si="20">+G16+F16*(1-1%)</f>
-        <v>10462.73</v>
+        <v>10486</v>
       </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
@@ -22749,14 +22746,14 @@
         <v>8355</v>
       </c>
       <c r="D17" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>9530</v>
       </c>
       <c r="E17" s="21">
         <v>8632</v>
       </c>
       <c r="F17" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>9630</v>
       </c>
       <c r="G17" s="21">
@@ -22786,8 +22783,7 @@
         <v>18262</v>
       </c>
       <c r="Q17" s="21">
-        <f t="shared" si="20"/>
-        <v>18153.7</v>
+        <v>18348</v>
       </c>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
@@ -22803,14 +22799,14 @@
         <v>87</v>
       </c>
       <c r="D18" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>237</v>
       </c>
       <c r="E18" s="21">
         <v>181</v>
       </c>
       <c r="F18" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>323</v>
       </c>
       <c r="G18" s="21">
@@ -22840,8 +22836,7 @@
         <v>504</v>
       </c>
       <c r="Q18" s="21">
-        <f>+G18+F18</f>
-        <v>638</v>
+        <v>671</v>
       </c>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
@@ -22858,19 +22853,19 @@
         <v>42240</v>
       </c>
       <c r="D19" s="64">
-        <f t="shared" ref="D19:G19" si="21">SUM(D13:D18)</f>
+        <f t="shared" ref="D19:G19" si="19">SUM(D13:D18)</f>
         <v>43913</v>
       </c>
       <c r="E19" s="64">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>41677</v>
       </c>
       <c r="F19" s="64">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>43006</v>
       </c>
       <c r="G19" s="64">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>39810</v>
       </c>
       <c r="H19" s="64"/>
@@ -22898,43 +22893,43 @@
       </c>
       <c r="Q19" s="64">
         <f>+SUM(Q13:Q18)</f>
-        <v>80755.09</v>
+        <v>80807</v>
       </c>
       <c r="R19" s="64">
         <f>+R9*R10</f>
-        <v>84226.87</v>
+        <v>83818.930000000008</v>
       </c>
       <c r="S19" s="64">
-        <f t="shared" ref="S19:Z19" si="22">+S9*S10</f>
-        <v>89107.88682</v>
+        <f t="shared" ref="S19:Z19" si="20">+S9*S10</f>
+        <v>88668.278380000018</v>
       </c>
       <c r="T19" s="64">
-        <f t="shared" si="22"/>
-        <v>94194.817278600021</v>
+        <f t="shared" si="20"/>
+        <v>93721.736746200011</v>
       </c>
       <c r="U19" s="64">
-        <f t="shared" si="22"/>
-        <v>99495.949457226001</v>
+        <f t="shared" si="20"/>
+        <v>98987.515184125994</v>
       </c>
       <c r="V19" s="64">
-        <f t="shared" si="22"/>
-        <v>105019.90582064714</v>
+        <f t="shared" si="20"/>
+        <v>104474.15528819246</v>
       </c>
       <c r="W19" s="64">
-        <f t="shared" si="22"/>
-        <v>110775.65688016926</v>
+        <f t="shared" si="20"/>
+        <v>110190.54373135406</v>
       </c>
       <c r="X19" s="64">
-        <f t="shared" si="22"/>
-        <v>113739.48255406351</v>
+        <f t="shared" si="20"/>
+        <v>113129.14908843118</v>
       </c>
       <c r="Y19" s="64">
-        <f t="shared" si="22"/>
-        <v>116791.37784076793</v>
+        <f t="shared" si="20"/>
+        <v>116154.9902846629</v>
       </c>
       <c r="Z19" s="64">
-        <f t="shared" si="22"/>
-        <v>119934.17314174722</v>
+        <f t="shared" si="20"/>
+        <v>119270.87306555128</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.2">
@@ -22982,8 +22977,7 @@
         <v>27918</v>
       </c>
       <c r="Q20" s="21">
-        <f>+Q19-Q21</f>
-        <v>26649.179699999993</v>
+        <v>27279</v>
       </c>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
@@ -22996,45 +22990,45 @@
         <v>31</v>
       </c>
       <c r="C21" s="21">
-        <f t="shared" ref="C21:D21" si="23">C19-C20</f>
+        <f t="shared" ref="C21:D21" si="21">C19-C20</f>
         <v>29317</v>
       </c>
       <c r="D21" s="21">
+        <f t="shared" si="21"/>
+        <v>29960</v>
+      </c>
+      <c r="E21" s="21">
+        <f t="shared" ref="E21" si="22">E19-E20</f>
+        <v>28693</v>
+      </c>
+      <c r="F21" s="21">
+        <f t="shared" ref="F21:G21" si="23">F19-F20</f>
+        <v>28072</v>
+      </c>
+      <c r="G21" s="21">
         <f t="shared" si="23"/>
-        <v>29960</v>
-      </c>
-      <c r="E21" s="21">
-        <f t="shared" ref="E21" si="24">E19-E20</f>
-        <v>28693</v>
-      </c>
-      <c r="F21" s="21">
-        <f t="shared" ref="F21:G21" si="25">F19-F20</f>
-        <v>28072</v>
-      </c>
-      <c r="G21" s="21">
-        <f t="shared" si="25"/>
         <v>26610</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21">
-        <f t="shared" ref="J21:N21" si="26">J19-J20</f>
+        <f t="shared" ref="J21:N21" si="24">J19-J20</f>
         <v>31201</v>
       </c>
       <c r="K21" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>35547</v>
       </c>
       <c r="L21" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>28780</v>
       </c>
       <c r="M21" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>43860</v>
       </c>
       <c r="N21" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>54196</v>
       </c>
       <c r="O21" s="21">
@@ -23046,8 +23040,8 @@
         <v>56765</v>
       </c>
       <c r="Q21" s="21">
-        <f>+Q19*Q45</f>
-        <v>54105.910300000003</v>
+        <f>Q19-Q20</f>
+        <v>53528</v>
       </c>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
@@ -23099,7 +23093,9 @@
       <c r="P22" s="21">
         <v>31002</v>
       </c>
-      <c r="Q22" s="21"/>
+      <c r="Q22" s="21">
+        <v>29914</v>
+      </c>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
       <c r="T22" s="21"/>
@@ -23150,7 +23146,9 @@
       <c r="P23" s="21">
         <v>6220</v>
       </c>
-      <c r="Q23" s="21"/>
+      <c r="Q23" s="21">
+        <v>5934</v>
+      </c>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
       <c r="T23" s="21"/>
@@ -23201,7 +23199,9 @@
       <c r="P24" s="21">
         <v>28</v>
       </c>
-      <c r="Q24" s="21"/>
+      <c r="Q24" s="21">
+        <v>75</v>
+      </c>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
@@ -23252,7 +23252,9 @@
       <c r="P25" s="21">
         <v>-664</v>
       </c>
-      <c r="Q25" s="21"/>
+      <c r="Q25" s="21">
+        <v>-656</v>
+      </c>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
@@ -23264,45 +23266,45 @@
         <v>35</v>
       </c>
       <c r="C26" s="21">
-        <f t="shared" ref="C26:G26" si="27">C21-C22-C23+C24+C25</f>
+        <f t="shared" ref="C26:G26" si="25">C21-C22-C23+C24+C25</f>
         <v>11564</v>
       </c>
       <c r="D26" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>10996</v>
       </c>
       <c r="E26" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>10624</v>
       </c>
       <c r="F26" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>8283</v>
       </c>
       <c r="G26" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>8998</v>
       </c>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21">
-        <f t="shared" ref="J26:N26" si="28">J21-J22-J23+J24+J25</f>
+        <f t="shared" ref="J26:N26" si="26">J21-J22-J23+J24+J25</f>
         <v>9877</v>
       </c>
       <c r="K26" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>11273</v>
       </c>
       <c r="L26" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>7972</v>
       </c>
       <c r="M26" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>17155</v>
       </c>
       <c r="N26" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>21001</v>
       </c>
       <c r="O26" s="21">
@@ -23314,8 +23316,8 @@
         <v>18907</v>
       </c>
       <c r="Q26" s="21">
-        <f>+Q19*Q46</f>
-        <v>18573.670699999999</v>
+        <f>Q21-Q22-Q23+Q24+Q25</f>
+        <v>17099</v>
       </c>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
@@ -23367,7 +23369,9 @@
       <c r="P27" s="21">
         <v>442</v>
       </c>
-      <c r="Q27" s="21"/>
+      <c r="Q27" s="21">
+        <v>348</v>
+      </c>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
@@ -23418,7 +23422,9 @@
       <c r="P28" s="21">
         <v>510</v>
       </c>
-      <c r="Q28" s="21"/>
+      <c r="Q28" s="21">
+        <v>553</v>
+      </c>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
@@ -23469,7 +23475,9 @@
       <c r="P29" s="21">
         <v>160</v>
       </c>
-      <c r="Q29" s="21"/>
+      <c r="Q29" s="21">
+        <v>500</v>
+      </c>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
@@ -23481,41 +23489,41 @@
         <v>40</v>
       </c>
       <c r="C30" s="21">
-        <f t="shared" ref="C30:G30" si="29">C26-C27-C28+C29</f>
+        <f t="shared" ref="C30:G30" si="27">C26-C27-C28+C29</f>
         <v>12031</v>
       </c>
       <c r="D30" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>9594</v>
       </c>
       <c r="E30" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>10369</v>
       </c>
       <c r="F30" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>7746</v>
       </c>
       <c r="G30" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>8563</v>
       </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21">
-        <f t="shared" ref="J30:M30" si="30">J26-J27-J28+J29</f>
+        <f t="shared" ref="J30:M30" si="28">J26-J27-J28+J29</f>
         <v>9489</v>
       </c>
       <c r="K30" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>10714</v>
       </c>
       <c r="L30" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>7364</v>
       </c>
       <c r="M30" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>17208</v>
       </c>
       <c r="N30" s="21">
@@ -23530,7 +23538,10 @@
         <f>P26-P27-P28+P29</f>
         <v>18115</v>
       </c>
-      <c r="Q30" s="21"/>
+      <c r="Q30" s="21">
+        <f>Q26-Q27-Q28+Q29</f>
+        <v>16698</v>
+      </c>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
@@ -23581,7 +23592,9 @@
       <c r="P31" s="21">
         <v>5157</v>
       </c>
-      <c r="Q31" s="21"/>
+      <c r="Q31" s="21">
+        <v>5476</v>
+      </c>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
@@ -23593,45 +23606,45 @@
         <v>42</v>
       </c>
       <c r="C32" s="21">
-        <f t="shared" ref="C32:G32" si="31">C30-C31</f>
+        <f t="shared" ref="C32:G32" si="29">C30-C31</f>
         <v>8902</v>
       </c>
       <c r="D32" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>7050</v>
       </c>
       <c r="E32" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>7564</v>
       </c>
       <c r="F32" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>5394</v>
       </c>
       <c r="G32" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>5915</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21">
-        <f t="shared" ref="J32:N32" si="32">J30-J31</f>
+        <f t="shared" ref="J32:N32" si="30">J30-J31</f>
         <v>6990</v>
       </c>
       <c r="K32" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>7782</v>
       </c>
       <c r="L32" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>4955</v>
       </c>
       <c r="M32" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>12698</v>
       </c>
       <c r="N32" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>14751</v>
       </c>
       <c r="O32" s="21">
@@ -23643,8 +23656,8 @@
         <v>12958</v>
       </c>
       <c r="Q32" s="21">
-        <f>+Q19*Q47</f>
-        <v>11305.712600000001</v>
+        <f>Q30-Q31</f>
+        <v>11222</v>
       </c>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
@@ -23696,7 +23709,9 @@
       <c r="P33" s="21">
         <v>408</v>
       </c>
-      <c r="Q33" s="21"/>
+      <c r="Q33" s="21">
+        <v>344</v>
+      </c>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
@@ -23708,45 +23723,45 @@
         <v>44</v>
       </c>
       <c r="C34" s="61">
-        <f t="shared" ref="C34:G34" si="33">C32-C33</f>
+        <f t="shared" ref="C34:G34" si="31">C32-C33</f>
         <v>8481</v>
       </c>
       <c r="D34" s="61">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>6693</v>
       </c>
       <c r="E34" s="61">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>7267</v>
       </c>
       <c r="F34" s="61">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>5283</v>
       </c>
       <c r="G34" s="61">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>5698</v>
       </c>
       <c r="H34" s="61"/>
       <c r="I34" s="61"/>
       <c r="J34" s="61">
-        <f t="shared" ref="J34:N34" si="34">J32-J33</f>
+        <f t="shared" ref="J34:N34" si="32">J32-J33</f>
         <v>6354</v>
       </c>
       <c r="K34" s="61">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>7171</v>
       </c>
       <c r="L34" s="61">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>4702</v>
       </c>
       <c r="M34" s="61">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>12036</v>
       </c>
       <c r="N34" s="61">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>14084</v>
       </c>
       <c r="O34" s="61">
@@ -23757,7 +23772,10 @@
         <f>P32-P33</f>
         <v>12550</v>
       </c>
-      <c r="Q34" s="43"/>
+      <c r="Q34" s="61">
+        <f>Q32-Q33</f>
+        <v>10878</v>
+      </c>
       <c r="R34" s="43"/>
       <c r="S34" s="43"/>
       <c r="T34" s="43"/>
@@ -23789,11 +23807,11 @@
         <v>45</v>
       </c>
       <c r="C36" s="43">
-        <f t="shared" ref="C36:D36" si="35">C34/C37</f>
+        <f t="shared" ref="C36:D36" si="33">C34/C37</f>
         <v>16.946498427814134</v>
       </c>
       <c r="D36" s="43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>13.384485251035171</v>
       </c>
       <c r="E36" s="43">
@@ -23811,23 +23829,23 @@
       <c r="H36" s="43"/>
       <c r="I36" s="43"/>
       <c r="J36" s="43">
-        <f t="shared" ref="J36:L36" si="36">J34/J37</f>
+        <f t="shared" ref="J36:L36" si="34">J34/J37</f>
         <v>12.636587082877103</v>
       </c>
       <c r="K36" s="43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>14.250261065835947</v>
       </c>
       <c r="L36" s="43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>9.335305741944449</v>
       </c>
       <c r="M36" s="43">
-        <f t="shared" ref="M36:N36" si="37">M34/M37</f>
+        <f t="shared" ref="M36:N36" si="35">M34/M37</f>
         <v>23.898605674015062</v>
       </c>
       <c r="N36" s="43">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>28.049033167312558</v>
       </c>
       <c r="O36" s="43">
@@ -23838,7 +23856,10 @@
         <f>P34/P37</f>
         <v>25.129526439680834</v>
       </c>
-      <c r="Q36" s="43"/>
+      <c r="Q36" s="43">
+        <f>Q34/Q37</f>
+        <v>21.857113630508369</v>
+      </c>
       <c r="R36" s="43"/>
       <c r="S36" s="43"/>
       <c r="T36" s="43"/>
@@ -23886,7 +23907,9 @@
       <c r="P37" s="43">
         <v>499.41251499999998</v>
       </c>
-      <c r="Q37" s="43"/>
+      <c r="Q37" s="43">
+        <v>497.68693999999999</v>
+      </c>
       <c r="R37" s="43"/>
       <c r="S37" s="43"/>
       <c r="T37" s="43"/>
@@ -23920,47 +23943,47 @@
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
       <c r="E39" s="26">
-        <f t="shared" ref="E39:F43" si="38">+E13/C13-1</f>
+        <f t="shared" ref="E39:F43" si="36">+E13/C13-1</f>
         <v>-0.11757309022320028</v>
       </c>
       <c r="F39" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-0.10698626132709732</v>
       </c>
       <c r="G39" s="26">
-        <f t="shared" ref="G39:G43" si="39">+G13/E13-1</f>
+        <f t="shared" ref="G39:G43" si="37">+G13/E13-1</f>
         <v>-7.8019237620235105E-2</v>
       </c>
       <c r="H39" s="26"/>
       <c r="I39" s="43"/>
       <c r="J39" s="26"/>
       <c r="K39" s="26">
-        <f t="shared" ref="K39:Q43" si="40">+K13/J13-1</f>
+        <f t="shared" ref="K39:Q43" si="38">+K13/J13-1</f>
         <v>8.4192105774839598E-2</v>
       </c>
       <c r="L39" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-0.14723816355810615</v>
       </c>
       <c r="M39" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0.25636172450052586</v>
       </c>
       <c r="N39" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0.18831603615667891</v>
       </c>
       <c r="O39" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-7.0009860543738589E-2</v>
       </c>
       <c r="P39" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-0.11208724628900335</v>
       </c>
       <c r="Q39" s="26">
-        <f t="shared" si="40"/>
-        <v>-7.9051518253155817E-2</v>
+        <f t="shared" si="38"/>
+        <v>-8.5977482088024582E-2</v>
       </c>
       <c r="R39" s="43"/>
       <c r="S39" s="43"/>
@@ -23974,47 +23997,47 @@
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-1.8476514507135389E-2</v>
       </c>
       <c r="F40" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-3.4179083162755308E-2</v>
       </c>
       <c r="G40" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>-7.972654181310479E-2</v>
       </c>
       <c r="H40" s="26"/>
       <c r="I40" s="43"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0.20493091303169875</v>
       </c>
       <c r="L40" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-4.6319197733507234E-2</v>
       </c>
       <c r="M40" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0.45687744612627901</v>
       </c>
       <c r="N40" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0.25090626618332479</v>
       </c>
       <c r="O40" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>9.1104326226454146E-2</v>
       </c>
       <c r="P40" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-2.6298939979605862E-2</v>
       </c>
       <c r="Q40" s="26">
-        <f t="shared" si="40"/>
-        <v>-7.9861665854846442E-2</v>
+        <f t="shared" si="38"/>
+        <v>-8.0126643935703901E-2</v>
       </c>
       <c r="R40" s="43"/>
       <c r="S40" s="43"/>
@@ -24028,47 +24051,47 @@
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>2.6812313803376453E-2</v>
       </c>
       <c r="F41" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>9.191609710110793E-3</v>
       </c>
       <c r="G41" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>-1.3056092843326872E-2</v>
       </c>
       <c r="H41" s="26"/>
       <c r="I41" s="43"/>
       <c r="J41" s="26"/>
       <c r="K41" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0.12196323046618507</v>
       </c>
       <c r="L41" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-0.23218727139722017</v>
       </c>
       <c r="M41" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0.25914634146341453</v>
       </c>
       <c r="N41" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0.16858353510895885</v>
       </c>
       <c r="O41" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>7.1095571095571186E-2</v>
       </c>
       <c r="P41" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>1.7772941603191983E-2</v>
       </c>
       <c r="Q41" s="26">
-        <f t="shared" si="40"/>
-        <v>-1.1501544309812317E-2</v>
+        <f t="shared" si="38"/>
+        <v>-2.8985507246376829E-2</v>
       </c>
       <c r="R41" s="43"/>
       <c r="S41" s="43"/>
@@ -24082,47 +24105,47 @@
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-5.1041090842085857E-2</v>
       </c>
       <c r="F42" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-8.7671232876712635E-3</v>
       </c>
       <c r="G42" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>-1.1650485436893177E-2</v>
       </c>
       <c r="H42" s="26"/>
       <c r="I42" s="43"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>6.8396798447732277E-2</v>
       </c>
       <c r="L42" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-0.23813847900113505</v>
       </c>
       <c r="M42" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>1.5905840286054826</v>
       </c>
       <c r="N42" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0.21704623878536933</v>
       </c>
       <c r="O42" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>3.0337397221434692E-2</v>
       </c>
       <c r="P42" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-2.9811043845165974E-2</v>
       </c>
       <c r="Q42" s="26">
-        <f t="shared" si="40"/>
-        <v>-1.0803630519050866E-2</v>
+        <f t="shared" si="38"/>
+        <v>-8.6035737921905664E-3</v>
       </c>
       <c r="R42" s="43"/>
       <c r="S42" s="43"/>
@@ -24136,47 +24159,47 @@
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>3.3153800119688714E-2</v>
       </c>
       <c r="F43" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>1.0493179433368249E-2</v>
       </c>
       <c r="G43" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>-1.3901760889712955E-3</v>
       </c>
       <c r="H43" s="26"/>
       <c r="I43" s="43"/>
       <c r="J43" s="26"/>
       <c r="K43" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>8.3907372123699142E-2</v>
       </c>
       <c r="L43" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-0.31343384490568593</v>
       </c>
       <c r="M43" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0.15745937961595269</v>
       </c>
       <c r="N43" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0.26356984856219157</v>
       </c>
       <c r="O43" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0.20421492054942103</v>
       </c>
       <c r="P43" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>2.1079116578138102E-2</v>
       </c>
       <c r="Q43" s="26">
-        <f t="shared" si="40"/>
-        <v>-5.9303471689847731E-3</v>
+        <f t="shared" si="38"/>
+        <v>4.7092322856203683E-3</v>
       </c>
       <c r="R43" s="43"/>
       <c r="S43" s="43"/>
@@ -24190,7 +24213,7 @@
       <c r="C44" s="66"/>
       <c r="D44" s="66"/>
       <c r="E44" s="67">
-        <f t="shared" ref="E44" si="41">+E19/C19-1</f>
+        <f t="shared" ref="E44" si="39">+E19/C19-1</f>
         <v>-1.3328598484848464E-2</v>
       </c>
       <c r="F44" s="67">
@@ -24198,75 +24221,75 @@
         <v>-2.0654475895520719E-2</v>
       </c>
       <c r="G44" s="67">
-        <f t="shared" ref="G44" si="42">+G19/E19-1</f>
+        <f t="shared" ref="G44" si="40">+G19/E19-1</f>
         <v>-4.4796890371187947E-2</v>
       </c>
       <c r="H44" s="67"/>
       <c r="I44" s="66"/>
       <c r="J44" s="66"/>
       <c r="K44" s="67">
-        <f t="shared" ref="K44:Q44" si="43">+K19/J19-1</f>
+        <f t="shared" ref="K44:Q44" si="41">+K19/J19-1</f>
         <v>0.14615811728526884</v>
       </c>
       <c r="L44" s="67">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.16804546301471956</v>
       </c>
       <c r="M44" s="67">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.43815368076862771</v>
       </c>
       <c r="N44" s="67">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.23310752939344392</v>
       </c>
       <c r="O44" s="67">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>8.8010204081632626E-2</v>
       </c>
       <c r="P44" s="67">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-1.7062667579770818E-2</v>
       </c>
       <c r="Q44" s="67">
-        <f t="shared" si="43"/>
-        <v>-4.6383689760636782E-2</v>
+        <f t="shared" si="41"/>
+        <v>-4.577069777877496E-2</v>
       </c>
       <c r="R44" s="67">
-        <f t="shared" ref="R44" si="44">+R19/Q19-1</f>
-        <v>4.2991469639870328E-2</v>
+        <f t="shared" ref="R44" si="42">+R19/Q19-1</f>
+        <v>3.7273132278144328E-2</v>
       </c>
       <c r="S44" s="67">
-        <f t="shared" ref="S44" si="45">+S19/R19-1</f>
-        <v>5.795082756844705E-2</v>
+        <f t="shared" ref="S44" si="43">+S19/R19-1</f>
+        <v>5.7855049927265867E-2</v>
       </c>
       <c r="T44" s="67">
-        <f t="shared" ref="T44" si="46">+T19/S19-1</f>
-        <v>5.7087320103053729E-2</v>
+        <f t="shared" ref="T44" si="44">+T19/S19-1</f>
+        <v>5.6992855376561069E-2</v>
       </c>
       <c r="U44" s="67">
-        <f t="shared" ref="U44" si="47">+U19/T19-1</f>
-        <v>5.6278384860037667E-2</v>
+        <f t="shared" ref="U44" si="45">+U19/T19-1</f>
+        <v>5.6185241767187977E-2</v>
       </c>
       <c r="V44" s="67">
-        <f t="shared" ref="V44" si="48">+V19/U19-1</f>
-        <v>5.551940951923795E-2</v>
+        <f t="shared" ref="V44" si="46">+V19/U19-1</f>
+        <v>5.5427597044544585E-2</v>
       </c>
       <c r="W44" s="67">
-        <f t="shared" ref="W44" si="49">+W19/V19-1</f>
-        <v>5.4806286622955058E-2</v>
+        <f t="shared" ref="W44" si="47">+W19/V19-1</f>
+        <v>5.4715813948367664E-2</v>
       </c>
       <c r="X44" s="67">
-        <f t="shared" ref="X44" si="50">+X19/W19-1</f>
-        <v>2.6755207392724634E-2</v>
+        <f t="shared" ref="X44" si="48">+X19/W19-1</f>
+        <v>2.6668398735207877E-2</v>
       </c>
       <c r="Y44" s="67">
-        <f t="shared" ref="Y44" si="51">+Y19/X19-1</f>
-        <v>2.6832329620048778E-2</v>
+        <f t="shared" ref="Y44" si="49">+Y19/X19-1</f>
+        <v>2.6746786487949814E-2</v>
       </c>
       <c r="Z44" s="67">
-        <f t="shared" ref="Z44" si="52">+Z19/Y19-1</f>
-        <v>2.6909480469218705E-2</v>
+        <f t="shared" ref="Z44" si="50">+Z19/Y19-1</f>
+        <v>2.6825216663117324E-2</v>
       </c>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.2">
@@ -24274,53 +24297,53 @@
         <v>47</v>
       </c>
       <c r="C45" s="26">
-        <f t="shared" ref="C45:F45" si="53">C21/C19</f>
+        <f t="shared" ref="C45:F45" si="51">C21/C19</f>
         <v>0.69405776515151518</v>
       </c>
       <c r="D45" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>0.68225810124564479</v>
       </c>
       <c r="E45" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>0.6884612616071214</v>
       </c>
       <c r="F45" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>0.65274612844719337</v>
       </c>
       <c r="G45" s="26">
-        <f t="shared" ref="G45" si="54">G21/G19</f>
+        <f t="shared" ref="G45" si="52">G21/G19</f>
         <v>0.66842501883948757</v>
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="43"/>
       <c r="J45" s="26">
-        <f t="shared" ref="J45:P45" si="55">J21/J19</f>
+        <f t="shared" ref="J45:P45" si="53">J21/J19</f>
         <v>0.66631785760047835</v>
       </c>
       <c r="K45" s="26">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0.66232532140860811</v>
       </c>
       <c r="L45" s="26">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0.6445544332713713</v>
       </c>
       <c r="M45" s="26">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0.68301798645176359</v>
       </c>
       <c r="N45" s="26">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0.68443119822186305</v>
       </c>
       <c r="O45" s="26">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0.68804336471161776</v>
       </c>
       <c r="P45" s="26">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0.67032344154080514</v>
       </c>
       <c r="Q45" s="26">
@@ -24336,53 +24359,53 @@
         <v>48</v>
       </c>
       <c r="C46" s="26">
-        <f t="shared" ref="C46:F46" si="56">C26/C19</f>
+        <f t="shared" ref="C46:F46" si="54">C26/C19</f>
         <v>0.27376893939393937</v>
       </c>
       <c r="D46" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0.25040420832099836</v>
       </c>
       <c r="E46" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0.25491278163015574</v>
       </c>
       <c r="F46" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0.19260103241408175</v>
       </c>
       <c r="G46" s="26">
-        <f t="shared" ref="G46" si="57">G26/G19</f>
+        <f t="shared" ref="G46" si="55">G26/G19</f>
         <v>0.2260236121577493</v>
       </c>
       <c r="H46" s="26"/>
       <c r="I46" s="43"/>
       <c r="J46" s="26">
-        <f t="shared" ref="J46:P46" si="58">J26/J19</f>
+        <f t="shared" ref="J46:P46" si="56">J26/J19</f>
         <v>0.21092982531072482</v>
       </c>
       <c r="K46" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>0.21004285448108814</v>
       </c>
       <c r="L46" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>0.17854023426127075</v>
       </c>
       <c r="M46" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>0.26714941991746477</v>
       </c>
       <c r="N46" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>0.265217720751667</v>
       </c>
       <c r="O46" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>0.26185971469362646</v>
       </c>
       <c r="P46" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>0.22326795224543297</v>
       </c>
       <c r="Q46" s="26">
@@ -24393,19 +24416,19 @@
         <v>0.245</v>
       </c>
       <c r="S46" s="26">
-        <f t="shared" ref="S46:V46" si="59">+R46+1.5%</f>
+        <f t="shared" ref="S46:V46" si="57">+R46+1.5%</f>
         <v>0.26</v>
       </c>
       <c r="T46" s="26">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="U46" s="26">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>0.29000000000000004</v>
       </c>
       <c r="V46" s="26">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>0.30500000000000005</v>
       </c>
       <c r="W46" s="60">
@@ -24413,15 +24436,15 @@
         <v>0.29500000000000004</v>
       </c>
       <c r="X46" s="60">
-        <f t="shared" ref="X46:Z46" si="60">+W46-1%</f>
+        <f t="shared" ref="X46:Z46" si="58">+W46-1%</f>
         <v>0.28500000000000003</v>
       </c>
       <c r="Y46" s="60">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="Z46" s="60">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>0.26500000000000001</v>
       </c>
     </row>
@@ -24430,53 +24453,53 @@
         <v>49</v>
       </c>
       <c r="C47" s="26">
-        <f t="shared" ref="C47:F47" si="61">C34/C19</f>
+        <f t="shared" ref="C47:F47" si="59">C34/C19</f>
         <v>0.20078124999999999</v>
       </c>
       <c r="D47" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>0.15241500239109149</v>
       </c>
       <c r="E47" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>0.17436475754013006</v>
       </c>
       <c r="F47" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>0.1228433241873227</v>
       </c>
       <c r="G47" s="26">
-        <f t="shared" ref="G47" si="62">G34/G19</f>
+        <f t="shared" ref="G47" si="60">G34/G19</f>
         <v>0.14312986686762119</v>
       </c>
       <c r="H47" s="26"/>
       <c r="I47" s="43"/>
       <c r="J47" s="26">
-        <f t="shared" ref="J47:P47" si="63">J34/J19</f>
+        <f t="shared" ref="J47:P47" si="61">J34/J19</f>
         <v>0.13569384529961986</v>
       </c>
       <c r="K47" s="26">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>0.13361281907956027</v>
       </c>
       <c r="L47" s="26">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>0.10530559225997178</v>
       </c>
       <c r="M47" s="26">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>0.18743284279373978</v>
       </c>
       <c r="N47" s="26">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>0.17786421499292787</v>
       </c>
       <c r="O47" s="26">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>0.17612851554792056</v>
       </c>
       <c r="P47" s="26">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>0.14819975673984154</v>
       </c>
       <c r="Q47" s="26">
@@ -24492,53 +24515,53 @@
         <v>50</v>
       </c>
       <c r="C48" s="26">
-        <f t="shared" ref="C48:F48" si="64">C31/C30</f>
+        <f t="shared" ref="C48:F48" si="62">C31/C30</f>
         <v>0.26007813149364145</v>
       </c>
       <c r="D48" s="26">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>0.26516572858036275</v>
       </c>
       <c r="E48" s="26">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>0.27051788986401776</v>
       </c>
       <c r="F48" s="26">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>0.30364058869093724</v>
       </c>
       <c r="G48" s="26">
-        <f t="shared" ref="G48" si="65">G31/G30</f>
+        <f t="shared" ref="G48" si="63">G31/G30</f>
         <v>0.30923741679317995</v>
       </c>
       <c r="H48" s="26"/>
       <c r="I48" s="43"/>
       <c r="J48" s="26">
-        <f t="shared" ref="J48:P48" si="66">J31/J30</f>
+        <f t="shared" ref="J48:P48" si="64">J31/J30</f>
         <v>0.26335757192538728</v>
       </c>
       <c r="K48" s="26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>0.27366063095015869</v>
       </c>
       <c r="L48" s="26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>0.32713199348180338</v>
       </c>
       <c r="M48" s="26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>0.26208740120874013</v>
       </c>
       <c r="N48" s="26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>0.26659374533883556</v>
       </c>
       <c r="O48" s="26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>0.26233526011560693</v>
       </c>
       <c r="P48" s="26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>0.28468120342257797</v>
       </c>
       <c r="Q48" s="26">
@@ -24632,7 +24655,9 @@
       <c r="P51" s="21">
         <v>26280</v>
       </c>
-      <c r="Q51" s="21"/>
+      <c r="Q51" s="21">
+        <v>23129</v>
+      </c>
       <c r="R51" s="43"/>
       <c r="S51" s="43"/>
       <c r="T51" s="43"/>
@@ -24674,7 +24699,9 @@
       <c r="P52" s="21">
         <v>20307</v>
       </c>
-      <c r="Q52" s="21"/>
+      <c r="Q52" s="21">
+        <v>18315</v>
+      </c>
       <c r="R52" s="43"/>
       <c r="S52" s="43"/>
       <c r="T52" s="43"/>
@@ -24716,7 +24743,9 @@
       <c r="P53" s="21">
         <v>29886</v>
       </c>
-      <c r="Q53" s="21"/>
+      <c r="Q53" s="21">
+        <v>29728</v>
+      </c>
       <c r="R53" s="43"/>
       <c r="S53" s="43"/>
       <c r="T53" s="43"/>
@@ -24758,7 +24787,9 @@
       <c r="P54" s="21">
         <v>16620</v>
       </c>
-      <c r="Q54" s="21"/>
+      <c r="Q54" s="21">
+        <v>14860</v>
+      </c>
       <c r="R54" s="43"/>
       <c r="S54" s="43"/>
       <c r="T54" s="43"/>
@@ -24800,7 +24831,9 @@
       <c r="P55" s="21">
         <v>1343</v>
       </c>
-      <c r="Q55" s="21"/>
+      <c r="Q55" s="21">
+        <v>1214</v>
+      </c>
       <c r="R55" s="43"/>
       <c r="S55" s="43"/>
       <c r="T55" s="43"/>
@@ -24842,7 +24875,9 @@
       <c r="P56" s="21">
         <v>1632</v>
       </c>
-      <c r="Q56" s="21"/>
+      <c r="Q56" s="21">
+        <v>1891</v>
+      </c>
       <c r="R56" s="43"/>
       <c r="S56" s="43"/>
       <c r="T56" s="43"/>
@@ -24884,7 +24919,9 @@
       <c r="P57" s="21">
         <v>1106</v>
       </c>
-      <c r="Q57" s="21"/>
+      <c r="Q57" s="21">
+        <v>983</v>
+      </c>
       <c r="R57" s="43"/>
       <c r="S57" s="43"/>
       <c r="T57" s="43"/>
@@ -24926,7 +24963,9 @@
       <c r="P58" s="21">
         <v>4545</v>
       </c>
-      <c r="Q58" s="21"/>
+      <c r="Q58" s="21">
+        <v>3738</v>
+      </c>
       <c r="R58" s="43"/>
       <c r="S58" s="43"/>
       <c r="T58" s="43"/>
@@ -24939,37 +24978,37 @@
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
       <c r="E59" s="21">
-        <f t="shared" ref="E59:G59" si="67">SUM(E51:E58)</f>
+        <f t="shared" ref="E59:G59" si="65">SUM(E51:E58)</f>
         <v>99525</v>
       </c>
       <c r="F59" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="G59" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>96676</v>
       </c>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="21">
-        <f t="shared" ref="J59:N59" si="68">SUM(J51:J58)</f>
+        <f t="shared" ref="J59:N59" si="66">SUM(J51:J58)</f>
         <v>50749</v>
       </c>
       <c r="K59" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>69997</v>
       </c>
       <c r="L59" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>68698</v>
       </c>
       <c r="M59" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>91010</v>
       </c>
       <c r="N59" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>94906</v>
       </c>
       <c r="O59" s="21">
@@ -24980,7 +25019,10 @@
         <f>SUM(P51:P58)</f>
         <v>101719</v>
       </c>
-      <c r="Q59" s="43"/>
+      <c r="Q59" s="21">
+        <f>SUM(Q51:Q58)</f>
+        <v>93858</v>
+      </c>
       <c r="R59" s="43"/>
       <c r="S59" s="43"/>
       <c r="T59" s="43"/>
@@ -25022,7 +25064,9 @@
       <c r="P60" s="21">
         <v>23669</v>
       </c>
-      <c r="Q60" s="21"/>
+      <c r="Q60" s="21">
+        <v>22659</v>
+      </c>
       <c r="R60" s="21"/>
       <c r="S60" s="21"/>
       <c r="T60" s="21"/>
@@ -25065,7 +25109,9 @@
       <c r="P61" s="21">
         <v>4730</v>
       </c>
-      <c r="Q61" s="21"/>
+      <c r="Q61" s="21">
+        <v>4332</v>
+      </c>
       <c r="R61" s="21"/>
       <c r="S61" s="21"/>
       <c r="T61" s="21"/>
@@ -25108,7 +25154,9 @@
       <c r="P62" s="21">
         <v>986</v>
       </c>
-      <c r="Q62" s="21"/>
+      <c r="Q62" s="21">
+        <v>758</v>
+      </c>
       <c r="R62" s="21"/>
       <c r="S62" s="21"/>
       <c r="T62" s="21"/>
@@ -25151,7 +25199,10 @@
       <c r="P63" s="21">
         <v>8455</v>
       </c>
-      <c r="Q63" s="21"/>
+      <c r="Q63" s="21">
+        <f>8840+2796</f>
+        <v>11636</v>
+      </c>
       <c r="R63" s="21"/>
       <c r="S63" s="21"/>
       <c r="T63" s="21"/>
@@ -25194,7 +25245,9 @@
       <c r="P64" s="21">
         <v>9631</v>
       </c>
-      <c r="Q64" s="21"/>
+      <c r="Q64" s="21">
+        <v>8794</v>
+      </c>
       <c r="R64" s="21"/>
       <c r="S64" s="21"/>
       <c r="T64" s="21"/>
@@ -25206,48 +25259,48 @@
         <v>64</v>
       </c>
       <c r="C65" s="21">
-        <f t="shared" ref="C65:H65" si="69">SUM(C60:C64)</f>
+        <f t="shared" ref="C65:H65" si="67">SUM(C60:C64)</f>
         <v>0</v>
       </c>
       <c r="D65" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="E65" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>44924</v>
       </c>
       <c r="F65" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="G65" s="21">
-        <f t="shared" ref="G65" si="70">SUM(G60:G64)</f>
+        <f t="shared" ref="G65" si="68">SUM(G60:G64)</f>
         <v>44899</v>
       </c>
       <c r="H65" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I65" s="21"/>
       <c r="J65" s="21">
-        <f t="shared" ref="J65:N65" si="71">SUM(J60:J64)</f>
+        <f t="shared" ref="J65:N65" si="69">SUM(J60:J64)</f>
         <v>23551</v>
       </c>
       <c r="K65" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>26510</v>
       </c>
       <c r="L65" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>39973</v>
       </c>
       <c r="M65" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>34301</v>
       </c>
       <c r="N65" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>39740</v>
       </c>
       <c r="O65" s="21">
@@ -25258,7 +25311,10 @@
         <f>SUM(P60:P64)</f>
         <v>47471</v>
       </c>
-      <c r="Q65" s="21"/>
+      <c r="Q65" s="21">
+        <f>SUM(Q60:Q64)</f>
+        <v>48179</v>
+      </c>
       <c r="R65" s="21"/>
       <c r="S65" s="21"/>
       <c r="T65" s="21"/>
@@ -25270,59 +25326,62 @@
         <v>65</v>
       </c>
       <c r="C66" s="64">
-        <f t="shared" ref="C66:H66" si="72">C59+C65</f>
+        <f t="shared" ref="C66:H66" si="70">C59+C65</f>
         <v>0</v>
       </c>
       <c r="D66" s="64">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="E66" s="64">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>144449</v>
       </c>
       <c r="F66" s="64">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="G66" s="64">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>141575</v>
       </c>
       <c r="H66" s="64">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I66" s="21"/>
       <c r="J66" s="64">
-        <f t="shared" ref="J66:P66" si="73">J59+J65</f>
+        <f t="shared" ref="J66:Q66" si="71">J59+J65</f>
         <v>74300</v>
       </c>
       <c r="K66" s="64">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>96507</v>
       </c>
       <c r="L66" s="64">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>108671</v>
       </c>
       <c r="M66" s="64">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>125311</v>
       </c>
       <c r="N66" s="64">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>134646</v>
       </c>
       <c r="O66" s="64">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>143694</v>
       </c>
       <c r="P66" s="64">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>149190</v>
       </c>
-      <c r="Q66" s="21"/>
+      <c r="Q66" s="64">
+        <f t="shared" si="71"/>
+        <v>142037</v>
+      </c>
       <c r="R66" s="21"/>
       <c r="S66" s="21"/>
       <c r="T66" s="21"/>
@@ -25365,7 +25424,9 @@
       <c r="P67" s="21">
         <v>67517</v>
       </c>
-      <c r="Q67" s="21"/>
+      <c r="Q67" s="21">
+        <v>67472</v>
+      </c>
       <c r="R67" s="21"/>
       <c r="S67" s="21"/>
       <c r="T67" s="21"/>
@@ -25408,7 +25469,9 @@
       <c r="P68" s="21">
         <v>1770</v>
       </c>
-      <c r="Q68" s="21"/>
+      <c r="Q68" s="21">
+        <v>1477</v>
+      </c>
       <c r="R68" s="21"/>
       <c r="S68" s="21"/>
       <c r="T68" s="21"/>
@@ -25420,48 +25483,48 @@
         <v>67</v>
       </c>
       <c r="C69" s="64">
-        <f t="shared" ref="C69:H69" si="74">SUM(C67:C68)</f>
+        <f t="shared" ref="C69:H69" si="72">SUM(C67:C68)</f>
         <v>0</v>
       </c>
       <c r="D69" s="64">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="E69" s="64">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v>66480</v>
       </c>
       <c r="F69" s="64">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="G69" s="64">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v>66875</v>
       </c>
       <c r="H69" s="64">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="I69" s="21"/>
       <c r="J69" s="64">
-        <f t="shared" ref="J69:N69" si="75">SUM(J67:J68)</f>
+        <f t="shared" ref="J69:N69" si="73">SUM(J67:J68)</f>
         <v>33957</v>
       </c>
       <c r="K69" s="64">
-        <f t="shared" si="75"/>
+        <f t="shared" si="73"/>
         <v>38365</v>
       </c>
       <c r="L69" s="64">
-        <f t="shared" si="75"/>
+        <f t="shared" si="73"/>
         <v>38829</v>
       </c>
       <c r="M69" s="64">
-        <f t="shared" si="75"/>
+        <f t="shared" si="73"/>
         <v>48909</v>
       </c>
       <c r="N69" s="64">
-        <f t="shared" si="75"/>
+        <f t="shared" si="73"/>
         <v>56604</v>
       </c>
       <c r="O69" s="64">
@@ -25472,7 +25535,10 @@
         <f>SUM(P67:P68)</f>
         <v>69287</v>
       </c>
-      <c r="Q69" s="21"/>
+      <c r="Q69" s="64">
+        <f>SUM(Q67:Q68)</f>
+        <v>68949</v>
+      </c>
       <c r="R69" s="21"/>
       <c r="S69" s="21"/>
       <c r="T69" s="21"/>
@@ -25515,7 +25581,9 @@
       <c r="P70" s="21">
         <v>12091</v>
       </c>
-      <c r="Q70" s="21"/>
+      <c r="Q70" s="21">
+        <v>12418</v>
+      </c>
       <c r="R70" s="21"/>
       <c r="S70" s="21"/>
       <c r="T70" s="21"/>
@@ -25558,7 +25626,9 @@
       <c r="P71" s="21">
         <v>14860</v>
       </c>
-      <c r="Q71" s="21"/>
+      <c r="Q71" s="21">
+        <v>13384</v>
+      </c>
       <c r="R71" s="21"/>
       <c r="S71" s="21"/>
       <c r="T71" s="21"/>
@@ -25601,7 +25671,9 @@
       <c r="P72" s="21">
         <v>3856</v>
       </c>
-      <c r="Q72" s="21"/>
+      <c r="Q72" s="21">
+        <v>3546</v>
+      </c>
       <c r="R72" s="21"/>
       <c r="S72" s="21"/>
       <c r="T72" s="21"/>
@@ -25644,7 +25716,9 @@
       <c r="P73" s="21">
         <v>7344</v>
       </c>
-      <c r="Q73" s="21"/>
+      <c r="Q73" s="21">
+        <v>6993</v>
+      </c>
       <c r="R73" s="21"/>
       <c r="S73" s="21"/>
       <c r="T73" s="21"/>
@@ -25687,7 +25761,9 @@
       <c r="P74" s="21">
         <v>8056</v>
       </c>
-      <c r="Q74" s="21"/>
+      <c r="Q74" s="21">
+        <v>6331</v>
+      </c>
       <c r="R74" s="21"/>
       <c r="S74" s="21"/>
       <c r="T74" s="21"/>
@@ -25699,48 +25775,48 @@
         <v>71</v>
       </c>
       <c r="C75" s="21">
-        <f t="shared" ref="C75:H75" si="76">SUM(C70:C74)</f>
+        <f t="shared" ref="C75:H75" si="74">SUM(C70:C74)</f>
         <v>0</v>
       </c>
       <c r="D75" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="E75" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v>45444</v>
       </c>
       <c r="F75" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="G75" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v>44263</v>
       </c>
       <c r="H75" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I75" s="21"/>
       <c r="J75" s="21">
-        <f t="shared" ref="J75:N75" si="77">SUM(J70:J74)</f>
+        <f t="shared" ref="J75:N75" si="75">SUM(J70:J74)</f>
         <v>23510</v>
       </c>
       <c r="K75" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>35519</v>
       </c>
       <c r="L75" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>44524</v>
       </c>
       <c r="M75" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>48413</v>
       </c>
       <c r="N75" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>46499</v>
       </c>
       <c r="O75" s="21">
@@ -25751,7 +25827,10 @@
         <f>SUM(P70:P74)</f>
         <v>46207</v>
       </c>
-      <c r="Q75" s="21"/>
+      <c r="Q75" s="21">
+        <f>SUM(Q70:Q74)</f>
+        <v>42672</v>
+      </c>
       <c r="R75" s="21"/>
       <c r="S75" s="21"/>
       <c r="T75" s="21"/>
@@ -25794,7 +25873,9 @@
       <c r="P76" s="21">
         <v>10851</v>
       </c>
-      <c r="Q76" s="21"/>
+      <c r="Q76" s="21">
+        <v>7925</v>
+      </c>
       <c r="R76" s="21"/>
       <c r="S76" s="21"/>
       <c r="T76" s="21"/>
@@ -25837,7 +25918,9 @@
       <c r="P77" s="21">
         <v>2972</v>
       </c>
-      <c r="Q77" s="21"/>
+      <c r="Q77" s="21">
+        <v>2634</v>
+      </c>
       <c r="R77" s="21"/>
       <c r="S77" s="21"/>
       <c r="T77" s="21"/>
@@ -25880,7 +25963,9 @@
       <c r="P78" s="21">
         <v>8630</v>
       </c>
-      <c r="Q78" s="21"/>
+      <c r="Q78" s="21">
+        <v>8223</v>
+      </c>
       <c r="R78" s="21"/>
       <c r="S78" s="21"/>
       <c r="T78" s="21"/>
@@ -25923,7 +26008,9 @@
       <c r="P79" s="21">
         <v>1231</v>
       </c>
-      <c r="Q79" s="21"/>
+      <c r="Q79" s="21">
+        <v>828</v>
+      </c>
       <c r="R79" s="21"/>
       <c r="S79" s="21"/>
       <c r="T79" s="21"/>
@@ -25966,7 +26053,10 @@
       <c r="P80" s="21">
         <v>10012</v>
       </c>
-      <c r="Q80" s="21"/>
+      <c r="Q80" s="21">
+        <f>9190+1616</f>
+        <v>10806</v>
+      </c>
       <c r="R80" s="21"/>
       <c r="S80" s="21"/>
       <c r="T80" s="21"/>
@@ -25978,48 +26068,48 @@
         <v>77</v>
       </c>
       <c r="C81" s="21">
-        <f t="shared" ref="C81:H81" si="78">SUM(C76:C80)</f>
+        <f t="shared" ref="C81:H81" si="76">SUM(C76:C80)</f>
         <v>0</v>
       </c>
       <c r="D81" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="E81" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>32525</v>
       </c>
       <c r="F81" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="G81" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>30437</v>
       </c>
       <c r="H81" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="I81" s="21"/>
       <c r="J81" s="21">
-        <f t="shared" ref="J81:N81" si="79">SUM(J76:J80)</f>
+        <f t="shared" ref="J81:N81" si="77">SUM(J76:J80)</f>
         <v>16833</v>
       </c>
       <c r="K81" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>22623</v>
       </c>
       <c r="L81" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>25318</v>
       </c>
       <c r="M81" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>27989</v>
       </c>
       <c r="N81" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>31543</v>
       </c>
       <c r="O81" s="21">
@@ -26030,7 +26120,10 @@
         <f>SUM(P76:P80)</f>
         <v>33696</v>
       </c>
-      <c r="Q81" s="21"/>
+      <c r="Q81" s="21">
+        <f>SUM(Q76:Q80)</f>
+        <v>30416</v>
+      </c>
       <c r="R81" s="21"/>
       <c r="S81" s="21"/>
       <c r="T81" s="21"/>
@@ -26042,59 +26135,62 @@
         <v>78</v>
       </c>
       <c r="C82" s="64">
-        <f t="shared" ref="C82:H82" si="80">C81+C75+C69</f>
+        <f t="shared" ref="C82:H82" si="78">C81+C75+C69</f>
         <v>0</v>
       </c>
       <c r="D82" s="64">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="E82" s="64">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>144449</v>
       </c>
       <c r="F82" s="64">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="G82" s="64">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>141575</v>
       </c>
       <c r="H82" s="64">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="I82" s="21"/>
       <c r="J82" s="64">
-        <f t="shared" ref="J82:P82" si="81">J81+J75+J69</f>
+        <f t="shared" ref="J82:Q82" si="79">J81+J75+J69</f>
         <v>74300</v>
       </c>
       <c r="K82" s="64">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>96507</v>
       </c>
       <c r="L82" s="64">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>108671</v>
       </c>
       <c r="M82" s="64">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>125311</v>
       </c>
       <c r="N82" s="64">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>134646</v>
       </c>
       <c r="O82" s="64">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>143694</v>
       </c>
       <c r="P82" s="64">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>149190</v>
       </c>
-      <c r="Q82" s="21"/>
+      <c r="Q82" s="64">
+        <f t="shared" si="79"/>
+        <v>142037</v>
+      </c>
       <c r="R82" s="21"/>
       <c r="S82" s="21"/>
       <c r="T82" s="21"/>
@@ -26178,59 +26274,62 @@
         <v>35</v>
       </c>
       <c r="C86" s="21">
-        <f t="shared" ref="C86:H86" si="82">C26</f>
+        <f t="shared" ref="C86:H86" si="80">C26</f>
         <v>11564</v>
       </c>
       <c r="D86" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>10996</v>
       </c>
       <c r="E86" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>10624</v>
       </c>
       <c r="F86" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>8283</v>
       </c>
       <c r="G86" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>8998</v>
       </c>
       <c r="H86" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="I86" s="21"/>
       <c r="J86" s="21">
-        <f t="shared" ref="J86:P86" si="83">J26</f>
+        <f t="shared" ref="J86:Q86" si="81">J26</f>
         <v>9877</v>
       </c>
       <c r="K86" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>11273</v>
       </c>
       <c r="L86" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>7972</v>
       </c>
       <c r="M86" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>17155</v>
       </c>
       <c r="N86" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>21001</v>
       </c>
       <c r="O86" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>22560</v>
       </c>
       <c r="P86" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>18907</v>
       </c>
-      <c r="Q86" s="21"/>
+      <c r="Q86" s="21">
+        <f t="shared" si="81"/>
+        <v>17099</v>
+      </c>
       <c r="R86" s="21"/>
       <c r="S86" s="21"/>
       <c r="T86" s="21"/>
@@ -26273,7 +26372,9 @@
       <c r="P87" s="21">
         <v>29</v>
       </c>
-      <c r="Q87" s="21"/>
+      <c r="Q87" s="21">
+        <v>13</v>
+      </c>
       <c r="R87" s="21"/>
       <c r="S87" s="21"/>
       <c r="T87" s="21"/>
@@ -26316,7 +26417,9 @@
       <c r="P88" s="21">
         <v>4568</v>
       </c>
-      <c r="Q88" s="21"/>
+      <c r="Q88" s="21">
+        <v>4858</v>
+      </c>
       <c r="R88" s="21"/>
       <c r="S88" s="21"/>
       <c r="T88" s="21"/>
@@ -26359,7 +26462,9 @@
       <c r="P89" s="21">
         <v>3228</v>
       </c>
-      <c r="Q89" s="21"/>
+      <c r="Q89" s="21">
+        <v>3143</v>
+      </c>
       <c r="R89" s="21"/>
       <c r="S89" s="21"/>
       <c r="T89" s="21"/>
@@ -26402,7 +26507,9 @@
       <c r="P90" s="21">
         <v>488</v>
       </c>
-      <c r="Q90" s="21"/>
+      <c r="Q90" s="21">
+        <v>-172</v>
+      </c>
       <c r="R90" s="21"/>
       <c r="S90" s="21"/>
       <c r="T90" s="21"/>
@@ -26445,7 +26552,9 @@
       <c r="P91" s="21">
         <v>-357</v>
       </c>
-      <c r="Q91" s="21"/>
+      <c r="Q91" s="21">
+        <v>-290</v>
+      </c>
       <c r="R91" s="21"/>
       <c r="S91" s="21"/>
       <c r="T91" s="21"/>
@@ -26488,7 +26597,9 @@
       <c r="P92" s="21">
         <v>-483</v>
       </c>
-      <c r="Q92" s="21"/>
+      <c r="Q92" s="21">
+        <v>-545</v>
+      </c>
       <c r="R92" s="21"/>
       <c r="S92" s="21"/>
       <c r="T92" s="21"/>
@@ -26531,7 +26642,9 @@
       <c r="P93" s="21">
         <v>-5531</v>
       </c>
-      <c r="Q93" s="21"/>
+      <c r="Q93" s="21">
+        <v>-4656</v>
+      </c>
       <c r="R93" s="21"/>
       <c r="S93" s="21"/>
       <c r="T93" s="21"/>
@@ -26574,7 +26687,9 @@
       <c r="P94" s="21">
         <v>-1925</v>
       </c>
-      <c r="Q94" s="21"/>
+      <c r="Q94" s="21">
+        <v>-576</v>
+      </c>
       <c r="R94" s="21"/>
       <c r="S94" s="21"/>
       <c r="T94" s="21"/>
@@ -26586,48 +26701,48 @@
         <v>87</v>
       </c>
       <c r="C95" s="64">
-        <f t="shared" ref="C95:H95" si="84">SUM(C86:C94)</f>
+        <f t="shared" ref="C95:H95" si="82">SUM(C86:C94)</f>
         <v>11564</v>
       </c>
       <c r="D95" s="64">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>10996</v>
       </c>
       <c r="E95" s="64">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>7284</v>
       </c>
       <c r="F95" s="64">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>8283</v>
       </c>
       <c r="G95" s="64">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>7881</v>
       </c>
       <c r="H95" s="64">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="I95" s="21"/>
       <c r="J95" s="64">
-        <f t="shared" ref="J95:N95" si="85">SUM(J86:J94)</f>
+        <f t="shared" ref="J95:N95" si="83">SUM(J86:J94)</f>
         <v>8490</v>
       </c>
       <c r="K95" s="64">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>11648</v>
       </c>
       <c r="L95" s="64">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>10896</v>
       </c>
       <c r="M95" s="64">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>18648</v>
       </c>
       <c r="N95" s="64">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>17833</v>
       </c>
       <c r="O95" s="64">
@@ -26638,7 +26753,10 @@
         <f>SUM(P86:P94)</f>
         <v>18924</v>
       </c>
-      <c r="Q95" s="21"/>
+      <c r="Q95" s="64">
+        <f>SUM(Q86:Q94)</f>
+        <v>18874</v>
+      </c>
       <c r="R95" s="21"/>
       <c r="S95" s="21"/>
       <c r="T95" s="21"/>
@@ -26681,7 +26799,9 @@
       <c r="P96" s="21">
         <v>-5531</v>
       </c>
-      <c r="Q96" s="21"/>
+      <c r="Q96" s="21">
+        <v>-4567</v>
+      </c>
       <c r="R96" s="21"/>
       <c r="S96" s="21"/>
       <c r="T96" s="21"/>
@@ -26724,7 +26844,9 @@
       <c r="P97" s="21">
         <v>-438</v>
       </c>
-      <c r="Q97" s="21"/>
+      <c r="Q97" s="21">
+        <v>149</v>
+      </c>
       <c r="R97" s="21"/>
       <c r="S97" s="21"/>
       <c r="T97" s="21"/>
@@ -26767,7 +26889,9 @@
       <c r="P98" s="21">
         <v>9</v>
       </c>
-      <c r="Q98" s="21"/>
+      <c r="Q98" s="21">
+        <v>21</v>
+      </c>
       <c r="R98" s="21"/>
       <c r="S98" s="21"/>
       <c r="T98" s="21"/>
@@ -26810,7 +26934,9 @@
       <c r="P99" s="21">
         <v>-579</v>
       </c>
-      <c r="Q99" s="21"/>
+      <c r="Q99" s="21">
+        <v>-243</v>
+      </c>
       <c r="R99" s="21"/>
       <c r="S99" s="21"/>
       <c r="T99" s="21"/>
@@ -26822,48 +26948,48 @@
         <v>90</v>
       </c>
       <c r="C100" s="64">
-        <f t="shared" ref="C100:H100" si="86">SUM(C96:C99)</f>
+        <f t="shared" ref="C100:H100" si="84">SUM(C96:C99)</f>
         <v>0</v>
       </c>
       <c r="D100" s="64">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="E100" s="64">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>-3164</v>
       </c>
       <c r="F100" s="64">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="G100" s="64">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>-2452</v>
       </c>
       <c r="H100" s="64">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="I100" s="21"/>
       <c r="J100" s="64">
-        <f t="shared" ref="J100:N100" si="87">SUM(J96:J99)</f>
+        <f t="shared" ref="J100:N100" si="85">SUM(J96:J99)</f>
         <v>-3439</v>
       </c>
       <c r="K100" s="64">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>-5869</v>
       </c>
       <c r="L100" s="64">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>-2939</v>
       </c>
       <c r="M100" s="64">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>-15979</v>
       </c>
       <c r="N100" s="64">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>-5920</v>
       </c>
       <c r="O100" s="64">
@@ -26874,7 +27000,10 @@
         <f>SUM(P96:P99)</f>
         <v>-6539</v>
       </c>
-      <c r="Q100" s="21"/>
+      <c r="Q100" s="64">
+        <f>SUM(Q96:Q99)</f>
+        <v>-4640</v>
+      </c>
       <c r="R100" s="21"/>
       <c r="S100" s="21"/>
       <c r="T100" s="21"/>
@@ -26917,7 +27046,9 @@
       <c r="P101" s="21">
         <v>-7322</v>
       </c>
-      <c r="Q101" s="21"/>
+      <c r="Q101" s="21">
+        <v>-7123</v>
+      </c>
       <c r="R101" s="21"/>
       <c r="S101" s="21"/>
       <c r="T101" s="21"/>
@@ -26960,7 +27091,9 @@
       <c r="P102" s="21">
         <v>-173</v>
       </c>
-      <c r="Q102" s="21"/>
+      <c r="Q102" s="21">
+        <v>-1091</v>
+      </c>
       <c r="R102" s="21"/>
       <c r="S102" s="21"/>
       <c r="T102" s="21"/>
@@ -27003,7 +27136,9 @@
       <c r="P103" s="21">
         <v>-224</v>
       </c>
-      <c r="Q103" s="21"/>
+      <c r="Q103" s="21">
+        <v>-1634</v>
+      </c>
       <c r="R103" s="21"/>
       <c r="S103" s="21"/>
       <c r="T103" s="21"/>
@@ -27046,7 +27181,9 @@
       <c r="P104" s="21">
         <v>3595</v>
       </c>
-      <c r="Q104" s="21"/>
+      <c r="Q104" s="21">
+        <v>2095</v>
+      </c>
       <c r="R104" s="21"/>
       <c r="S104" s="21"/>
       <c r="T104" s="21"/>
@@ -27089,7 +27226,9 @@
       <c r="P105" s="21">
         <v>-3676</v>
       </c>
-      <c r="Q105" s="21"/>
+      <c r="Q105" s="21">
+        <v>-4228</v>
+      </c>
       <c r="R105" s="21"/>
       <c r="S105" s="21"/>
       <c r="T105" s="21"/>
@@ -27132,7 +27271,9 @@
       <c r="P106" s="21">
         <v>-2915</v>
       </c>
-      <c r="Q106" s="21"/>
+      <c r="Q106" s="21">
+        <v>-2974</v>
+      </c>
       <c r="R106" s="21"/>
       <c r="S106" s="21"/>
       <c r="T106" s="21"/>
@@ -27175,7 +27316,9 @@
       <c r="P107" s="21">
         <v>-1</v>
       </c>
-      <c r="Q107" s="21"/>
+      <c r="Q107" s="21">
+        <v>59</v>
+      </c>
       <c r="R107" s="21"/>
       <c r="S107" s="21"/>
       <c r="T107" s="21"/>
@@ -27187,48 +27330,48 @@
         <v>100</v>
       </c>
       <c r="C108" s="64">
-        <f t="shared" ref="C108:H108" si="88">SUM(C101:C107)</f>
+        <f t="shared" ref="C108:H108" si="86">SUM(C101:C107)</f>
         <v>0</v>
       </c>
       <c r="D108" s="64">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="E108" s="64">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>-4945</v>
       </c>
       <c r="F108" s="64">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="G108" s="64">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>-6767</v>
       </c>
       <c r="H108" s="64">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="I108" s="21"/>
       <c r="J108" s="64">
-        <f t="shared" ref="J108:N108" si="89">SUM(J101:J107)</f>
+        <f t="shared" ref="J108:N108" si="87">SUM(J101:J107)</f>
         <v>-4323</v>
       </c>
       <c r="K108" s="64">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>-4734</v>
       </c>
       <c r="L108" s="64">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>7403</v>
       </c>
       <c r="M108" s="64">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>-15156</v>
       </c>
       <c r="N108" s="64">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>-12685</v>
       </c>
       <c r="O108" s="64">
@@ -27239,7 +27382,10 @@
         <f>SUM(P101:P107)</f>
         <v>-10716</v>
       </c>
-      <c r="Q108" s="21"/>
+      <c r="Q108" s="64">
+        <f>SUM(Q101:Q107)</f>
+        <v>-14896</v>
+      </c>
       <c r="R108" s="21"/>
       <c r="S108" s="21"/>
       <c r="T108" s="21"/>
@@ -27282,7 +27428,9 @@
       <c r="P109" s="21">
         <v>80</v>
       </c>
-      <c r="Q109" s="21"/>
+      <c r="Q109" s="21">
+        <v>-248</v>
+      </c>
       <c r="R109" s="21"/>
       <c r="S109" s="21"/>
       <c r="T109" s="21"/>
@@ -27294,59 +27442,62 @@
         <v>101</v>
       </c>
       <c r="C110" s="64">
-        <f t="shared" ref="C110:H110" si="90">C95+C100+C108+C109</f>
+        <f t="shared" ref="C110:H110" si="88">C95+C100+C108+C109</f>
         <v>11564</v>
       </c>
       <c r="D110" s="64">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>10996</v>
       </c>
       <c r="E110" s="64">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>-807</v>
       </c>
       <c r="F110" s="64">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>8283</v>
       </c>
       <c r="G110" s="64">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>-1455</v>
       </c>
       <c r="H110" s="64">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="I110" s="21"/>
       <c r="J110" s="64">
-        <f t="shared" ref="J110:P110" si="91">J95+J100+J108+J109</f>
+        <f t="shared" ref="J110:Q110" si="89">J95+J100+J108+J109</f>
         <v>796</v>
       </c>
       <c r="K110" s="64">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>1084</v>
       </c>
       <c r="L110" s="64">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>14308</v>
       </c>
       <c r="M110" s="64">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>-11989</v>
       </c>
       <c r="N110" s="64">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>-717</v>
       </c>
       <c r="O110" s="64">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>420</v>
       </c>
       <c r="P110" s="64">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>1749</v>
       </c>
-      <c r="Q110" s="21"/>
+      <c r="Q110" s="64">
+        <f t="shared" si="89"/>
+        <v>-910</v>
+      </c>
       <c r="R110" s="21"/>
       <c r="S110" s="21"/>
       <c r="T110" s="21"/>
@@ -27395,7 +27546,9 @@
         <f>+O112</f>
         <v>7520</v>
       </c>
-      <c r="Q111" s="21"/>
+      <c r="Q111" s="21">
+        <v>9269</v>
+      </c>
       <c r="R111" s="21"/>
       <c r="S111" s="21"/>
       <c r="T111" s="21"/>
@@ -27445,7 +27598,10 @@
         <f>+P110+P111</f>
         <v>9269</v>
       </c>
-      <c r="Q112" s="21"/>
+      <c r="Q112" s="21">
+        <f>+Q110+Q111</f>
+        <v>8359</v>
+      </c>
       <c r="R112" s="21"/>
       <c r="S112" s="21"/>
       <c r="T112" s="21"/>
@@ -27492,36 +27648,36 @@
       <c r="H114" s="43"/>
       <c r="I114" s="43"/>
       <c r="J114" s="61">
-        <f t="shared" ref="J114:Q114" si="92">+J95+J96</f>
+        <f t="shared" ref="J114:Q114" si="90">+J95+J96</f>
         <v>5452</v>
       </c>
       <c r="K114" s="61">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v>8354</v>
       </c>
       <c r="L114" s="61">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v>8418</v>
       </c>
       <c r="M114" s="61">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v>15984</v>
       </c>
       <c r="N114" s="61">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v>12864</v>
       </c>
       <c r="O114" s="61">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v>10922</v>
       </c>
       <c r="P114" s="61">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v>13393</v>
       </c>
       <c r="Q114" s="61">
-        <f t="shared" si="92"/>
-        <v>0</v>
+        <f t="shared" si="90"/>
+        <v>14307</v>
       </c>
       <c r="R114" s="21"/>
       <c r="S114" s="21"/>
@@ -28871,13 +29027,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07D4BFD-8B54-4F0A-B988-F0D31C1B811E}">
-  <dimension ref="A2:L42"/>
+  <dimension ref="A2:M42"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28887,7 +29043,7 @@
     <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D2" s="57" t="s">
         <v>8</v>
       </c>
@@ -28909,11 +29065,14 @@
       <c r="J2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="K2" s="83" t="s">
+        <v>261</v>
+      </c>
+      <c r="M2" s="57" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="58" t="s">
         <v>17</v>
       </c>
@@ -28921,7 +29080,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>106</v>
       </c>
@@ -28953,12 +29112,16 @@
         <f>Model!P34/Model!P69</f>
         <v>0.1811306594310621</v>
       </c>
-      <c r="L4" s="60">
+      <c r="K4" s="26">
+        <f>Model!Q34/Model!Q69</f>
+        <v>0.157768785624157</v>
+      </c>
+      <c r="M4" s="60">
         <f>AVERAGE(G4:I4,D4:E4)</f>
         <v>0.22218917698842239</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>107</v>
       </c>
@@ -28990,12 +29153,16 @@
         <f>Model!P26/Model!P66</f>
         <v>0.12673101414303908</v>
       </c>
-      <c r="L5" s="60">
-        <f t="shared" ref="L5:L12" si="0">AVERAGE(G5:I5,D5:E5)</f>
+      <c r="K5" s="26">
+        <f>Model!Q26/Model!Q66</f>
+        <v>0.12038412526313566</v>
+      </c>
+      <c r="M5" s="60">
+        <f t="shared" ref="M5:M12" si="0">AVERAGE(G5:I5,D5:E5)</f>
         <v>0.1399231746806982</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>108</v>
       </c>
@@ -29027,12 +29194,16 @@
         <f>(Model!P26*(1-Model!P48))/(Model!P69+Model!P70+Model!P71+Model!P76+Model!P77-Model!P64-Model!P55-Model!P56)</f>
         <v>0.13877720472925267</v>
       </c>
-      <c r="L6" s="60">
+      <c r="K6" s="26">
+        <f>(Model!Q26*(1-Model!Q48))/(Model!Q69+Model!Q70+Model!Q71+Model!Q76+Model!Q77-Model!Q64-Model!Q55-Model!Q56)</f>
+        <v>0.12996638511524339</v>
+      </c>
+      <c r="M6" s="60">
         <f t="shared" si="0"/>
         <v>0.17563463529405338</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>109</v>
       </c>
@@ -29064,12 +29235,16 @@
         <f>Model!P26/(Model!P59+Model!P60+Model!P61+Model!P62+Model!P63-Model!P57-Model!P55-Model!P78)</f>
         <v>0.14715909090909091</v>
       </c>
-      <c r="L7" s="60">
+      <c r="K7" s="26">
+        <f>Model!Q26/(Model!Q59+Model!Q60+Model!Q61+Model!Q62+Model!Q63-Model!Q57-Model!Q55-Model!Q78)</f>
+        <v>0.1392165962401179</v>
+      </c>
+      <c r="M7" s="60">
         <f t="shared" si="0"/>
         <v>0.16283920229338777</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>110</v>
       </c>
@@ -29101,12 +29276,16 @@
         <f>1-(-Model!P101/Model!P34)</f>
         <v>0.41657370517928283</v>
       </c>
-      <c r="L9" s="60">
+      <c r="K9" s="26">
+        <f>1-(-Model!Q101/Model!Q34)</f>
+        <v>0.34519213090641665</v>
+      </c>
+      <c r="M9" s="60">
         <f t="shared" si="0"/>
         <v>0.54046299017555233</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>111</v>
       </c>
@@ -29138,12 +29317,16 @@
         <f>J9*J4</f>
         <v>7.5454269920764344E-2</v>
       </c>
-      <c r="L10" s="60">
+      <c r="K10" s="60">
+        <f>K9*K4</f>
+        <v>5.4460543300120387E-2</v>
+      </c>
+      <c r="M10" s="60">
         <f t="shared" si="0"/>
         <v>0.12103062434752712</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>112</v>
       </c>
@@ -29175,12 +29358,16 @@
         <f>(-Model!P94-Model!P96)/(Model!P26*(1-Model!P48))</f>
         <v>0.55129447226570283</v>
       </c>
-      <c r="L11" s="60">
+      <c r="K11" s="26">
+        <f>(-Model!Q94-Model!Q96)/(Model!Q26*(1-Model!Q48))</f>
+        <v>0.42363073699227943</v>
+      </c>
+      <c r="M11" s="60">
         <f t="shared" si="0"/>
         <v>0.50599624573101187</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>111</v>
       </c>
@@ -29212,15 +29399,19 @@
         <f>J11*J6</f>
         <v>7.650710584372275E-2</v>
       </c>
-      <c r="L12" s="60">
+      <c r="K12" s="60">
+        <f>K11*K6</f>
+        <v>5.5057755510592971E-2</v>
+      </c>
+      <c r="M12" s="60">
         <f t="shared" si="0"/>
         <v>8.9289857416454829E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J13" s="26"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="58" t="s">
         <v>17</v>
       </c>
@@ -29229,7 +29420,7 @@
       </c>
       <c r="J14" s="26"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>114</v>
       </c>
@@ -29261,12 +29452,16 @@
         <f>J32/Model!P69</f>
         <v>0.40654090955013206</v>
       </c>
-      <c r="L15" s="60">
-        <f t="shared" ref="L15:L16" si="3">AVERAGE(G15:I15,D15:E15)</f>
+      <c r="K15" s="26">
+        <f>K32/Model!Q69</f>
+        <v>0.35478397076099727</v>
+      </c>
+      <c r="M15" s="60">
+        <f t="shared" ref="M15:M16" si="3">AVERAGE(G15:I15,D15:E15)</f>
         <v>0.39866768597751723</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>115</v>
       </c>
@@ -29298,15 +29493,19 @@
         <f>J32/(Model!P26+Model!P88)</f>
         <v>1.1999148029818956</v>
       </c>
-      <c r="L16" s="60">
+      <c r="K16" s="26">
+        <f>K32/(Model!Q26+Model!Q88)</f>
+        <v>1.1140866238557179</v>
+      </c>
+      <c r="M16" s="60">
         <f t="shared" si="3"/>
         <v>0.98977905537672606</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J17" s="26"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="58" t="s">
         <v>17</v>
       </c>
@@ -29314,7 +29513,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>117</v>
       </c>
@@ -29346,12 +29545,17 @@
         <f>Model!P61/Model!P19*360</f>
         <v>20.10793193439061</v>
       </c>
-      <c r="L20" s="42">
+      <c r="K20" s="42">
+        <f>Model!Q61/Model!Q19*360</f>
+        <v>19.299318128379966</v>
+      </c>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42">
         <f>AVERAGE(G20:I20,D20:F20)</f>
         <v>21.746349035380774</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>118</v>
       </c>
@@ -29383,12 +29587,17 @@
         <f>Model!P78/Model!P19*360</f>
         <v>36.687410696361724</v>
       </c>
-      <c r="L21" s="42">
-        <f t="shared" ref="L21:L25" si="4">AVERAGE(G21:I21,D21:F21)</f>
+      <c r="K21" s="42">
+        <f>Model!Q78/Model!Q19*360</f>
+        <v>36.633954979147845</v>
+      </c>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42">
+        <f t="shared" ref="M21:M25" si="4">AVERAGE(G21:I21,D21:F21)</f>
         <v>39.741068707329823</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>119</v>
       </c>
@@ -29420,12 +29629,17 @@
         <f>Model!P60/Model!P66</f>
         <v>0.15865004356860379</v>
       </c>
-      <c r="L22" s="26">
+      <c r="K22" s="26">
+        <f>Model!Q60/Model!Q66</f>
+        <v>0.15952885515745896</v>
+      </c>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26">
         <f>AVERAGE(D22:I22)</f>
         <v>0.14544044760055749</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>120</v>
       </c>
@@ -29457,12 +29671,17 @@
         <f>Model!P20/Model!P60</f>
         <v>1.1795175123579364</v>
       </c>
-      <c r="L23" s="42">
+      <c r="K23" s="42">
+        <f>Model!Q20/Model!Q60</f>
+        <v>1.2038924930491195</v>
+      </c>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42">
         <f t="shared" si="4"/>
         <v>1.2371314321040898</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>121</v>
       </c>
@@ -29494,12 +29713,17 @@
         <f>360/J23</f>
         <v>305.20954223081884</v>
       </c>
-      <c r="L24" s="42">
+      <c r="K24" s="42">
+        <f>360/K23</f>
+        <v>299.03002309468826</v>
+      </c>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42">
         <f t="shared" si="4"/>
         <v>291.37206175337752</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>122</v>
       </c>
@@ -29531,12 +29755,17 @@
         <f>J24+J20-J21</f>
         <v>288.63006346884771</v>
       </c>
-      <c r="L25" s="42">
+      <c r="K25" s="42">
+        <f>K24+K20-K21</f>
+        <v>281.69538624392038</v>
+      </c>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42">
         <f t="shared" si="4"/>
         <v>273.37734208142848</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="58" t="s">
         <v>17</v>
       </c>
@@ -29544,7 +29773,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>1</v>
       </c>
@@ -29567,11 +29796,13 @@
         <v>733.6</v>
       </c>
       <c r="J29" s="4">
-        <f>+Main!I4</f>
-        <v>605.70000000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>635.4</v>
+      </c>
+      <c r="K29" s="4">
+        <v>641.79999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>124</v>
       </c>
@@ -29603,8 +29834,13 @@
         <f>Model!P37</f>
         <v>499.41251499999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K30" s="42">
+        <f>Model!Q37</f>
+        <v>497.68693999999999</v>
+      </c>
+      <c r="L30" s="42"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>3</v>
       </c>
@@ -29634,10 +29870,15 @@
       </c>
       <c r="J31" s="61">
         <f>J30*J29</f>
-        <v>302494.16033550003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>317326.712031</v>
+      </c>
+      <c r="K31" s="61">
+        <f>K30*K29</f>
+        <v>319415.47809199995</v>
+      </c>
+      <c r="L31" s="61"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>125</v>
       </c>
@@ -29665,12 +29906,17 @@
         <f>(Model!O76+Model!O77+Model!O70+Model!O71-Model!O64-Model!O55-Model!O56)</f>
         <v>28317</v>
       </c>
-      <c r="J32" s="43">
+      <c r="J32" s="61">
         <f>(Model!P76+Model!P77+Model!P70+Model!P71-Model!P64-Model!P55-Model!P56)</f>
         <v>28168</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K32" s="61">
+        <f>(Model!Q76+Model!Q77+Model!Q70+Model!Q71-Model!Q64-Model!Q55-Model!Q56)</f>
+        <v>24462</v>
+      </c>
+      <c r="L32" s="61"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>6</v>
       </c>
@@ -29700,10 +29946,15 @@
       </c>
       <c r="J33" s="61">
         <f>J31+J32</f>
-        <v>330662.16033550003</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+        <v>345494.712031</v>
+      </c>
+      <c r="K33" s="61">
+        <f>K31+K32</f>
+        <v>343877.47809199995</v>
+      </c>
+      <c r="L33" s="61"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>134</v>
       </c>
@@ -29735,13 +29986,18 @@
         <f>Model!P26*(1-Model!P46)+Model!P88+Model!P94+Model!P96+Model!P89</f>
         <v>15025.672826895599</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K34" s="43">
+        <f>Model!Q26*(1-Model!Q46)+Model!Q88+Model!Q94+Model!Q96+Model!Q89</f>
+        <v>16024.23</v>
+      </c>
+      <c r="L34" s="43"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="59" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>127</v>
       </c>
@@ -29771,14 +30027,19 @@
       </c>
       <c r="J36" s="42">
         <f>Main!I6/Model!P34</f>
-        <v>24.056148479378489</v>
-      </c>
-      <c r="L36" s="42">
+        <v>21.77132510438247</v>
+      </c>
+      <c r="K36" s="42">
+        <f>Main!J6/Model!Q34</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42">
         <f>AVERAGE(G36:I36,D36:E36)</f>
         <v>25.697601603031632</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>128</v>
       </c>
@@ -29805,14 +30066,19 @@
       </c>
       <c r="J37" s="42">
         <f>J36/-2</f>
-        <v>-12.028074239689245</v>
-      </c>
-      <c r="L37" s="62">
+        <v>-10.885662552191235</v>
+      </c>
+      <c r="K37" s="42">
+        <f>K36/-2</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="42"/>
+      <c r="M37" s="62">
         <f>AVERAGE(G37:I37,E37)</f>
         <v>1.7517193053397484</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>129</v>
       </c>
@@ -29842,19 +30108,24 @@
       </c>
       <c r="J38" s="42">
         <f>J31/Model!P69</f>
-        <v>4.3658140825190879</v>
-      </c>
-      <c r="L38" s="42">
+        <v>4.5798881757183887</v>
+      </c>
+      <c r="K38" s="42">
+        <f>K31/Model!Q69</f>
+        <v>4.6326339481645844</v>
+      </c>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42">
         <f>AVERAGE(G38:I38,D38:E38)</f>
         <v>5.7320731346538283</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="59" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>131</v>
       </c>
@@ -29884,14 +30155,14 @@
       </c>
       <c r="J40" s="42">
         <f>J33/Model!P19</f>
-        <v>3.9047053167164605</v>
-      </c>
-      <c r="L40" s="42">
+        <v>4.0798591456490678</v>
+      </c>
+      <c r="M40" s="42">
         <f>AVERAGE(G40:I40,D40:E40)</f>
         <v>4.4819642035307483</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>132</v>
       </c>
@@ -29921,14 +30192,14 @@
       </c>
       <c r="J41" s="42">
         <f>Ratios!J33/(Model!P26+Model!P88+Model!P89)</f>
-        <v>12.382959230629519</v>
-      </c>
-      <c r="L41" s="42">
-        <f t="shared" ref="L41:L42" si="9">AVERAGE(G41:I41,D41:E41)</f>
+        <v>12.938423099689174</v>
+      </c>
+      <c r="M41" s="42">
+        <f t="shared" ref="M41:M42" si="9">AVERAGE(G41:I41,D41:E41)</f>
         <v>13.733298568356517</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
         <v>133</v>
       </c>
@@ -29958,9 +30229,9 @@
       </c>
       <c r="J42" s="42">
         <f>J33/Model!P26</f>
-        <v>17.488875037578676</v>
-      </c>
-      <c r="L42" s="42">
+        <v>18.273375576823398</v>
+      </c>
+      <c r="M42" s="42">
         <f t="shared" si="9"/>
         <v>18.302798363347609</v>
       </c>
@@ -30041,14 +30312,14 @@
       </c>
       <c r="J3" s="6">
         <f>+Main!I4</f>
-        <v>605.70000000000005</v>
+        <v>549</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>156</v>
       </c>
       <c r="O3" s="6">
         <f>+J3</f>
-        <v>605.70000000000005</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -30057,14 +30328,14 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">+TODAY()</f>
-        <v>45948</v>
+        <v>46052</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>158</v>
       </c>
       <c r="J4" s="8">
         <f ca="1">V62</f>
-        <v>468.15322097279955</v>
+        <v>473.30125987615406</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>159</v>
@@ -30086,7 +30357,7 @@
       </c>
       <c r="J5" s="11">
         <f ca="1">J4/J3-1</f>
-        <v>-0.22708730233977292</v>
+        <v>-0.13788477253888154</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>161</v>
@@ -30468,43 +30739,43 @@
       </c>
       <c r="M25" s="21">
         <f ca="1">L25*(1+M26)</f>
-        <v>80755.09</v>
+        <v>80807</v>
       </c>
       <c r="N25" s="21">
         <f t="shared" ref="N25:V25" ca="1" si="1">M25*(1+N26)</f>
-        <v>84226.87</v>
+        <v>83818.930000000008</v>
       </c>
       <c r="O25" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>89107.88682</v>
+        <v>88668.278380000018</v>
       </c>
       <c r="P25" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>94194.817278600021</v>
+        <v>93721.736746200011</v>
       </c>
       <c r="Q25" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>99495.949457226001</v>
+        <v>98987.515184126009</v>
       </c>
       <c r="R25" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>105019.90582064714</v>
+        <v>104474.15528819249</v>
       </c>
       <c r="S25" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>110775.65688016928</v>
+        <v>110190.5437313541</v>
       </c>
       <c r="T25" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>113739.48255406351</v>
+        <v>113129.14908843122</v>
       </c>
       <c r="U25" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>116791.37784076792</v>
+        <v>116154.99028466294</v>
       </c>
       <c r="V25" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>119934.1731417472</v>
+        <v>119270.87306555131</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -30535,43 +30806,43 @@
       </c>
       <c r="M26" s="25" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">OFFSET(M26,$E$11,,)</f>
-        <v>-4.6383689760636782E-2</v>
+        <v>-4.577069777877496E-2</v>
       </c>
       <c r="N26" s="25" cm="1">
         <f t="array" aca="1" ref="N26" ca="1">OFFSET(N26,$E$11,,)</f>
-        <v>4.2991469639870328E-2</v>
+        <v>3.7273132278144328E-2</v>
       </c>
       <c r="O26" s="25" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">OFFSET(O26,$E$11,,)</f>
-        <v>5.795082756844705E-2</v>
+        <v>5.7855049927265867E-2</v>
       </c>
       <c r="P26" s="25" cm="1">
         <f t="array" aca="1" ref="P26" ca="1">OFFSET(P26,$E$11,,)</f>
-        <v>5.7087320103053729E-2</v>
+        <v>5.6992855376561069E-2</v>
       </c>
       <c r="Q26" s="25" cm="1">
         <f t="array" aca="1" ref="Q26" ca="1">OFFSET(Q26,$E$11,,)</f>
-        <v>5.6278384860037667E-2</v>
+        <v>5.6185241767187977E-2</v>
       </c>
       <c r="R26" s="25" cm="1">
         <f t="array" aca="1" ref="R26" ca="1">OFFSET(R26,$E$11,,)</f>
-        <v>5.551940951923795E-2</v>
+        <v>5.5427597044544585E-2</v>
       </c>
       <c r="S26" s="25" cm="1">
         <f t="array" aca="1" ref="S26" ca="1">OFFSET(S26,$E$11,,)</f>
-        <v>5.4806286622955058E-2</v>
+        <v>5.4715813948367664E-2</v>
       </c>
       <c r="T26" s="25" cm="1">
         <f t="array" aca="1" ref="T26" ca="1">OFFSET(T26,$E$11,,)</f>
-        <v>2.6755207392724634E-2</v>
+        <v>2.6668398735207877E-2</v>
       </c>
       <c r="U26" s="25" cm="1">
         <f t="array" aca="1" ref="U26" ca="1">OFFSET(U26,$E$11,,)</f>
-        <v>2.6832329620048778E-2</v>
+        <v>2.6746786487949814E-2</v>
       </c>
       <c r="V26" s="25" cm="1">
         <f t="array" aca="1" ref="V26" ca="1">OFFSET(V26,$E$11,,)</f>
-        <v>2.6909480469218705E-2</v>
+        <v>2.6825216663117324E-2</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
@@ -30585,43 +30856,43 @@
       <c r="L27" s="26"/>
       <c r="M27" s="27">
         <f>+M28-2%</f>
-        <v>-6.6383689760636785E-2</v>
+        <v>-6.5770697778774964E-2</v>
       </c>
       <c r="N27" s="27">
         <f t="shared" ref="N27:V27" si="3">+N28-2%</f>
-        <v>2.2991469639870327E-2</v>
+        <v>1.7273132278144327E-2</v>
       </c>
       <c r="O27" s="27">
         <f t="shared" si="3"/>
-        <v>3.7950827568447046E-2</v>
+        <v>3.7855049927265863E-2</v>
       </c>
       <c r="P27" s="27">
         <f t="shared" si="3"/>
-        <v>3.7087320103053725E-2</v>
+        <v>3.6992855376561065E-2</v>
       </c>
       <c r="Q27" s="27">
         <f t="shared" si="3"/>
-        <v>3.6278384860037663E-2</v>
+        <v>3.6185241767187973E-2</v>
       </c>
       <c r="R27" s="27">
         <f t="shared" si="3"/>
-        <v>3.5519409519237946E-2</v>
+        <v>3.5427597044544581E-2</v>
       </c>
       <c r="S27" s="27">
         <f t="shared" si="3"/>
-        <v>3.4806286622955054E-2</v>
+        <v>3.471581394836766E-2</v>
       </c>
       <c r="T27" s="27">
         <f t="shared" si="3"/>
-        <v>6.7552073927246332E-3</v>
+        <v>6.6683987352078762E-3</v>
       </c>
       <c r="U27" s="27">
         <f t="shared" si="3"/>
-        <v>6.8323296200487778E-3</v>
+        <v>6.7467864879498136E-3</v>
       </c>
       <c r="V27" s="27">
         <f t="shared" si="3"/>
-        <v>6.9094804692187047E-3</v>
+        <v>6.8252166631173235E-3</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -30635,43 +30906,43 @@
       <c r="L28" s="26"/>
       <c r="M28" s="27">
         <f>+Model!Q44</f>
-        <v>-4.6383689760636782E-2</v>
+        <v>-4.577069777877496E-2</v>
       </c>
       <c r="N28" s="27">
         <f>+Model!R44</f>
-        <v>4.2991469639870328E-2</v>
+        <v>3.7273132278144328E-2</v>
       </c>
       <c r="O28" s="27">
         <f>+Model!S44</f>
-        <v>5.795082756844705E-2</v>
+        <v>5.7855049927265867E-2</v>
       </c>
       <c r="P28" s="27">
         <f>+Model!T44</f>
-        <v>5.7087320103053729E-2</v>
+        <v>5.6992855376561069E-2</v>
       </c>
       <c r="Q28" s="27">
         <f>+Model!U44</f>
-        <v>5.6278384860037667E-2</v>
+        <v>5.6185241767187977E-2</v>
       </c>
       <c r="R28" s="27">
         <f>+Model!V44</f>
-        <v>5.551940951923795E-2</v>
+        <v>5.5427597044544585E-2</v>
       </c>
       <c r="S28" s="27">
         <f>+Model!W44</f>
-        <v>5.4806286622955058E-2</v>
+        <v>5.4715813948367664E-2</v>
       </c>
       <c r="T28" s="27">
         <f>+Model!X44</f>
-        <v>2.6755207392724634E-2</v>
+        <v>2.6668398735207877E-2</v>
       </c>
       <c r="U28" s="27">
         <f>+Model!Y44</f>
-        <v>2.6832329620048778E-2</v>
+        <v>2.6746786487949814E-2</v>
       </c>
       <c r="V28" s="27">
         <f>+Model!Z44</f>
-        <v>2.6909480469218705E-2</v>
+        <v>2.6825216663117324E-2</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -30685,43 +30956,43 @@
       <c r="L29" s="26"/>
       <c r="M29" s="27">
         <f>+M28+2%</f>
-        <v>-2.6383689760636781E-2</v>
+        <v>-2.577069777877496E-2</v>
       </c>
       <c r="N29" s="27">
         <f t="shared" ref="N29:V29" si="4">+N28+2%</f>
-        <v>6.2991469639870332E-2</v>
+        <v>5.7273132278144331E-2</v>
       </c>
       <c r="O29" s="27">
         <f t="shared" si="4"/>
-        <v>7.7950827568447054E-2</v>
+        <v>7.7855049927265871E-2</v>
       </c>
       <c r="P29" s="27">
         <f t="shared" si="4"/>
-        <v>7.7087320103053733E-2</v>
+        <v>7.6992855376561073E-2</v>
       </c>
       <c r="Q29" s="27">
         <f t="shared" si="4"/>
-        <v>7.6278384860037671E-2</v>
+        <v>7.6185241767187981E-2</v>
       </c>
       <c r="R29" s="27">
         <f t="shared" si="4"/>
-        <v>7.5519409519237954E-2</v>
+        <v>7.5427597044544589E-2</v>
       </c>
       <c r="S29" s="27">
         <f t="shared" si="4"/>
-        <v>7.4806286622955062E-2</v>
+        <v>7.4715813948367668E-2</v>
       </c>
       <c r="T29" s="27">
         <f t="shared" si="4"/>
-        <v>4.6755207392724638E-2</v>
+        <v>4.6668398735207881E-2</v>
       </c>
       <c r="U29" s="27">
         <f t="shared" si="4"/>
-        <v>4.6832329620048782E-2</v>
+        <v>4.6746786487949818E-2</v>
       </c>
       <c r="V29" s="27">
         <f t="shared" si="4"/>
-        <v>4.6909480469218709E-2</v>
+        <v>4.6825216663117328E-2</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
@@ -30754,43 +31025,43 @@
       </c>
       <c r="M31" s="21">
         <f ca="1">M32*M25</f>
-        <v>18573.670699999999</v>
+        <v>18585.61</v>
       </c>
       <c r="N31" s="21">
         <f t="shared" ref="N31:V31" ca="1" si="5">N32*N25</f>
-        <v>20635.583149999999</v>
+        <v>20535.637850000003</v>
       </c>
       <c r="O31" s="21">
         <f t="shared" ca="1" si="5"/>
-        <v>23168.050573200002</v>
+        <v>23053.752378800007</v>
       </c>
       <c r="P31" s="21">
         <f t="shared" ca="1" si="5"/>
-        <v>25903.574751615008</v>
+        <v>25773.477605205004</v>
       </c>
       <c r="Q31" s="21">
         <f t="shared" ca="1" si="5"/>
-        <v>28853.825342595544</v>
+        <v>28706.379403396546</v>
       </c>
       <c r="R31" s="21">
         <f t="shared" ca="1" si="5"/>
-        <v>32031.071275297381</v>
+        <v>31864.617362898713</v>
       </c>
       <c r="S31" s="21">
         <f t="shared" ca="1" si="5"/>
-        <v>32678.818779649941</v>
+        <v>32506.210400749464</v>
       </c>
       <c r="T31" s="21">
         <f t="shared" ca="1" si="5"/>
-        <v>32415.752527908102</v>
+        <v>32241.8074902029</v>
       </c>
       <c r="U31" s="21">
         <f t="shared" ca="1" si="5"/>
-        <v>32117.628906211179</v>
+        <v>31942.622328282312</v>
       </c>
       <c r="V31" s="21">
         <f t="shared" ca="1" si="5"/>
-        <v>31782.555882563011</v>
+        <v>31606.781362371097</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
@@ -31027,43 +31298,43 @@
       </c>
       <c r="M37" s="21">
         <f ca="1">M38*M31</f>
-        <v>5014.8910889999997</v>
+        <v>5018.1147000000001</v>
       </c>
       <c r="N37" s="21">
         <f t="shared" ref="N37:V37" ca="1" si="9">N38*N31</f>
-        <v>5984.3191134999988</v>
+        <v>5955.3349765000003</v>
       </c>
       <c r="O37" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>6718.7346662279997</v>
+        <v>6685.588189852002</v>
       </c>
       <c r="P37" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>7512.0366779683518</v>
+        <v>7474.3085055094507</v>
       </c>
       <c r="Q37" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>8367.6093493527078</v>
+        <v>8324.8500269849974</v>
       </c>
       <c r="R37" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>9289.0106698362397</v>
+        <v>9240.7390352406255</v>
       </c>
       <c r="S37" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>9476.8574460984819</v>
+        <v>9426.8010162173432</v>
       </c>
       <c r="T37" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>9400.5682330933487</v>
+        <v>9350.1241721588412</v>
       </c>
       <c r="U37" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>9314.1123828012405</v>
+        <v>9263.3604752018691</v>
       </c>
       <c r="V37" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>9216.9412059432725</v>
+        <v>9165.966595087617</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.2">
@@ -31162,43 +31433,43 @@
       </c>
       <c r="M40" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>13558.779610999998</v>
+        <v>13567.4953</v>
       </c>
       <c r="N40" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>14651.264036500001</v>
+        <v>14580.302873500003</v>
       </c>
       <c r="O40" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>16449.315906972002</v>
+        <v>16368.164188948005</v>
       </c>
       <c r="P40" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>18391.538073646654</v>
+        <v>18299.169099695551</v>
       </c>
       <c r="Q40" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>20486.215993242837</v>
+        <v>20381.529376411549</v>
       </c>
       <c r="R40" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>22742.060605461142</v>
+        <v>22623.878327658087</v>
       </c>
       <c r="S40" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>23201.961333551459</v>
+        <v>23079.409384532119</v>
       </c>
       <c r="T40" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>23015.184294814753</v>
+        <v>22891.683318044059</v>
       </c>
       <c r="U40" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>22803.51652340994</v>
+        <v>22679.261853080443</v>
       </c>
       <c r="V40" s="31">
         <f t="shared" ca="1" si="11"/>
-        <v>22565.614676619738</v>
+        <v>22440.814767283482</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.2">
@@ -31231,43 +31502,43 @@
       </c>
       <c r="M42" s="21">
         <f ca="1">M43*M25</f>
-        <v>7752.4886399999996</v>
+        <v>7757.4719999999998</v>
       </c>
       <c r="N42" s="21">
         <f t="shared" ref="N42:V42" ca="1" si="12">N43*N25</f>
-        <v>8085.77952</v>
+        <v>8046.6172800000013</v>
       </c>
       <c r="O42" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>8554.3571347199995</v>
+        <v>8512.1547244800022</v>
       </c>
       <c r="P42" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>9042.7024587456017</v>
+        <v>8997.2867276352008</v>
       </c>
       <c r="Q42" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>9551.6111478936964</v>
+        <v>9502.8014576760979</v>
       </c>
       <c r="R42" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>10081.910958782126</v>
+        <v>10029.518907666479</v>
       </c>
       <c r="S42" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>10634.463060496251</v>
+        <v>10578.292198209994</v>
       </c>
       <c r="T42" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>10918.990325190096</v>
+        <v>10860.398312489398</v>
       </c>
       <c r="U42" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>11211.972272713721</v>
+        <v>11150.879067327642</v>
       </c>
       <c r="V42" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>11513.680621607731</v>
+        <v>11450.003814292926</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.2">
@@ -31363,43 +31634,43 @@
       </c>
       <c r="M45" s="21">
         <f ca="1">M46*M25</f>
-        <v>-5249.0808500000003</v>
+        <v>-5252.4549999999999</v>
       </c>
       <c r="N45" s="21">
         <f t="shared" ref="N45:V45" ca="1" si="14">N46*N25</f>
-        <v>-5474.7465499999998</v>
+        <v>-5448.2304500000009</v>
       </c>
       <c r="O45" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>-5792.0126433000005</v>
+        <v>-5763.4380947000018</v>
       </c>
       <c r="P45" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>-6122.6631231090014</v>
+        <v>-6091.9128885030013</v>
       </c>
       <c r="Q45" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>-6367.7407652624643</v>
+        <v>-6335.2009717840647</v>
       </c>
       <c r="R45" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>-6616.2540667007697</v>
+        <v>-6581.8717831561271</v>
       </c>
       <c r="S45" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>-6868.0907265704955</v>
+        <v>-6831.8137113439543</v>
       </c>
       <c r="T45" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>-6938.1084357978734</v>
+        <v>-6900.8780943943048</v>
       </c>
       <c r="U45" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>-7007.4826704460747</v>
+        <v>-6969.2994170797765</v>
       </c>
       <c r="V45" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>-7076.1162153630848</v>
+        <v>-7036.9815108675266</v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.2">
@@ -31497,43 +31768,43 @@
       </c>
       <c r="M48" s="21">
         <f ca="1">M49*M25</f>
-        <v>-1857.3670699999998</v>
+        <v>-1858.5609999999999</v>
       </c>
       <c r="N48" s="21">
         <f t="shared" ref="N48:V48" ca="1" si="17">N49*N25</f>
-        <v>-1937.2180099999998</v>
+        <v>-1927.8353900000002</v>
       </c>
       <c r="O48" s="21">
         <f t="shared" ca="1" si="17"/>
-        <v>-2049.4813968600001</v>
+        <v>-2039.3704027400004</v>
       </c>
       <c r="P48" s="21">
         <f t="shared" ca="1" si="17"/>
-        <v>-2166.4807974078003</v>
+        <v>-2155.5999451626003</v>
       </c>
       <c r="Q48" s="21">
         <f t="shared" ca="1" si="17"/>
-        <v>-2288.4068375161978</v>
+        <v>-2276.7128492348979</v>
       </c>
       <c r="R48" s="21">
         <f t="shared" ca="1" si="17"/>
-        <v>-2415.4578338748843</v>
+        <v>-2402.905571628427</v>
       </c>
       <c r="S48" s="21">
         <f t="shared" ca="1" si="17"/>
-        <v>-2547.8401082438932</v>
+        <v>-2534.3825058211442</v>
       </c>
       <c r="T48" s="21">
         <f t="shared" ca="1" si="17"/>
-        <v>-2616.0080987434608</v>
+        <v>-2601.9704290339182</v>
       </c>
       <c r="U48" s="21">
         <f t="shared" ca="1" si="17"/>
-        <v>-2686.2016903376621</v>
+        <v>-2671.5647765472477</v>
       </c>
       <c r="V48" s="21">
         <f t="shared" ca="1" si="17"/>
-        <v>-2758.4859822601857</v>
+        <v>-2743.2300805076802</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.2">
@@ -31629,43 +31900,43 @@
       </c>
       <c r="M51" s="36">
         <f ca="1">M40+M42+M45+M48</f>
-        <v>14204.820330999997</v>
+        <v>14213.951300000001</v>
       </c>
       <c r="N51" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>15325.0789965</v>
+        <v>15250.8543135</v>
       </c>
       <c r="O51" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>17162.179001532004</v>
+        <v>17077.510415988003</v>
       </c>
       <c r="P51" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>19145.096611875459</v>
+        <v>19048.94299366515</v>
       </c>
       <c r="Q51" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>21381.679538357872</v>
+        <v>21272.417013068687</v>
       </c>
       <c r="R51" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>23792.259663667617</v>
+        <v>23668.619880540013</v>
       </c>
       <c r="S51" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>24420.49355923332</v>
+        <v>24291.505365577013</v>
       </c>
       <c r="T51" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>24380.058085463519</v>
+        <v>24249.233107105236</v>
       </c>
       <c r="U51" s="36">
         <f t="shared" ca="1" si="19"/>
-        <v>24321.804435339924</v>
+        <v>24189.276726781063</v>
       </c>
       <c r="V51" s="37">
         <f ca="1">V40+V42+V45+V48</f>
-        <v>24244.6931006042</v>
+        <v>24110.606990201202</v>
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.2">
@@ -31684,43 +31955,43 @@
       <c r="L52" s="40"/>
       <c r="M52" s="40">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>2830.5240038717029</v>
+        <v>1176.01998540561</v>
       </c>
       <c r="N52" s="40">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>13816.147524345854</v>
+        <v>13891.489009294064</v>
       </c>
       <c r="O52" s="40">
         <f t="shared" ref="O52:U52" ca="1" si="20">O51/(1+$E$18)^O53</f>
-        <v>14194.829139998072</v>
+        <v>14270.943547763323</v>
       </c>
       <c r="P52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14527.430497883874</v>
+        <v>14604.023175590346</v>
       </c>
       <c r="Q52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14884.921970949443</v>
+        <v>14962.07996456356</v>
       </c>
       <c r="R52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>15195.463063332041</v>
+        <v>15272.90218669272</v>
       </c>
       <c r="S52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14308.897986357817</v>
+        <v>14380.585441452855</v>
       </c>
       <c r="T52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>13105.69293673404</v>
+        <v>13170.238751938941</v>
       </c>
       <c r="U52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>11994.842409763665</v>
+        <v>12052.913077394609</v>
       </c>
       <c r="V52" s="41">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>10969.553420693854</v>
+        <v>11021.755881141624</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
@@ -31729,43 +32000,43 @@
       </c>
       <c r="M53" s="42">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.20277777777777778</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N53" s="42">
         <f ca="1">M53+1</f>
-        <v>1.2027777777777777</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="O53" s="42">
         <f ca="1">N53+1</f>
-        <v>2.2027777777777775</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="P53" s="42">
         <f t="shared" ref="P53:V53" ca="1" si="21">O53+1</f>
-        <v>3.2027777777777775</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="Q53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>4.2027777777777775</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="R53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>5.2027777777777775</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="S53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>6.2027777777777775</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="T53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>7.2027777777777775</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="U53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>8.2027777777777775</v>
+        <v>8.0833333333333321</v>
       </c>
       <c r="V53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>9.2027777777777775</v>
+        <v>9.0833333333333321</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
@@ -31778,7 +32049,7 @@
       <c r="Q54" s="43"/>
       <c r="V54" s="21">
         <f ca="1">SUM(M52:V52)</f>
-        <v>125828.30295393034</v>
+        <v>124802.95102123766</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
@@ -31791,7 +32062,7 @@
       <c r="Q55" s="43"/>
       <c r="V55" s="21">
         <f ca="1">+(V40*(1+E19))*(1-(E19/E20))/(E18-E19)</f>
-        <v>269029.01653424575</v>
+        <v>267541.14229047066</v>
       </c>
       <c r="X55" s="44" t="s">
         <v>193</v>
@@ -31822,7 +32093,7 @@
       <c r="U56" s="45"/>
       <c r="V56" s="46">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>121722.64488328765</v>
+        <v>122301.90470467022</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
@@ -31850,7 +32121,7 @@
       <c r="U57" s="48"/>
       <c r="V57" s="49">
         <f ca="1">V54+V56</f>
-        <v>247550.947837218</v>
+        <v>247104.8557259079</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
@@ -31863,7 +32134,7 @@
       <c r="Q58" s="43"/>
       <c r="V58" s="50">
         <f>+Main!I7</f>
-        <v>8176</v>
+        <v>8794</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.2">
@@ -31891,7 +32162,7 @@
       <c r="U59" s="45"/>
       <c r="V59" s="46">
         <f>+Main!I8</f>
-        <v>22381</v>
+        <v>20343</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.2">
@@ -31904,7 +32175,7 @@
       <c r="Q60" s="43"/>
       <c r="V60" s="50">
         <f ca="1">V57+V58-V59</f>
-        <v>233345.947837218</v>
+        <v>235555.8557259079</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
@@ -31932,7 +32203,7 @@
       <c r="U61" s="45"/>
       <c r="V61" s="46">
         <f>+Main!I5</f>
-        <v>498.43926599999998</v>
+        <v>497.68693999999999</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.2">
@@ -31941,7 +32212,7 @@
       </c>
       <c r="V62" s="50">
         <f ca="1">V60/V61</f>
-        <v>468.15322097279955</v>
+        <v>473.30125987615406</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
@@ -31974,35 +32245,35 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B68" s="51"/>
-      <c r="C68" s="76" t="s">
+      <c r="C68" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76"/>
-      <c r="J68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="78"/>
       <c r="M68" s="51"/>
-      <c r="N68" s="78" t="s">
+      <c r="N68" s="79" t="s">
         <v>201</v>
       </c>
-      <c r="O68" s="78"/>
-      <c r="P68" s="78"/>
-      <c r="Q68" s="78"/>
-      <c r="R68" s="78"/>
-      <c r="S68" s="78"/>
-      <c r="T68" s="78"/>
-      <c r="U68" s="79"/>
+      <c r="O68" s="79"/>
+      <c r="P68" s="79"/>
+      <c r="Q68" s="79"/>
+      <c r="R68" s="79"/>
+      <c r="S68" s="79"/>
+      <c r="T68" s="79"/>
+      <c r="U68" s="80"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="80" t="s">
+      <c r="B69" s="81" t="s">
         <v>172</v>
       </c>
       <c r="C69" s="52">
         <f ca="1">+J4</f>
-        <v>468.15322097279955</v>
+        <v>473.30125987615406</v>
       </c>
       <c r="D69" s="53">
         <v>0.01</v>
@@ -32025,12 +32296,12 @@
       <c r="J69" s="53">
         <v>0.04</v>
       </c>
-      <c r="M69" s="80" t="s">
+      <c r="M69" s="81" t="s">
         <v>172</v>
       </c>
       <c r="N69" s="52">
         <f ca="1">+J4</f>
-        <v>468.15322097279955</v>
+        <v>473.30125987615406</v>
       </c>
       <c r="O69" s="53">
         <v>0.08</v>
@@ -32055,369 +32326,369 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="80"/>
+      <c r="B70" s="81"/>
       <c r="C70" s="54">
         <v>0.06</v>
       </c>
       <c r="D70" s="55">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>748.15676246086468</v>
+        <v>752.4627044215058</v>
       </c>
       <c r="E70" s="55">
-        <v>777.71494651584976</v>
+        <v>782.10745840078937</v>
       </c>
       <c r="F70" s="55">
-        <v>814.36174484646506</v>
+        <v>818.86158776877005</v>
       </c>
       <c r="G70" s="56">
-        <v>861.13513499940836</v>
+        <v>865.77196769203204</v>
       </c>
       <c r="H70" s="55">
-        <v>923.0984128858446</v>
+        <v>927.91672344821598</v>
       </c>
       <c r="I70" s="55">
-        <v>1009.3655111458693</v>
+        <v>1014.4364805370758</v>
       </c>
       <c r="J70" s="55">
-        <v>1138.1642950596733</v>
-      </c>
-      <c r="M70" s="80"/>
+        <v>1143.6124899581173</v>
+      </c>
+      <c r="M70" s="81"/>
       <c r="N70" s="54">
         <v>0.06</v>
       </c>
       <c r="O70" s="55">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>768.31918891466137</v>
+        <v>772.68418253180903</v>
       </c>
       <c r="P70" s="55">
-        <v>787.07726725724785</v>
+        <v>791.49719948020061</v>
       </c>
       <c r="Q70" s="55">
-        <v>802.08372993131729</v>
+        <v>806.54761303891394</v>
       </c>
       <c r="R70" s="56">
-        <v>814.36174484646506</v>
+        <v>818.86158776877005</v>
       </c>
       <c r="S70" s="55">
-        <v>824.5934239424214</v>
+        <v>829.12323337698353</v>
       </c>
       <c r="T70" s="55">
-        <v>833.25099856207669</v>
+        <v>837.80616427624125</v>
       </c>
       <c r="U70" s="55">
-        <v>840.67177680749569</v>
+        <v>845.24867647560495</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="80"/>
+      <c r="B71" s="81"/>
       <c r="C71" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D71" s="55">
-        <v>620.04867922211736</v>
+        <v>624.70885635395257</v>
       </c>
       <c r="E71" s="55">
-        <v>635.47231810935557</v>
+        <v>640.19502676444222</v>
       </c>
       <c r="F71" s="55">
-        <v>653.75986911969062</v>
+        <v>658.55672035744362</v>
       </c>
       <c r="G71" s="56">
-        <v>675.86596962748763</v>
+        <v>680.75244486046051</v>
       </c>
       <c r="H71" s="55">
-        <v>703.22257569429564</v>
+        <v>708.21996186474883</v>
       </c>
       <c r="I71" s="55">
-        <v>738.07990398826166</v>
+        <v>743.21861101371087</v>
       </c>
       <c r="J71" s="55">
-        <v>784.18831562296486</v>
-      </c>
-      <c r="M71" s="80"/>
+        <v>789.51395837968334</v>
+      </c>
+      <c r="M71" s="81"/>
       <c r="N71" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O71" s="55">
-        <v>619.97507400400036</v>
+        <v>624.63495272075727</v>
       </c>
       <c r="P71" s="55">
-        <v>633.73924979187416</v>
+        <v>638.45493212829615</v>
       </c>
       <c r="Q71" s="55">
-        <v>644.75059042217333</v>
+        <v>649.51091565432728</v>
       </c>
       <c r="R71" s="56">
-        <v>653.75986911969062</v>
+        <v>658.55672035744362</v>
       </c>
       <c r="S71" s="55">
-        <v>661.26760136762164</v>
+        <v>666.0948909433738</v>
       </c>
       <c r="T71" s="55">
-        <v>667.62029788510199</v>
+        <v>672.47334297762268</v>
       </c>
       <c r="U71" s="55">
-        <v>673.06546632865638</v>
+        <v>677.94058757840719</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="80"/>
+      <c r="B72" s="81"/>
       <c r="C72" s="54">
         <v>0.08</v>
       </c>
       <c r="D72" s="56">
-        <v>528.196410832536</v>
+        <v>533.10525092080013</v>
       </c>
       <c r="E72" s="56">
-        <v>536.42686671259492</v>
+        <v>541.37826244850692</v>
       </c>
       <c r="F72" s="56">
-        <v>545.86014970367728</v>
+        <v>550.86032031585148</v>
       </c>
       <c r="G72" s="56">
-        <v>556.82430356333487</v>
+        <v>561.88116443364413</v>
       </c>
       <c r="H72" s="56">
-        <v>569.7785895521406</v>
+        <v>574.90243067701931</v>
       </c>
       <c r="I72" s="56">
-        <v>585.38638504647679</v>
+        <v>590.59092642117139</v>
       </c>
       <c r="J72" s="56">
-        <v>604.64275611091773</v>
-      </c>
-      <c r="M72" s="80"/>
+        <v>609.94686272889135</v>
+      </c>
+      <c r="M72" s="81"/>
       <c r="N72" s="54">
         <v>0.08</v>
       </c>
       <c r="O72" s="56">
-        <v>520.01607274876983</v>
+        <v>524.88261632391152</v>
       </c>
       <c r="P72" s="56">
-        <v>530.54514113780624</v>
+        <v>535.46612535766474</v>
       </c>
       <c r="Q72" s="56">
-        <v>538.96839584903535</v>
+        <v>543.93293258466747</v>
       </c>
       <c r="R72" s="56">
-        <v>545.86014970367728</v>
+        <v>550.86032031585148</v>
       </c>
       <c r="S72" s="56">
-        <v>551.60327791587883</v>
+        <v>556.63314342517128</v>
       </c>
       <c r="T72" s="56">
-        <v>556.46284794158805</v>
+        <v>561.5178399022883</v>
       </c>
       <c r="U72" s="56">
-        <v>560.62819367791019</v>
+        <v>565.70472259695998</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="80"/>
+      <c r="B73" s="81"/>
       <c r="C73" s="54">
         <v>0.09</v>
       </c>
       <c r="D73" s="55">
-        <v>459.04199060833474</v>
+        <v>464.13283204243322</v>
       </c>
       <c r="E73" s="55">
-        <v>463.35596975413722</v>
+        <v>468.47389300701241</v>
       </c>
       <c r="F73" s="55">
-        <v>468.15322097279955</v>
+        <v>473.30125987615406</v>
       </c>
       <c r="G73" s="56">
-        <v>473.54526858882735</v>
+        <v>478.72715708937221</v>
       </c>
       <c r="H73" s="55">
-        <v>479.68081170156262</v>
+        <v>484.90121723268635</v>
       </c>
       <c r="I73" s="55">
-        <v>486.76262181010696</v>
+        <v>492.0274847415771</v>
       </c>
       <c r="J73" s="55">
-        <v>495.07457901320316</v>
-      </c>
-      <c r="M73" s="80"/>
+        <v>500.39162182571732</v>
+      </c>
+      <c r="M73" s="81"/>
       <c r="N73" s="54">
         <v>0.09</v>
       </c>
       <c r="O73" s="55">
-        <v>447.80258964779074</v>
+        <v>452.82287361981417</v>
       </c>
       <c r="P73" s="55">
-        <v>456.09358759501652</v>
+        <v>461.16591987239713</v>
       </c>
       <c r="Q73" s="55">
-        <v>462.72638595279716</v>
+        <v>467.8403568744634</v>
       </c>
       <c r="R73" s="56">
-        <v>468.15322097279955</v>
+        <v>473.30125987615406</v>
       </c>
       <c r="S73" s="55">
-        <v>472.67558348946812</v>
+        <v>477.85201237756286</v>
       </c>
       <c r="T73" s="55">
-        <v>476.50219792664927</v>
+        <v>481.70264910952426</v>
       </c>
       <c r="U73" s="55">
-        <v>479.78215315851884</v>
+        <v>485.0031948797768</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="80"/>
+      <c r="B74" s="81"/>
       <c r="C74" s="54">
         <v>0.1</v>
       </c>
       <c r="D74" s="55">
-        <v>405.04930570159445</v>
+        <v>410.27723290522533</v>
       </c>
       <c r="E74" s="55">
-        <v>407.13620723044329</v>
+        <v>412.37952733634205</v>
       </c>
       <c r="F74" s="55">
-        <v>409.37696879157988</v>
+        <v>414.63681666519517</v>
       </c>
       <c r="G74" s="56">
-        <v>411.80236239146166</v>
+        <v>417.08009987133204</v>
       </c>
       <c r="H74" s="55">
-        <v>414.45195203839154</v>
+        <v>419.7492327855993</v>
       </c>
       <c r="I74" s="55">
-        <v>417.37747528168796</v>
+        <v>422.69633457141146</v>
       </c>
       <c r="J74" s="55">
-        <v>420.64791552044284</v>
-      </c>
-      <c r="M74" s="80"/>
+        <v>425.99089744665486</v>
+      </c>
+      <c r="M74" s="81"/>
       <c r="N74" s="54">
         <v>0.1</v>
       </c>
       <c r="O74" s="55">
-        <v>393.00556199237712</v>
+        <v>398.14465502377112</v>
       </c>
       <c r="P74" s="55">
-        <v>399.67539439205228</v>
+        <v>404.86368384064758</v>
       </c>
       <c r="Q74" s="55">
-        <v>405.01126031179246</v>
+        <v>410.23890689414878</v>
       </c>
       <c r="R74" s="56">
-        <v>409.37696879157988</v>
+        <v>414.63681666519517</v>
       </c>
       <c r="S74" s="55">
-        <v>413.01505919140271</v>
+        <v>418.3017414744005</v>
       </c>
       <c r="T74" s="55">
-        <v>416.09344337586822</v>
+        <v>421.40283169757424</v>
       </c>
       <c r="U74" s="55">
-        <v>418.73205839112438</v>
+        <v>424.06090903172321</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="80"/>
+      <c r="B75" s="81"/>
       <c r="C75" s="54">
         <v>0.11</v>
       </c>
       <c r="D75" s="55">
-        <v>361.69358713067248</v>
+        <v>367.02682996978479</v>
       </c>
       <c r="E75" s="55">
-        <v>362.48120386941554</v>
+        <v>367.82111425788383</v>
       </c>
       <c r="F75" s="55">
-        <v>363.26882060815865</v>
+        <v>368.61539854598288</v>
       </c>
       <c r="G75" s="56">
-        <v>364.05643734690159</v>
+        <v>369.40968283408199</v>
       </c>
       <c r="H75" s="55">
-        <v>364.84405408564464</v>
+        <v>370.20396712218093</v>
       </c>
       <c r="I75" s="55">
-        <v>365.63167082438775</v>
+        <v>370.99825141028003</v>
       </c>
       <c r="J75" s="55">
-        <v>366.41928756313081</v>
-      </c>
-      <c r="M75" s="80"/>
+        <v>371.79253569837908</v>
+      </c>
+      <c r="M75" s="81"/>
       <c r="N75" s="54">
         <v>0.11</v>
       </c>
       <c r="O75" s="55">
-        <v>349.87933604952656</v>
+        <v>355.11256564829915</v>
       </c>
       <c r="P75" s="55">
-        <v>355.3343112400803</v>
+        <v>360.61371979179995</v>
       </c>
       <c r="Q75" s="55">
-        <v>359.69829139252334</v>
+        <v>365.0146431066006</v>
       </c>
       <c r="R75" s="56">
-        <v>363.26882060815865</v>
+        <v>368.61539854598288</v>
       </c>
       <c r="S75" s="55">
-        <v>366.244261621188</v>
+        <v>371.61602807880149</v>
       </c>
       <c r="T75" s="55">
-        <v>368.76194247836668</v>
+        <v>374.15502229887881</v>
       </c>
       <c r="U75" s="55">
-        <v>370.91995464166268</v>
+        <v>376.33130305894508</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B76" s="81"/>
+      <c r="B76" s="82"/>
       <c r="C76" s="54">
         <v>0.12</v>
       </c>
       <c r="D76" s="55">
-        <v>326.0929491441853</v>
+        <v>331.50817753714244</v>
       </c>
       <c r="E76" s="55">
-        <v>326.11492550486525</v>
+        <v>331.53036369250788</v>
       </c>
       <c r="F76" s="55">
-        <v>326.06657751136936</v>
+        <v>331.48155415070386</v>
       </c>
       <c r="G76" s="56">
-        <v>325.93680131830121</v>
+        <v>331.35053906480886</v>
       </c>
       <c r="H76" s="55">
-        <v>325.71202555906575</v>
+        <v>331.12361751080772</v>
       </c>
       <c r="I76" s="55">
-        <v>325.37548560433908</v>
+        <v>330.78386481785822</v>
       </c>
       <c r="J76" s="55">
-        <v>324.90622566746674</v>
-      </c>
-      <c r="M76" s="81"/>
+        <v>330.31012514740752</v>
+      </c>
+      <c r="M76" s="82"/>
       <c r="N76" s="54">
         <v>0.12</v>
       </c>
       <c r="O76" s="55">
-        <v>314.97071300405042</v>
+        <v>320.27976430668218</v>
       </c>
       <c r="P76" s="55">
-        <v>319.4912503959211</v>
+        <v>324.84345646535775</v>
       </c>
       <c r="Q76" s="55">
-        <v>323.10768030941767</v>
+        <v>328.49441019229812</v>
       </c>
       <c r="R76" s="56">
-        <v>326.06657751136936</v>
+        <v>331.48155415070386</v>
       </c>
       <c r="S76" s="55">
-        <v>328.53232517966245</v>
+        <v>333.97084078270865</v>
       </c>
       <c r="T76" s="55">
-        <v>330.61872705283355</v>
+        <v>336.07716024055895</v>
       </c>
       <c r="U76" s="55">
-        <v>332.40707151555159</v>
+        <v>337.88257691871627</v>
       </c>
     </row>
   </sheetData>

--- a/MC.PA.xlsx
+++ b/MC.PA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C9C267-75C2-4A0D-95B7-38DAFD6EA82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B972BBC5-508F-49F7-A698-6DD9901069B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="3" xr2:uid="{833B3248-1BC2-4BAF-AC24-6FD47873AD76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="2" xr2:uid="{833B3248-1BC2-4BAF-AC24-6FD47873AD76}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1422,6 +1422,10 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1440,10 +1444,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2048,7 +2048,7 @@
       <c r="I5" s="43">
         <v>497.68693999999999</v>
       </c>
-      <c r="J5" s="83" t="s">
+      <c r="J5" s="77" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       <c r="I7" s="61">
         <v>8794</v>
       </c>
-      <c r="J7" s="83" t="s">
+      <c r="J7" s="77" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
         <f>12418+7925</f>
         <v>20343</v>
       </c>
-      <c r="J8" s="83" t="s">
+      <c r="J8" s="77" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="58"/>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="78" t="s">
         <v>271</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -21834,11 +21834,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F17FE6-5AF0-4FF3-A39B-0B25DA51672D}">
   <dimension ref="A1:Z175"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="P15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q122" sqref="Q122"/>
+      <selection pane="bottomRight" activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29029,7 +29029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07D4BFD-8B54-4F0A-B988-F0D31C1B811E}">
   <dimension ref="A2:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -29065,7 +29065,7 @@
       <c r="J2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="K2" s="77" t="s">
         <v>261</v>
       </c>
       <c r="M2" s="57" t="s">
@@ -30328,14 +30328,14 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">+TODAY()</f>
-        <v>46052</v>
+        <v>46065</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>158</v>
       </c>
       <c r="J4" s="8">
         <f ca="1">V62</f>
-        <v>473.30125987615406</v>
+        <v>472.81952388440197</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>159</v>
@@ -30357,7 +30357,7 @@
       </c>
       <c r="J5" s="11">
         <f ca="1">J4/J3-1</f>
-        <v>-0.13788477253888154</v>
+        <v>-0.13876225157668132</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>161</v>
@@ -31955,43 +31955,43 @@
       <c r="L52" s="40"/>
       <c r="M52" s="40">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>1176.01998540561</v>
+        <v>1641.7052536991489</v>
       </c>
       <c r="N52" s="40">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>13891.489009294064</v>
+        <v>13851.641718484387</v>
       </c>
       <c r="O52" s="40">
         <f t="shared" ref="O52:U52" ca="1" si="20">O51/(1+$E$18)^O53</f>
-        <v>14270.943547763323</v>
+        <v>14230.007803776791</v>
       </c>
       <c r="P52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14604.023175590346</v>
+        <v>14562.132003371178</v>
       </c>
       <c r="Q52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14962.07996456356</v>
+        <v>14919.16171792587</v>
       </c>
       <c r="R52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>15272.90218669272</v>
+        <v>15229.092356476986</v>
       </c>
       <c r="S52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>14380.585441452855</v>
+        <v>14339.335193209801</v>
       </c>
       <c r="T52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>13170.238751938941</v>
+        <v>13132.460344366486</v>
       </c>
       <c r="U52" s="40">
         <f t="shared" ca="1" si="20"/>
-        <v>12052.913077394609</v>
+        <v>12018.339682693913</v>
       </c>
       <c r="V52" s="41">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>11021.755881141624</v>
+        <v>10990.140327795592</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
@@ -32000,43 +32000,43 @@
       </c>
       <c r="M53" s="42">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="N53" s="42">
         <f ca="1">M53+1</f>
-        <v>1.0833333333333333</v>
+        <v>1.1166666666666667</v>
       </c>
       <c r="O53" s="42">
         <f ca="1">N53+1</f>
-        <v>2.083333333333333</v>
+        <v>2.1166666666666667</v>
       </c>
       <c r="P53" s="42">
         <f t="shared" ref="P53:V53" ca="1" si="21">O53+1</f>
-        <v>3.083333333333333</v>
+        <v>3.1166666666666667</v>
       </c>
       <c r="Q53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>4.083333333333333</v>
+        <v>4.1166666666666671</v>
       </c>
       <c r="R53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>5.083333333333333</v>
+        <v>5.1166666666666671</v>
       </c>
       <c r="S53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>6.083333333333333</v>
+        <v>6.1166666666666671</v>
       </c>
       <c r="T53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>7.083333333333333</v>
+        <v>7.1166666666666671</v>
       </c>
       <c r="U53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>8.0833333333333321</v>
+        <v>8.1166666666666671</v>
       </c>
       <c r="V53" s="42">
         <f t="shared" ca="1" si="21"/>
-        <v>9.0833333333333321</v>
+        <v>9.1166666666666671</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
@@ -32049,7 +32049,7 @@
       <c r="Q54" s="43"/>
       <c r="V54" s="21">
         <f ca="1">SUM(M52:V52)</f>
-        <v>124802.95102123766</v>
+        <v>124914.01640180015</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
@@ -32093,7 +32093,7 @@
       <c r="U56" s="45"/>
       <c r="V56" s="46">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>122301.90470467022</v>
+        <v>121951.08561248476</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
@@ -32121,7 +32121,7 @@
       <c r="U57" s="48"/>
       <c r="V57" s="49">
         <f ca="1">V54+V56</f>
-        <v>247104.8557259079</v>
+        <v>246865.10201428493</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
@@ -32175,7 +32175,7 @@
       <c r="Q60" s="43"/>
       <c r="V60" s="50">
         <f ca="1">V57+V58-V59</f>
-        <v>235555.8557259079</v>
+        <v>235316.10201428493</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
@@ -32212,7 +32212,7 @@
       </c>
       <c r="V62" s="50">
         <f ca="1">V60/V61</f>
-        <v>473.30125987615406</v>
+        <v>472.81952388440197</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
@@ -32245,35 +32245,35 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B68" s="51"/>
-      <c r="C68" s="77" t="s">
+      <c r="C68" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="78"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="79"/>
+      <c r="I68" s="79"/>
+      <c r="J68" s="80"/>
       <c r="M68" s="51"/>
-      <c r="N68" s="79" t="s">
+      <c r="N68" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="O68" s="79"/>
-      <c r="P68" s="79"/>
-      <c r="Q68" s="79"/>
-      <c r="R68" s="79"/>
-      <c r="S68" s="79"/>
-      <c r="T68" s="79"/>
-      <c r="U68" s="80"/>
+      <c r="O68" s="81"/>
+      <c r="P68" s="81"/>
+      <c r="Q68" s="81"/>
+      <c r="R68" s="81"/>
+      <c r="S68" s="81"/>
+      <c r="T68" s="81"/>
+      <c r="U68" s="82"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="81" t="s">
+      <c r="B69" s="83" t="s">
         <v>172</v>
       </c>
       <c r="C69" s="52">
         <f ca="1">+J4</f>
-        <v>473.30125987615406</v>
+        <v>472.81952388440197</v>
       </c>
       <c r="D69" s="53">
         <v>0.01</v>
@@ -32296,12 +32296,12 @@
       <c r="J69" s="53">
         <v>0.04</v>
       </c>
-      <c r="M69" s="81" t="s">
+      <c r="M69" s="83" t="s">
         <v>172</v>
       </c>
       <c r="N69" s="52">
         <f ca="1">+J4</f>
-        <v>473.30125987615406</v>
+        <v>472.81952388440197</v>
       </c>
       <c r="O69" s="53">
         <v>0.08</v>
@@ -32326,369 +32326,369 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="81"/>
+      <c r="B70" s="83"/>
       <c r="C70" s="54">
         <v>0.06</v>
       </c>
       <c r="D70" s="55">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>752.4627044215058</v>
+        <v>751.90313992948563</v>
       </c>
       <c r="E70" s="55">
-        <v>782.10745840078937</v>
+        <v>781.49037087539295</v>
       </c>
       <c r="F70" s="55">
-        <v>818.86158776877005</v>
+        <v>818.17318209339589</v>
       </c>
       <c r="G70" s="56">
-        <v>865.77196769203204</v>
+        <v>864.99253655724931</v>
       </c>
       <c r="H70" s="55">
-        <v>927.91672344821598</v>
+        <v>927.01670588987872</v>
       </c>
       <c r="I70" s="55">
-        <v>1014.4364805370758</v>
+        <v>1013.3685790125497</v>
       </c>
       <c r="J70" s="55">
-        <v>1143.6124899581173</v>
-      </c>
-      <c r="M70" s="81"/>
+        <v>1142.2939337677935</v>
+      </c>
+      <c r="M70" s="83"/>
       <c r="N70" s="54">
         <v>0.06</v>
       </c>
       <c r="O70" s="55">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>772.68418253180903</v>
+        <v>772.08538004304</v>
       </c>
       <c r="P70" s="55">
-        <v>791.49719948020061</v>
+        <v>790.86189198948136</v>
       </c>
       <c r="Q70" s="55">
-        <v>806.54761303891394</v>
+        <v>805.88310154663441</v>
       </c>
       <c r="R70" s="56">
-        <v>818.86158776877005</v>
+        <v>818.17318209339589</v>
       </c>
       <c r="S70" s="55">
-        <v>829.12323337698353</v>
+        <v>828.41491588236386</v>
       </c>
       <c r="T70" s="55">
-        <v>837.80616427624125</v>
+        <v>837.08099831918298</v>
       </c>
       <c r="U70" s="55">
-        <v>845.24867647560495</v>
+        <v>844.50906897931361</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="81"/>
+      <c r="B71" s="83"/>
       <c r="C71" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D71" s="55">
-        <v>624.70885635395257</v>
+        <v>624.19378532466339</v>
       </c>
       <c r="E71" s="55">
-        <v>640.19502676444222</v>
+        <v>639.64506931074504</v>
       </c>
       <c r="F71" s="55">
-        <v>658.55672035744362</v>
+        <v>657.96539865302771</v>
       </c>
       <c r="G71" s="56">
-        <v>680.75244486046051</v>
+        <v>680.11112180357804</v>
       </c>
       <c r="H71" s="55">
-        <v>708.21996186474883</v>
+        <v>707.51676144049645</v>
       </c>
       <c r="I71" s="55">
-        <v>743.21861101371087</v>
+        <v>742.43656748651256</v>
       </c>
       <c r="J71" s="55">
-        <v>789.51395837968334</v>
-      </c>
-      <c r="M71" s="81"/>
+        <v>788.62762314617487</v>
+      </c>
+      <c r="M71" s="83"/>
       <c r="N71" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O71" s="55">
-        <v>624.63495272075727</v>
+        <v>624.12004817765842</v>
       </c>
       <c r="P71" s="55">
-        <v>638.45493212829615</v>
+        <v>637.90889466762371</v>
       </c>
       <c r="Q71" s="55">
-        <v>649.51091565432728</v>
+        <v>648.93997185959597</v>
       </c>
       <c r="R71" s="56">
-        <v>658.55672035744362</v>
+        <v>657.96539865302771</v>
       </c>
       <c r="S71" s="55">
-        <v>666.0948909433738</v>
+        <v>665.4865876475543</v>
       </c>
       <c r="T71" s="55">
-        <v>672.47334297762268</v>
+        <v>671.85067064292286</v>
       </c>
       <c r="U71" s="55">
-        <v>677.94058757840719</v>
+        <v>677.30559892466749</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="81"/>
+      <c r="B72" s="83"/>
       <c r="C72" s="54">
         <v>0.08</v>
       </c>
       <c r="D72" s="56">
-        <v>533.10525092080013</v>
+        <v>532.62342976092805</v>
       </c>
       <c r="E72" s="56">
-        <v>541.37826244850692</v>
+        <v>540.87524516883343</v>
       </c>
       <c r="F72" s="56">
-        <v>550.86032031585148</v>
+        <v>550.33300924257617</v>
       </c>
       <c r="G72" s="56">
-        <v>561.88116443364413</v>
+        <v>561.3256170728389</v>
       </c>
       <c r="H72" s="56">
-        <v>574.90243067701931</v>
+        <v>574.31352178657801</v>
       </c>
       <c r="I72" s="56">
-        <v>590.59092642117139</v>
+        <v>589.96182234495222</v>
       </c>
       <c r="J72" s="56">
-        <v>609.94686272889135</v>
-      </c>
-      <c r="M72" s="81"/>
+        <v>609.26816718969962</v>
+      </c>
+      <c r="M72" s="83"/>
       <c r="N72" s="54">
         <v>0.08</v>
       </c>
       <c r="O72" s="56">
-        <v>524.88261632391152</v>
+        <v>524.42186221409941</v>
       </c>
       <c r="P72" s="56">
-        <v>535.46612535766474</v>
+        <v>534.97825544792329</v>
       </c>
       <c r="Q72" s="56">
-        <v>543.93293258466747</v>
+        <v>543.42337003498233</v>
       </c>
       <c r="R72" s="56">
-        <v>550.86032031585148</v>
+        <v>550.33300924257617</v>
       </c>
       <c r="S72" s="56">
-        <v>556.63314342517128</v>
+        <v>556.09104191557094</v>
       </c>
       <c r="T72" s="56">
-        <v>561.5178399022883</v>
+        <v>560.96322340810502</v>
       </c>
       <c r="U72" s="56">
-        <v>565.70472259695998</v>
+        <v>565.13937897313417</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="81"/>
+      <c r="B73" s="83"/>
       <c r="C73" s="54">
         <v>0.09</v>
       </c>
       <c r="D73" s="55">
-        <v>464.13283204243322</v>
+        <v>463.67739539194775</v>
       </c>
       <c r="E73" s="55">
-        <v>468.47389300701241</v>
+        <v>468.0060041623409</v>
       </c>
       <c r="F73" s="55">
-        <v>473.30125987615406</v>
+        <v>472.81952388440197</v>
       </c>
       <c r="G73" s="56">
-        <v>478.72715708937221</v>
+        <v>478.22985708543871</v>
       </c>
       <c r="H73" s="55">
-        <v>484.90121723268635</v>
+        <v>484.38620713519538</v>
       </c>
       <c r="I73" s="55">
-        <v>492.0274847415771</v>
+        <v>491.49203317423195</v>
       </c>
       <c r="J73" s="55">
-        <v>500.39162182571732</v>
-      </c>
-      <c r="M73" s="81"/>
+        <v>499.83217799933198</v>
+      </c>
+      <c r="M73" s="83"/>
       <c r="N73" s="54">
         <v>0.09</v>
       </c>
       <c r="O73" s="55">
-        <v>452.82287361981417</v>
+        <v>452.39987922242415</v>
       </c>
       <c r="P73" s="55">
-        <v>461.16591987239713</v>
+        <v>460.71899371434102</v>
       </c>
       <c r="Q73" s="55">
-        <v>467.8403568744634</v>
+        <v>467.37428530787457</v>
       </c>
       <c r="R73" s="56">
-        <v>473.30125987615406</v>
+        <v>472.81952388440197</v>
       </c>
       <c r="S73" s="55">
-        <v>477.85201237756286</v>
+        <v>477.35722269817478</v>
       </c>
       <c r="T73" s="55">
-        <v>481.70264910952426</v>
+        <v>481.19681400213648</v>
       </c>
       <c r="U73" s="55">
-        <v>485.0031948797768</v>
+        <v>484.48789226267502</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="81"/>
+      <c r="B74" s="83"/>
       <c r="C74" s="54">
         <v>0.1</v>
       </c>
       <c r="D74" s="55">
-        <v>410.27723290522533</v>
+        <v>409.84371514065094</v>
       </c>
       <c r="E74" s="55">
-        <v>412.37952733634205</v>
+        <v>411.93934116814791</v>
       </c>
       <c r="F74" s="55">
-        <v>414.63681666519517</v>
+        <v>414.18947045504473</v>
       </c>
       <c r="G74" s="56">
-        <v>417.08009987133204</v>
+        <v>416.62500365322143</v>
       </c>
       <c r="H74" s="55">
-        <v>419.7492327855993</v>
+        <v>419.2856701722381</v>
       </c>
       <c r="I74" s="55">
-        <v>422.69633457141146</v>
+        <v>422.2234238553653</v>
       </c>
       <c r="J74" s="55">
-        <v>425.99089744665486</v>
-      </c>
-      <c r="M74" s="81"/>
+        <v>425.50753649363077</v>
+      </c>
+      <c r="M74" s="83"/>
       <c r="N74" s="54">
         <v>0.1</v>
       </c>
       <c r="O74" s="55">
-        <v>398.14465502377112</v>
+        <v>397.74962136735172</v>
       </c>
       <c r="P74" s="55">
-        <v>404.86368384064758</v>
+        <v>404.4473376623377</v>
       </c>
       <c r="Q74" s="55">
-        <v>410.23890689414878</v>
+        <v>409.8055106983266</v>
       </c>
       <c r="R74" s="56">
-        <v>414.63681666519517</v>
+        <v>414.18947045504473</v>
       </c>
       <c r="S74" s="55">
-        <v>418.3017414744005</v>
+        <v>417.84277025230983</v>
       </c>
       <c r="T74" s="55">
-        <v>421.40283169757424</v>
+        <v>420.93402392691883</v>
       </c>
       <c r="U74" s="55">
-        <v>424.06090903172321</v>
+        <v>423.58366993372653</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="81"/>
+      <c r="B75" s="83"/>
       <c r="C75" s="54">
         <v>0.11</v>
       </c>
       <c r="D75" s="55">
-        <v>367.02682996978479</v>
+        <v>366.61218065049655</v>
       </c>
       <c r="E75" s="55">
-        <v>367.82111425788383</v>
+        <v>367.40370668821197</v>
       </c>
       <c r="F75" s="55">
-        <v>368.61539854598288</v>
+        <v>368.1952327259275</v>
       </c>
       <c r="G75" s="56">
-        <v>369.40968283408199</v>
+        <v>368.98675876364291</v>
       </c>
       <c r="H75" s="55">
-        <v>370.20396712218093</v>
+        <v>369.77828480135844</v>
       </c>
       <c r="I75" s="55">
-        <v>370.99825141028003</v>
+        <v>370.56981083907391</v>
       </c>
       <c r="J75" s="55">
-        <v>371.79253569837908</v>
-      </c>
-      <c r="M75" s="81"/>
+        <v>371.36133687678938</v>
+      </c>
+      <c r="M75" s="83"/>
       <c r="N75" s="54">
         <v>0.11</v>
       </c>
       <c r="O75" s="55">
-        <v>355.11256564829915</v>
+        <v>354.73929008476426</v>
       </c>
       <c r="P75" s="55">
-        <v>360.61371979179995</v>
+        <v>360.22134079042337</v>
       </c>
       <c r="Q75" s="55">
-        <v>365.0146431066006</v>
+        <v>364.60698135495068</v>
       </c>
       <c r="R75" s="56">
-        <v>368.61539854598288</v>
+        <v>368.1952327259275</v>
       </c>
       <c r="S75" s="55">
-        <v>371.61602807880149</v>
+        <v>371.18544220174152</v>
       </c>
       <c r="T75" s="55">
-        <v>374.15502229887881</v>
+        <v>373.71561945050723</v>
       </c>
       <c r="U75" s="55">
-        <v>376.33130305894508</v>
+        <v>375.8843428065922</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B76" s="82"/>
+      <c r="B76" s="84"/>
       <c r="C76" s="54">
         <v>0.12</v>
       </c>
       <c r="D76" s="55">
-        <v>331.50817753714244</v>
+        <v>331.11022800251112</v>
       </c>
       <c r="E76" s="55">
-        <v>331.53036369250788</v>
+        <v>331.13233050505312</v>
       </c>
       <c r="F76" s="55">
-        <v>331.48155415070386</v>
+        <v>331.08370499946068</v>
       </c>
       <c r="G76" s="56">
-        <v>331.35053906480886</v>
+        <v>330.95318390550193</v>
       </c>
       <c r="H76" s="55">
-        <v>331.12361751080772</v>
+        <v>330.72711795844918</v>
       </c>
       <c r="I76" s="55">
-        <v>330.78386481785822</v>
+        <v>330.38864630187425</v>
       </c>
       <c r="J76" s="55">
-        <v>330.31012514740752</v>
-      </c>
-      <c r="M76" s="82"/>
+        <v>329.91669286524149</v>
+      </c>
+      <c r="M76" s="84"/>
       <c r="N76" s="54">
         <v>0.12</v>
       </c>
       <c r="O76" s="55">
-        <v>320.27976430668218</v>
+        <v>319.92415146598933</v>
       </c>
       <c r="P76" s="55">
-        <v>324.84345646535775</v>
+        <v>324.47063623888505</v>
       </c>
       <c r="Q76" s="55">
-        <v>328.49441019229812</v>
+        <v>328.1078240572017</v>
       </c>
       <c r="R76" s="56">
-        <v>331.48155415070386</v>
+        <v>331.08370499946068</v>
       </c>
       <c r="S76" s="55">
-        <v>333.97084078270865</v>
+        <v>333.5636057846765</v>
       </c>
       <c r="T76" s="55">
-        <v>336.07716024055895</v>
+        <v>335.6619833721669</v>
       </c>
       <c r="U76" s="55">
-        <v>337.88257691871627</v>
+        <v>337.46059273287295</v>
       </c>
     </row>
   </sheetData>
